--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4554" uniqueCount="3932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4557" uniqueCount="3935">
   <si>
     <t>标题</t>
   </si>
@@ -10665,6 +10665,15 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/290150897/</t>
+  </si>
+  <si>
+    <t>西二旗地铁附近，回龙观新村，精装主卧独卫，实图拍摄，随时拎包入住v18500703899</t>
+  </si>
+  <si>
+    <t>06-12 17:15</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307239763/</t>
   </si>
   <si>
     <t>西二旗回龙观新村主卧独卫3800，26号可住，装修好，真实图片18201256378</t>
@@ -28168,7 +28177,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28621,18 +28630,18 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>1181</v>
+        <v>3551</v>
       </c>
       <c r="B41" t="s">
-        <v>3551</v>
+        <v>3552</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>3552</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>3553</v>
+        <v>1181</v>
       </c>
       <c r="B42" t="s">
         <v>3554</v>
@@ -28764,13 +28773,13 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>2398</v>
+        <v>3589</v>
       </c>
       <c r="B54" t="s">
-        <v>3589</v>
+        <v>3590</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>3590</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -28778,10 +28787,10 @@
         <v>2398</v>
       </c>
       <c r="B55" t="s">
-        <v>3591</v>
+        <v>3592</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>3592</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -28789,10 +28798,10 @@
         <v>2398</v>
       </c>
       <c r="B56" t="s">
-        <v>3593</v>
+        <v>3594</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>3594</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -28800,15 +28809,15 @@
         <v>2398</v>
       </c>
       <c r="B57" t="s">
-        <v>3595</v>
+        <v>3596</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>3596</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>3597</v>
+        <v>2398</v>
       </c>
       <c r="B58" t="s">
         <v>3598</v>
@@ -28841,18 +28850,18 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>3606</v>
       </c>
       <c r="B61" t="s">
-        <v>3606</v>
+        <v>3607</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>3607</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>3608</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
         <v>3609</v>
@@ -28874,18 +28883,18 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>3091</v>
+        <v>3614</v>
       </c>
       <c r="B64" t="s">
-        <v>3614</v>
+        <v>3615</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>3615</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>3616</v>
+        <v>3091</v>
       </c>
       <c r="B65" t="s">
         <v>3617</v>
@@ -29061,18 +29070,18 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>3432</v>
+        <v>3664</v>
       </c>
       <c r="B81" t="s">
-        <v>3664</v>
+        <v>3665</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>3665</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>3666</v>
+        <v>3432</v>
       </c>
       <c r="B82" t="s">
         <v>3667</v>
@@ -29101,6 +29110,17 @@
       </c>
       <c r="C84" s="1" t="s">
         <v>3674</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>3675</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3676</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>3677</v>
       </c>
     </row>
   </sheetData>
@@ -29188,6 +29208,7 @@
     <hyperlink ref="C82" r:id="rId81"/>
     <hyperlink ref="C83" r:id="rId82"/>
     <hyperlink ref="C84" r:id="rId83"/>
+    <hyperlink ref="C85" r:id="rId84"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29219,24 +29240,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3675</v>
+        <v>3678</v>
       </c>
       <c r="B2" t="s">
-        <v>3676</v>
+        <v>3679</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3677</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3678</v>
+        <v>3681</v>
       </c>
       <c r="B3" t="s">
-        <v>3679</v>
+        <v>3682</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3680</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -29244,43 +29265,43 @@
         <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>3681</v>
+        <v>3684</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3682</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3683</v>
+        <v>3686</v>
       </c>
       <c r="B5" t="s">
-        <v>3684</v>
+        <v>3687</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3685</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3686</v>
+        <v>3689</v>
       </c>
       <c r="B6" t="s">
-        <v>3687</v>
+        <v>3690</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3688</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3689</v>
+        <v>3692</v>
       </c>
       <c r="B7" t="s">
-        <v>3690</v>
+        <v>3693</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3691</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -29288,10 +29309,10 @@
         <v>648</v>
       </c>
       <c r="B8" t="s">
-        <v>3692</v>
+        <v>3695</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>3693</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -29299,32 +29320,32 @@
         <v>648</v>
       </c>
       <c r="B9" t="s">
-        <v>3694</v>
+        <v>3697</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>3695</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>3696</v>
+        <v>3699</v>
       </c>
       <c r="B10" t="s">
-        <v>3697</v>
+        <v>3700</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3698</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3699</v>
+        <v>3702</v>
       </c>
       <c r="B11" t="s">
-        <v>3700</v>
+        <v>3703</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>3701</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -29332,10 +29353,10 @@
         <v>648</v>
       </c>
       <c r="B12" t="s">
-        <v>3702</v>
+        <v>3705</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3703</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -29343,10 +29364,10 @@
         <v>648</v>
       </c>
       <c r="B13" t="s">
-        <v>3704</v>
+        <v>3707</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3705</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -29354,10 +29375,10 @@
         <v>1126</v>
       </c>
       <c r="B14" t="s">
-        <v>3706</v>
+        <v>3709</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3707</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -29365,43 +29386,43 @@
         <v>1181</v>
       </c>
       <c r="B15" t="s">
-        <v>3708</v>
+        <v>3711</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>3709</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>3559</v>
+        <v>3562</v>
       </c>
       <c r="B16" t="s">
-        <v>3710</v>
+        <v>3713</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>3711</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>3712</v>
+        <v>3715</v>
       </c>
       <c r="B17" t="s">
-        <v>3713</v>
+        <v>3716</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3714</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>3715</v>
+        <v>3718</v>
       </c>
       <c r="B18" t="s">
-        <v>3716</v>
+        <v>3719</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3717</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -29409,32 +29430,32 @@
         <v>1181</v>
       </c>
       <c r="B19" t="s">
-        <v>3718</v>
+        <v>3721</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>3719</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>3720</v>
+        <v>3723</v>
       </c>
       <c r="B20" t="s">
-        <v>3721</v>
+        <v>3724</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>3722</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>3723</v>
+        <v>3726</v>
       </c>
       <c r="B21" t="s">
-        <v>3724</v>
+        <v>3727</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>3725</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -29442,10 +29463,10 @@
         <v>1181</v>
       </c>
       <c r="B22" t="s">
-        <v>3726</v>
+        <v>3729</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>3727</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -29453,10 +29474,10 @@
         <v>941</v>
       </c>
       <c r="B23" t="s">
-        <v>3728</v>
+        <v>3731</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>3729</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -29464,32 +29485,32 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>3730</v>
+        <v>3733</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3731</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3732</v>
+        <v>3735</v>
       </c>
       <c r="B25" t="s">
-        <v>3733</v>
+        <v>3736</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>3734</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>3735</v>
+        <v>3738</v>
       </c>
       <c r="B26" t="s">
-        <v>3736</v>
+        <v>3739</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>3737</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -29497,120 +29518,120 @@
         <v>3420</v>
       </c>
       <c r="B27" t="s">
-        <v>3738</v>
+        <v>3741</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>3739</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>3740</v>
+        <v>3743</v>
       </c>
       <c r="B28" t="s">
-        <v>3741</v>
+        <v>3744</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>3742</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>3743</v>
+        <v>3746</v>
       </c>
       <c r="B29" t="s">
-        <v>3744</v>
+        <v>3747</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>3745</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>3746</v>
+        <v>3749</v>
       </c>
       <c r="B30" t="s">
-        <v>3747</v>
+        <v>3750</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>3748</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>3749</v>
+        <v>3752</v>
       </c>
       <c r="B31" t="s">
-        <v>3750</v>
+        <v>3753</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>3751</v>
+        <v>3754</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>3752</v>
+        <v>3755</v>
       </c>
       <c r="B32" t="s">
-        <v>3753</v>
+        <v>3756</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>3754</v>
+        <v>3757</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>3755</v>
+        <v>3758</v>
       </c>
       <c r="B33" t="s">
-        <v>3756</v>
+        <v>3759</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>3757</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>3752</v>
+        <v>3755</v>
       </c>
       <c r="B34" t="s">
-        <v>3758</v>
+        <v>3761</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>3759</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>3760</v>
+        <v>3763</v>
       </c>
       <c r="B35" t="s">
-        <v>3761</v>
+        <v>3764</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>3762</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>3763</v>
+        <v>3766</v>
       </c>
       <c r="B36" t="s">
-        <v>3764</v>
+        <v>3767</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>3765</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>3766</v>
+        <v>3769</v>
       </c>
       <c r="B37" t="s">
-        <v>3767</v>
+        <v>3770</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>3768</v>
+        <v>3771</v>
       </c>
     </row>
   </sheetData>
@@ -29682,35 +29703,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3769</v>
+        <v>3772</v>
       </c>
       <c r="B2" t="s">
-        <v>3770</v>
+        <v>3773</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3771</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3769</v>
+        <v>3772</v>
       </c>
       <c r="B3" t="s">
-        <v>3772</v>
+        <v>3775</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3773</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3774</v>
+        <v>3777</v>
       </c>
       <c r="B4" t="s">
-        <v>3775</v>
+        <v>3778</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3776</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -29718,32 +29739,32 @@
         <v>2558</v>
       </c>
       <c r="B5" t="s">
-        <v>3777</v>
+        <v>3780</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3778</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3779</v>
+        <v>3782</v>
       </c>
       <c r="B6" t="s">
-        <v>3780</v>
+        <v>3783</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3781</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3782</v>
+        <v>3785</v>
       </c>
       <c r="B7" t="s">
-        <v>3783</v>
+        <v>3786</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3784</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -29751,43 +29772,43 @@
         <v>2443</v>
       </c>
       <c r="B8" t="s">
-        <v>3785</v>
+        <v>3788</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>3786</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>3787</v>
+        <v>3790</v>
       </c>
       <c r="B9" t="s">
-        <v>3788</v>
+        <v>3791</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>3789</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>3787</v>
+        <v>3790</v>
       </c>
       <c r="B10" t="s">
-        <v>3790</v>
+        <v>3793</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3791</v>
+        <v>3794</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3787</v>
+        <v>3790</v>
       </c>
       <c r="B11" t="s">
-        <v>3792</v>
+        <v>3795</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>3793</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -29795,131 +29816,131 @@
         <v>2446</v>
       </c>
       <c r="B12" t="s">
-        <v>3794</v>
+        <v>3797</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3795</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>3787</v>
+        <v>3790</v>
       </c>
       <c r="B13" t="s">
-        <v>3796</v>
+        <v>3799</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3797</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>3787</v>
+        <v>3790</v>
       </c>
       <c r="B14" t="s">
-        <v>3798</v>
+        <v>3801</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3799</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>3787</v>
+        <v>3790</v>
       </c>
       <c r="B15" t="s">
-        <v>3800</v>
+        <v>3803</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>3801</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>3787</v>
+        <v>3790</v>
       </c>
       <c r="B16" t="s">
-        <v>3802</v>
+        <v>3805</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>3803</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>3787</v>
+        <v>3790</v>
       </c>
       <c r="B17" t="s">
-        <v>3804</v>
+        <v>3807</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3805</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>3806</v>
+        <v>3809</v>
       </c>
       <c r="B18" t="s">
-        <v>3807</v>
+        <v>3810</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3808</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>3809</v>
+        <v>3812</v>
       </c>
       <c r="B19" t="s">
-        <v>3810</v>
+        <v>3813</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>3811</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>3809</v>
+        <v>3812</v>
       </c>
       <c r="B20" t="s">
-        <v>3812</v>
+        <v>3815</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>3813</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>3809</v>
+        <v>3812</v>
       </c>
       <c r="B21" t="s">
-        <v>3814</v>
+        <v>3817</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>3815</v>
+        <v>3818</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>3809</v>
+        <v>3812</v>
       </c>
       <c r="B22" t="s">
-        <v>3816</v>
+        <v>3819</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>3817</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>3809</v>
+        <v>3812</v>
       </c>
       <c r="B23" t="s">
-        <v>3818</v>
+        <v>3821</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>3819</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -29927,32 +29948,32 @@
         <v>3470</v>
       </c>
       <c r="B24" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3821</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3809</v>
+        <v>3812</v>
       </c>
       <c r="B25" t="s">
-        <v>3822</v>
+        <v>3825</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>3823</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>3809</v>
+        <v>3812</v>
       </c>
       <c r="B26" t="s">
-        <v>3824</v>
+        <v>3827</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>3825</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -29960,21 +29981,21 @@
         <v>2455</v>
       </c>
       <c r="B27" t="s">
-        <v>3826</v>
+        <v>3829</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>3827</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>3828</v>
+        <v>3831</v>
       </c>
       <c r="B28" t="s">
-        <v>3829</v>
+        <v>3832</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>3830</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -29982,10 +30003,10 @@
         <v>2458</v>
       </c>
       <c r="B29" t="s">
-        <v>3831</v>
+        <v>3834</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>3832</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -29996,18 +30017,18 @@
         <v>2462</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>3833</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>3834</v>
+        <v>3837</v>
       </c>
       <c r="B31" t="s">
-        <v>3835</v>
+        <v>3838</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>3836</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -30018,7 +30039,7 @@
         <v>2759</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>3837</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -30026,21 +30047,21 @@
         <v>3381</v>
       </c>
       <c r="B33" t="s">
-        <v>3838</v>
+        <v>3841</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>3839</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>3840</v>
+        <v>3843</v>
       </c>
       <c r="B34" t="s">
-        <v>3841</v>
+        <v>3844</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>3842</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -30048,43 +30069,43 @@
         <v>2467</v>
       </c>
       <c r="B35" t="s">
-        <v>3843</v>
+        <v>3846</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>3844</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>3845</v>
+        <v>3848</v>
       </c>
       <c r="B36" t="s">
-        <v>3846</v>
+        <v>3849</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>3847</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>3848</v>
+        <v>3851</v>
       </c>
       <c r="B37" t="s">
-        <v>3849</v>
+        <v>3852</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>3850</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>3851</v>
+        <v>3854</v>
       </c>
       <c r="B38" t="s">
-        <v>3852</v>
+        <v>3855</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>3853</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -30092,10 +30113,10 @@
         <v>2905</v>
       </c>
       <c r="B39" t="s">
-        <v>3854</v>
+        <v>3857</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>3855</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -30103,43 +30124,43 @@
         <v>2474</v>
       </c>
       <c r="B40" t="s">
-        <v>3856</v>
+        <v>3859</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>3857</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>3858</v>
+        <v>3861</v>
       </c>
       <c r="B41" t="s">
-        <v>3859</v>
+        <v>3862</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>3860</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>3643</v>
+        <v>3646</v>
       </c>
       <c r="B42" t="s">
-        <v>3861</v>
+        <v>3864</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>3862</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>3643</v>
+        <v>3646</v>
       </c>
       <c r="B43" t="s">
-        <v>3863</v>
+        <v>3866</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>3864</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -30147,10 +30168,10 @@
         <v>2485</v>
       </c>
       <c r="B44" t="s">
-        <v>3865</v>
+        <v>3868</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>3866</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -30158,10 +30179,10 @@
         <v>2485</v>
       </c>
       <c r="B45" t="s">
-        <v>3867</v>
+        <v>3870</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>3868</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -30169,10 +30190,10 @@
         <v>2477</v>
       </c>
       <c r="B46" t="s">
-        <v>3869</v>
+        <v>3872</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>3870</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -30180,32 +30201,32 @@
         <v>2488</v>
       </c>
       <c r="B47" t="s">
-        <v>3871</v>
+        <v>3874</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>3872</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>3873</v>
+        <v>3876</v>
       </c>
       <c r="B48" t="s">
-        <v>3874</v>
+        <v>3877</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>3875</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>3565</v>
+        <v>3568</v>
       </c>
       <c r="B49" t="s">
-        <v>3876</v>
+        <v>3879</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>3877</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -30213,21 +30234,21 @@
         <v>3392</v>
       </c>
       <c r="B50" t="s">
-        <v>3878</v>
+        <v>3881</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>3879</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>3880</v>
+        <v>3883</v>
       </c>
       <c r="B51" t="s">
-        <v>3881</v>
+        <v>3884</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>3882</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -30235,54 +30256,54 @@
         <v>2493</v>
       </c>
       <c r="B52" t="s">
-        <v>3883</v>
+        <v>3886</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>3884</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>3885</v>
+        <v>3888</v>
       </c>
       <c r="B53" t="s">
-        <v>3886</v>
+        <v>3889</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>3887</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>3888</v>
+        <v>3891</v>
       </c>
       <c r="B54" t="s">
-        <v>3889</v>
+        <v>3892</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>3890</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>3891</v>
+        <v>3894</v>
       </c>
       <c r="B55" t="s">
-        <v>3892</v>
+        <v>3895</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>3893</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>3894</v>
+        <v>3897</v>
       </c>
       <c r="B56" t="s">
-        <v>3895</v>
+        <v>3898</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>3896</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -30290,10 +30311,10 @@
         <v>3409</v>
       </c>
       <c r="B57" t="s">
-        <v>3620</v>
+        <v>3623</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>3897</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -30301,10 +30322,10 @@
         <v>3415</v>
       </c>
       <c r="B58" t="s">
-        <v>3898</v>
+        <v>3901</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>3899</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -30312,10 +30333,10 @@
         <v>2510</v>
       </c>
       <c r="B59" t="s">
-        <v>3900</v>
+        <v>3903</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>3901</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -30323,21 +30344,21 @@
         <v>3127</v>
       </c>
       <c r="B60" t="s">
-        <v>3902</v>
+        <v>3905</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>3903</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>3740</v>
+        <v>3743</v>
       </c>
       <c r="B61" t="s">
-        <v>3904</v>
+        <v>3907</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>3905</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -30345,10 +30366,10 @@
         <v>2513</v>
       </c>
       <c r="B62" t="s">
-        <v>3906</v>
+        <v>3909</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>3907</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -30356,21 +30377,21 @@
         <v>3425</v>
       </c>
       <c r="B63" t="s">
-        <v>3908</v>
+        <v>3911</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>3909</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>3910</v>
+        <v>3913</v>
       </c>
       <c r="B64" t="s">
-        <v>3911</v>
+        <v>3914</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>3912</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -30378,21 +30399,21 @@
         <v>2518</v>
       </c>
       <c r="B65" t="s">
-        <v>3913</v>
+        <v>3916</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>3914</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>3915</v>
+        <v>3918</v>
       </c>
       <c r="B66" t="s">
-        <v>3916</v>
+        <v>3919</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>3917</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -30400,54 +30421,54 @@
         <v>3254</v>
       </c>
       <c r="B67" t="s">
-        <v>3918</v>
+        <v>3921</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>3919</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>3920</v>
+        <v>3923</v>
       </c>
       <c r="B68" t="s">
-        <v>3921</v>
+        <v>3924</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>3922</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>3923</v>
+        <v>3926</v>
       </c>
       <c r="B69" t="s">
-        <v>3924</v>
+        <v>3927</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>3925</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>3926</v>
+        <v>3929</v>
       </c>
       <c r="B70" t="s">
-        <v>3927</v>
+        <v>3930</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>3928</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>3929</v>
+        <v>3932</v>
       </c>
       <c r="B71" t="s">
-        <v>3930</v>
+        <v>3933</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>3931</v>
+        <v>3934</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4563" uniqueCount="3940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4566" uniqueCount="3943">
   <si>
     <t>标题</t>
   </si>
@@ -8874,6 +8874,15 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/290150410/</t>
+  </si>
+  <si>
+    <t>上林溪主卧独卫 清河地铁站旁边 小米 元中心 18612944107</t>
+  </si>
+  <si>
+    <t>06-13 17:57</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307288314/</t>
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307223316/</t>
@@ -23702,7 +23711,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C341"/>
+  <dimension ref="A1:C342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25508,117 +25517,117 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>1148</v>
+        <v>2951</v>
       </c>
       <c r="B164" t="s">
-        <v>1149</v>
+        <v>2952</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>2951</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>1169</v>
+        <v>1148</v>
       </c>
       <c r="B165" t="s">
-        <v>2952</v>
+        <v>1149</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>2953</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>6</v>
+        <v>1169</v>
       </c>
       <c r="B166" t="s">
-        <v>2954</v>
+        <v>2955</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>2955</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>1187</v>
+        <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>2956</v>
+        <v>2957</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>2957</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>1148</v>
+        <v>1187</v>
       </c>
       <c r="B168" t="s">
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>2959</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>1210</v>
+        <v>1148</v>
       </c>
       <c r="B169" t="s">
-        <v>2960</v>
+        <v>2961</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>2961</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>463</v>
+        <v>1210</v>
       </c>
       <c r="B170" t="s">
-        <v>2962</v>
+        <v>2963</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>2963</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>2485</v>
+        <v>463</v>
       </c>
       <c r="B171" t="s">
-        <v>2964</v>
+        <v>2965</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>2965</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>1246</v>
+        <v>2485</v>
       </c>
       <c r="B172" t="s">
-        <v>2966</v>
+        <v>2967</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>2967</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>1268</v>
+        <v>1246</v>
       </c>
       <c r="B173" t="s">
-        <v>2968</v>
+        <v>2969</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>2969</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>2970</v>
+        <v>1268</v>
       </c>
       <c r="B174" t="s">
         <v>2971</v>
@@ -25640,40 +25649,40 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>1284</v>
+        <v>2976</v>
       </c>
       <c r="B176" t="s">
-        <v>2976</v>
+        <v>2977</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>2977</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>1210</v>
+        <v>1284</v>
       </c>
       <c r="B177" t="s">
-        <v>1296</v>
+        <v>2979</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>2978</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>1187</v>
+        <v>1210</v>
       </c>
       <c r="B178" t="s">
-        <v>2979</v>
+        <v>1296</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>2980</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>2981</v>
+        <v>1187</v>
       </c>
       <c r="B179" t="s">
         <v>2982</v>
@@ -25695,51 +25704,51 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>1148</v>
+        <v>2987</v>
       </c>
       <c r="B181" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>1343</v>
+        <v>1148</v>
       </c>
       <c r="B182" t="s">
-        <v>2989</v>
+        <v>2990</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>2990</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>1148</v>
+        <v>1343</v>
       </c>
       <c r="B183" t="s">
-        <v>2991</v>
+        <v>2992</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>2992</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>2490</v>
+        <v>1148</v>
       </c>
       <c r="B184" t="s">
-        <v>2993</v>
+        <v>2994</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>2995</v>
+        <v>2490</v>
       </c>
       <c r="B185" t="s">
         <v>2996</v>
@@ -25750,51 +25759,51 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>1161</v>
+        <v>2998</v>
       </c>
       <c r="B186" t="s">
-        <v>2998</v>
+        <v>2999</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>2999</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>1393</v>
+        <v>1161</v>
       </c>
       <c r="B187" t="s">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>3001</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>6</v>
+        <v>1393</v>
       </c>
       <c r="B188" t="s">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>1161</v>
+        <v>6</v>
       </c>
       <c r="B189" t="s">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>3005</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>3006</v>
+        <v>1161</v>
       </c>
       <c r="B190" t="s">
         <v>3007</v>
@@ -25805,29 +25814,29 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>1450</v>
+        <v>3009</v>
       </c>
       <c r="B191" t="s">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>3010</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>6</v>
+        <v>1450</v>
       </c>
       <c r="B192" t="s">
-        <v>3011</v>
+        <v>3012</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>3012</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>3013</v>
+        <v>6</v>
       </c>
       <c r="B193" t="s">
         <v>3014</v>
@@ -25838,18 +25847,18 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>6</v>
+        <v>3016</v>
       </c>
       <c r="B194" t="s">
-        <v>3016</v>
+        <v>3017</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>3017</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>3018</v>
+        <v>6</v>
       </c>
       <c r="B195" t="s">
         <v>3019</v>
@@ -25860,18 +25869,18 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>1479</v>
+        <v>3021</v>
       </c>
       <c r="B196" t="s">
-        <v>3021</v>
+        <v>3022</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>3022</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>3023</v>
+        <v>1479</v>
       </c>
       <c r="B197" t="s">
         <v>3024</v>
@@ -25882,40 +25891,40 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>1148</v>
+        <v>3026</v>
       </c>
       <c r="B198" t="s">
-        <v>3026</v>
+        <v>3027</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>3027</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>1187</v>
+        <v>1148</v>
       </c>
       <c r="B199" t="s">
-        <v>3028</v>
+        <v>3029</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>3029</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>272</v>
+        <v>1187</v>
       </c>
       <c r="B200" t="s">
-        <v>3030</v>
+        <v>3031</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>3031</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>3032</v>
+        <v>272</v>
       </c>
       <c r="B201" t="s">
         <v>3033</v>
@@ -25926,18 +25935,18 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>1148</v>
+        <v>3035</v>
       </c>
       <c r="B202" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>3037</v>
+        <v>1148</v>
       </c>
       <c r="B203" t="s">
         <v>3038</v>
@@ -25948,32 +25957,32 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>1169</v>
+        <v>3040</v>
       </c>
       <c r="B204" t="s">
-        <v>3040</v>
+        <v>3041</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>1148</v>
+        <v>1169</v>
       </c>
       <c r="B205" t="s">
-        <v>1581</v>
+        <v>3043</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>3042</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>3043</v>
+        <v>1148</v>
       </c>
       <c r="B206" t="s">
-        <v>3044</v>
+        <v>1581</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>3045</v>
@@ -25981,18 +25990,18 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>1148</v>
+        <v>3046</v>
       </c>
       <c r="B207" t="s">
-        <v>3046</v>
+        <v>3047</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>3047</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>3048</v>
+        <v>1148</v>
       </c>
       <c r="B208" t="s">
         <v>3049</v>
@@ -26003,40 +26012,40 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>1148</v>
+        <v>3051</v>
       </c>
       <c r="B209" t="s">
-        <v>1622</v>
+        <v>3052</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>3051</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>1629</v>
+        <v>1148</v>
       </c>
       <c r="B210" t="s">
-        <v>3052</v>
+        <v>1622</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>3053</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>1638</v>
+        <v>1629</v>
       </c>
       <c r="B211" t="s">
-        <v>3054</v>
+        <v>3055</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>3055</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>3056</v>
+        <v>1638</v>
       </c>
       <c r="B212" t="s">
         <v>3057</v>
@@ -26069,13 +26078,13 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>1148</v>
+        <v>3065</v>
       </c>
       <c r="B215" t="s">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>3066</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -26083,43 +26092,43 @@
         <v>1148</v>
       </c>
       <c r="B216" t="s">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>3068</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>1670</v>
+        <v>1148</v>
       </c>
       <c r="B217" t="s">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="B218" t="s">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>3072</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>1148</v>
+        <v>1673</v>
       </c>
       <c r="B219" t="s">
-        <v>3073</v>
+        <v>3074</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>3074</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -26127,15 +26136,15 @@
         <v>1148</v>
       </c>
       <c r="B220" t="s">
-        <v>3075</v>
+        <v>3076</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>3076</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>3077</v>
+        <v>1148</v>
       </c>
       <c r="B221" t="s">
         <v>3078</v>
@@ -26157,18 +26166,18 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>6</v>
+        <v>3083</v>
       </c>
       <c r="B223" t="s">
-        <v>3083</v>
+        <v>3084</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>3084</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>3085</v>
+        <v>6</v>
       </c>
       <c r="B224" t="s">
         <v>3086</v>
@@ -26179,18 +26188,18 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>1148</v>
+        <v>3088</v>
       </c>
       <c r="B225" t="s">
-        <v>3088</v>
+        <v>3089</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>3089</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>3090</v>
+        <v>1148</v>
       </c>
       <c r="B226" t="s">
         <v>3091</v>
@@ -26223,18 +26232,18 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>1735</v>
+        <v>3099</v>
       </c>
       <c r="B229" t="s">
-        <v>3099</v>
+        <v>3100</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>3100</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>3101</v>
+        <v>1735</v>
       </c>
       <c r="B230" t="s">
         <v>3102</v>
@@ -26245,18 +26254,18 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>1148</v>
+        <v>3104</v>
       </c>
       <c r="B231" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>3105</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>3106</v>
+        <v>1148</v>
       </c>
       <c r="B232" t="s">
         <v>3107</v>
@@ -26322,18 +26331,18 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>1148</v>
+        <v>3124</v>
       </c>
       <c r="B238" t="s">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>3125</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>3126</v>
+        <v>1148</v>
       </c>
       <c r="B239" t="s">
         <v>3127</v>
@@ -26366,13 +26375,13 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>1148</v>
+        <v>3135</v>
       </c>
       <c r="B242" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -26380,10 +26389,10 @@
         <v>1148</v>
       </c>
       <c r="B243" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>3138</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -26391,37 +26400,37 @@
         <v>1148</v>
       </c>
       <c r="B244" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>1844</v>
+        <v>1148</v>
       </c>
       <c r="B245" t="s">
-        <v>1845</v>
+        <v>3142</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>3141</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>1850</v>
+        <v>1844</v>
       </c>
       <c r="B246" t="s">
-        <v>3142</v>
+        <v>1845</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>3143</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>3144</v>
+        <v>1850</v>
       </c>
       <c r="B247" t="s">
         <v>3145</v>
@@ -26432,13 +26441,13 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>1148</v>
+        <v>3147</v>
       </c>
       <c r="B248" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -26446,18 +26455,18 @@
         <v>1148</v>
       </c>
       <c r="B249" t="s">
-        <v>1860</v>
+        <v>3150</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>3149</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>3150</v>
+        <v>1148</v>
       </c>
       <c r="B250" t="s">
-        <v>3151</v>
+        <v>1860</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>3152</v>
@@ -26476,51 +26485,51 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>1868</v>
+        <v>3156</v>
       </c>
       <c r="B252" t="s">
-        <v>3156</v>
+        <v>3157</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>3157</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>1673</v>
+        <v>1868</v>
       </c>
       <c r="B253" t="s">
-        <v>1869</v>
+        <v>3159</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>3158</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>3132</v>
+        <v>1673</v>
       </c>
       <c r="B254" t="s">
-        <v>3159</v>
+        <v>1869</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>3160</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>1148</v>
+        <v>3135</v>
       </c>
       <c r="B255" t="s">
-        <v>3161</v>
+        <v>3162</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>3162</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>3163</v>
+        <v>1148</v>
       </c>
       <c r="B256" t="s">
         <v>3164</v>
@@ -26553,18 +26562,18 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>1148</v>
+        <v>3172</v>
       </c>
       <c r="B259" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>3174</v>
+        <v>1148</v>
       </c>
       <c r="B260" t="s">
         <v>3175</v>
@@ -26575,51 +26584,51 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>1862</v>
+        <v>3177</v>
       </c>
       <c r="B261" t="s">
-        <v>3177</v>
+        <v>3178</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>1148</v>
+        <v>1862</v>
       </c>
       <c r="B262" t="s">
-        <v>1913</v>
+        <v>3180</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>148</v>
+        <v>1148</v>
       </c>
       <c r="B263" t="s">
-        <v>3180</v>
+        <v>1913</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>1148</v>
+        <v>148</v>
       </c>
       <c r="B264" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>3184</v>
+        <v>1148</v>
       </c>
       <c r="B265" t="s">
         <v>3185</v>
@@ -26630,29 +26639,29 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>1148</v>
+        <v>3187</v>
       </c>
       <c r="B266" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>1941</v>
+        <v>1148</v>
       </c>
       <c r="B267" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>3190</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>3191</v>
+        <v>1941</v>
       </c>
       <c r="B268" t="s">
         <v>3192</v>
@@ -26674,18 +26683,18 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>1148</v>
+        <v>3197</v>
       </c>
       <c r="B270" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>3198</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>3199</v>
+        <v>1148</v>
       </c>
       <c r="B271" t="s">
         <v>3200</v>
@@ -26696,18 +26705,18 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>1148</v>
+        <v>3202</v>
       </c>
       <c r="B272" t="s">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>3203</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>3204</v>
+        <v>1148</v>
       </c>
       <c r="B273" t="s">
         <v>3205</v>
@@ -26729,18 +26738,18 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>1148</v>
+        <v>3210</v>
       </c>
       <c r="B275" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>3211</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>3212</v>
+        <v>1148</v>
       </c>
       <c r="B276" t="s">
         <v>3213</v>
@@ -26784,29 +26793,29 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>1148</v>
+        <v>3224</v>
       </c>
       <c r="B280" t="s">
-        <v>3224</v>
+        <v>3225</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>3225</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>1986</v>
+        <v>1148</v>
       </c>
       <c r="B281" t="s">
-        <v>3226</v>
+        <v>3227</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>3228</v>
+        <v>1986</v>
       </c>
       <c r="B282" t="s">
         <v>3229</v>
@@ -26850,24 +26859,24 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>1169</v>
+        <v>3240</v>
       </c>
       <c r="B286" t="s">
-        <v>3240</v>
+        <v>3241</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>3241</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>1148</v>
+        <v>1169</v>
       </c>
       <c r="B287" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>3243</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -26875,18 +26884,18 @@
         <v>1148</v>
       </c>
       <c r="B288" t="s">
-        <v>2001</v>
+        <v>3245</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>3244</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>3245</v>
+        <v>1148</v>
       </c>
       <c r="B289" t="s">
-        <v>3246</v>
+        <v>2001</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>3247</v>
@@ -26894,18 +26903,18 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>3228</v>
+        <v>3248</v>
       </c>
       <c r="B290" t="s">
-        <v>3248</v>
+        <v>3249</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>3249</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>3250</v>
+        <v>3231</v>
       </c>
       <c r="B291" t="s">
         <v>3251</v>
@@ -26916,51 +26925,51 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>6</v>
+        <v>3253</v>
       </c>
       <c r="B292" t="s">
-        <v>3253</v>
+        <v>3254</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>3254</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>1148</v>
+        <v>6</v>
       </c>
       <c r="B293" t="s">
-        <v>2053</v>
+        <v>3256</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>3255</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>2058</v>
+        <v>1148</v>
       </c>
       <c r="B294" t="s">
-        <v>2059</v>
+        <v>2053</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>3256</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>52</v>
+        <v>2058</v>
       </c>
       <c r="B295" t="s">
-        <v>3257</v>
+        <v>2059</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>3258</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>3259</v>
+        <v>52</v>
       </c>
       <c r="B296" t="s">
         <v>3260</v>
@@ -26971,29 +26980,29 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>2082</v>
+        <v>3262</v>
       </c>
       <c r="B297" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>3263</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="B298" t="s">
-        <v>3264</v>
+        <v>3265</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>3265</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>3266</v>
+        <v>2085</v>
       </c>
       <c r="B299" t="s">
         <v>3267</v>
@@ -27004,32 +27013,32 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>1148</v>
+        <v>3269</v>
       </c>
       <c r="B300" t="s">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>3270</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>2098</v>
+        <v>1148</v>
       </c>
       <c r="B301" t="s">
-        <v>2099</v>
+        <v>3272</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>3271</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>3272</v>
+        <v>2098</v>
       </c>
       <c r="B302" t="s">
-        <v>3273</v>
+        <v>2099</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>3274</v>
@@ -27037,18 +27046,18 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>2116</v>
+        <v>3275</v>
       </c>
       <c r="B303" t="s">
-        <v>3275</v>
+        <v>3276</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>3276</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>3277</v>
+        <v>2116</v>
       </c>
       <c r="B304" t="s">
         <v>3278</v>
@@ -27059,51 +27068,51 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>1702</v>
+        <v>3280</v>
       </c>
       <c r="B305" t="s">
-        <v>3280</v>
+        <v>3281</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>3281</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>2058</v>
+        <v>1702</v>
       </c>
       <c r="B306" t="s">
-        <v>2128</v>
+        <v>3283</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>3282</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>2135</v>
+        <v>2058</v>
       </c>
       <c r="B307" t="s">
-        <v>3283</v>
+        <v>2128</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>3284</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>1148</v>
+        <v>2135</v>
       </c>
       <c r="B308" t="s">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>3287</v>
+        <v>1148</v>
       </c>
       <c r="B309" t="s">
         <v>3288</v>
@@ -27125,18 +27134,18 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>1702</v>
+        <v>3293</v>
       </c>
       <c r="B311" t="s">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>3294</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>3295</v>
+        <v>1702</v>
       </c>
       <c r="B312" t="s">
         <v>3296</v>
@@ -27191,40 +27200,40 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>1702</v>
+        <v>3310</v>
       </c>
       <c r="B317" t="s">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>3311</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>1673</v>
+        <v>1702</v>
       </c>
       <c r="B318" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>3313</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>6</v>
+        <v>1673</v>
       </c>
       <c r="B319" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>3315</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>3316</v>
+        <v>6</v>
       </c>
       <c r="B320" t="s">
         <v>3317</v>
@@ -27235,40 +27244,40 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>1169</v>
+        <v>3319</v>
       </c>
       <c r="B321" t="s">
-        <v>3319</v>
+        <v>3320</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>3320</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>1673</v>
+        <v>1169</v>
       </c>
       <c r="B322" t="s">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>3322</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>52</v>
+        <v>1673</v>
       </c>
       <c r="B323" t="s">
-        <v>3323</v>
+        <v>3324</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>3324</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>3325</v>
+        <v>52</v>
       </c>
       <c r="B324" t="s">
         <v>3326</v>
@@ -27290,18 +27299,18 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>1702</v>
+        <v>3331</v>
       </c>
       <c r="B326" t="s">
-        <v>3331</v>
+        <v>3332</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>3333</v>
+        <v>1702</v>
       </c>
       <c r="B327" t="s">
         <v>3334</v>
@@ -27323,18 +27332,18 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>1702</v>
+        <v>3339</v>
       </c>
       <c r="B329" t="s">
-        <v>3339</v>
+        <v>3340</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>3340</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>3341</v>
+        <v>1702</v>
       </c>
       <c r="B330" t="s">
         <v>3342</v>
@@ -27356,18 +27365,18 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>1780</v>
+        <v>3347</v>
       </c>
       <c r="B332" t="s">
-        <v>3347</v>
+        <v>3348</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>3348</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>3349</v>
+        <v>1780</v>
       </c>
       <c r="B333" t="s">
         <v>3350</v>
@@ -27378,40 +27387,40 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>1169</v>
+        <v>3352</v>
       </c>
       <c r="B334" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>1673</v>
+        <v>1169</v>
       </c>
       <c r="B335" t="s">
-        <v>3354</v>
+        <v>3355</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>3355</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>6</v>
+        <v>1673</v>
       </c>
       <c r="B336" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>3358</v>
+        <v>6</v>
       </c>
       <c r="B337" t="s">
         <v>3359</v>
@@ -27422,46 +27431,57 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>6</v>
+        <v>3361</v>
       </c>
       <c r="B338" t="s">
-        <v>3361</v>
+        <v>3362</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>3362</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="B339" t="s">
-        <v>3363</v>
+        <v>3364</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>3364</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>1780</v>
+        <v>52</v>
       </c>
       <c r="B340" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>3366</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>3367</v>
+        <v>1780</v>
       </c>
       <c r="B341" t="s">
         <v>3368</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>3369</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="s">
+        <v>3370</v>
+      </c>
+      <c r="B342" t="s">
+        <v>3371</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>3372</v>
       </c>
     </row>
   </sheetData>
@@ -27806,6 +27826,7 @@
     <hyperlink ref="C339" r:id="rId338"/>
     <hyperlink ref="C340" r:id="rId339"/>
     <hyperlink ref="C341" r:id="rId340"/>
+    <hyperlink ref="C342" r:id="rId341"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27837,13 +27858,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3370</v>
+        <v>3373</v>
       </c>
       <c r="B2" t="s">
-        <v>3371</v>
+        <v>3374</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3372</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -27851,32 +27872,32 @@
         <v>2451</v>
       </c>
       <c r="B3" t="s">
-        <v>3373</v>
+        <v>3376</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3374</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3375</v>
+        <v>3378</v>
       </c>
       <c r="B4" t="s">
-        <v>3376</v>
+        <v>3379</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3377</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3378</v>
+        <v>3381</v>
       </c>
       <c r="B5" t="s">
-        <v>3379</v>
+        <v>3382</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3380</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -27884,32 +27905,32 @@
         <v>2463</v>
       </c>
       <c r="B6" t="s">
-        <v>3381</v>
+        <v>3384</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3382</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3383</v>
+        <v>3386</v>
       </c>
       <c r="B7" t="s">
-        <v>3384</v>
+        <v>3387</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3385</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>3386</v>
+        <v>3389</v>
       </c>
       <c r="B8" t="s">
-        <v>3387</v>
+        <v>3390</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>3388</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -27920,7 +27941,7 @@
         <v>2473</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>3389</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -27928,10 +27949,10 @@
         <v>2946</v>
       </c>
       <c r="B10" t="s">
-        <v>3390</v>
+        <v>3393</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3391</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -27939,10 +27960,10 @@
         <v>2482</v>
       </c>
       <c r="B11" t="s">
-        <v>3392</v>
+        <v>3395</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>3393</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -27953,7 +27974,7 @@
         <v>2486</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3394</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -27961,32 +27982,32 @@
         <v>2490</v>
       </c>
       <c r="B13" t="s">
-        <v>3395</v>
+        <v>3398</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3396</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>3397</v>
+        <v>3400</v>
       </c>
       <c r="B14" t="s">
-        <v>3398</v>
+        <v>3401</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3399</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>3400</v>
+        <v>3403</v>
       </c>
       <c r="B15" t="s">
-        <v>3401</v>
+        <v>3404</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>3402</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -27997,7 +28018,7 @@
         <v>2499</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>3403</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -28005,10 +28026,10 @@
         <v>2498</v>
       </c>
       <c r="B17" t="s">
-        <v>3404</v>
+        <v>3407</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3405</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -28016,65 +28037,65 @@
         <v>2501</v>
       </c>
       <c r="B18" t="s">
-        <v>3406</v>
+        <v>3409</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3407</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>3408</v>
+        <v>3411</v>
       </c>
       <c r="B19" t="s">
-        <v>3409</v>
+        <v>3412</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>3410</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>3411</v>
+        <v>3414</v>
       </c>
       <c r="B20" t="s">
-        <v>3412</v>
+        <v>3415</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>3413</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>3414</v>
+        <v>3417</v>
       </c>
       <c r="B21" t="s">
-        <v>3415</v>
+        <v>3418</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>3416</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>3417</v>
+        <v>3420</v>
       </c>
       <c r="B22" t="s">
-        <v>3418</v>
+        <v>3421</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>3419</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>3420</v>
+        <v>3423</v>
       </c>
       <c r="B23" t="s">
-        <v>3421</v>
+        <v>3424</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>3422</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -28082,21 +28103,21 @@
         <v>2515</v>
       </c>
       <c r="B24" t="s">
-        <v>3423</v>
+        <v>3426</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3424</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3425</v>
+        <v>3428</v>
       </c>
       <c r="B25" t="s">
-        <v>3426</v>
+        <v>3429</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>3427</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -28104,21 +28125,21 @@
         <v>2518</v>
       </c>
       <c r="B26" t="s">
-        <v>3428</v>
+        <v>3431</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>3429</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>3430</v>
+        <v>3433</v>
       </c>
       <c r="B27" t="s">
-        <v>3431</v>
+        <v>3434</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>3432</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -28126,54 +28147,54 @@
         <v>2523</v>
       </c>
       <c r="B28" t="s">
-        <v>3433</v>
+        <v>3436</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>3434</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>3259</v>
+        <v>3262</v>
       </c>
       <c r="B29" t="s">
-        <v>3435</v>
+        <v>3438</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>3436</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>3437</v>
+        <v>3440</v>
       </c>
       <c r="B30" t="s">
-        <v>3438</v>
+        <v>3441</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>3439</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>3440</v>
+        <v>3443</v>
       </c>
       <c r="B31" t="s">
-        <v>3441</v>
+        <v>3444</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>3442</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>3443</v>
+        <v>3446</v>
       </c>
       <c r="B32" t="s">
-        <v>3444</v>
+        <v>3447</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>3445</v>
+        <v>3448</v>
       </c>
     </row>
   </sheetData>
@@ -28240,13 +28261,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="B2" t="s">
-        <v>3447</v>
+        <v>3450</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3448</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -28254,186 +28275,186 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>3449</v>
+        <v>3452</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3450</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3451</v>
+        <v>3454</v>
       </c>
       <c r="B4" t="s">
-        <v>3452</v>
+        <v>3455</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3453</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3454</v>
+        <v>3457</v>
       </c>
       <c r="B5" t="s">
-        <v>3455</v>
+        <v>3458</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3456</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3457</v>
+        <v>3460</v>
       </c>
       <c r="B6" t="s">
-        <v>3458</v>
+        <v>3461</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3459</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3460</v>
+        <v>3463</v>
       </c>
       <c r="B7" t="s">
-        <v>3461</v>
+        <v>3464</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3462</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>3463</v>
+        <v>3466</v>
       </c>
       <c r="B8" t="s">
-        <v>3464</v>
+        <v>3467</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>3465</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>3466</v>
+        <v>3469</v>
       </c>
       <c r="B9" t="s">
-        <v>3467</v>
+        <v>3470</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>3468</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>3469</v>
+        <v>3472</v>
       </c>
       <c r="B10" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3471</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3472</v>
+        <v>3475</v>
       </c>
       <c r="B11" t="s">
-        <v>3473</v>
+        <v>3476</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>3474</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="B12" t="s">
-        <v>3476</v>
+        <v>3479</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3477</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>3478</v>
+        <v>3481</v>
       </c>
       <c r="B13" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3480</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>3481</v>
+        <v>3484</v>
       </c>
       <c r="B14" t="s">
-        <v>3482</v>
+        <v>3485</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3483</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>3484</v>
+        <v>3487</v>
       </c>
       <c r="B15" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>3486</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>3487</v>
+        <v>3490</v>
       </c>
       <c r="B16" t="s">
-        <v>3488</v>
+        <v>3491</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>3490</v>
+        <v>3493</v>
       </c>
       <c r="B17" t="s">
-        <v>3491</v>
+        <v>3494</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3492</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>3493</v>
+        <v>3496</v>
       </c>
       <c r="B18" t="s">
-        <v>3494</v>
+        <v>3497</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3495</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>3496</v>
+        <v>3499</v>
       </c>
       <c r="B19" t="s">
-        <v>3497</v>
+        <v>3500</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>3498</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -28441,76 +28462,76 @@
         <v>648</v>
       </c>
       <c r="B20" t="s">
-        <v>3499</v>
+        <v>3502</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>3500</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>3501</v>
+        <v>3504</v>
       </c>
       <c r="B21" t="s">
-        <v>3502</v>
+        <v>3505</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>3503</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>3504</v>
+        <v>3507</v>
       </c>
       <c r="B22" t="s">
-        <v>3505</v>
+        <v>3508</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>3506</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>3507</v>
+        <v>3510</v>
       </c>
       <c r="B23" t="s">
-        <v>3508</v>
+        <v>3511</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>3509</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>3510</v>
+        <v>3513</v>
       </c>
       <c r="B24" t="s">
-        <v>3511</v>
+        <v>3514</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3512</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3513</v>
+        <v>3516</v>
       </c>
       <c r="B25" t="s">
-        <v>3514</v>
+        <v>3517</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>3515</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>3516</v>
+        <v>3519</v>
       </c>
       <c r="B26" t="s">
-        <v>3517</v>
+        <v>3520</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>3518</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -28518,32 +28539,32 @@
         <v>648</v>
       </c>
       <c r="B27" t="s">
-        <v>3519</v>
+        <v>3522</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>3520</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>3521</v>
+        <v>3524</v>
       </c>
       <c r="B28" t="s">
-        <v>3522</v>
+        <v>3525</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>3523</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>3524</v>
+        <v>3527</v>
       </c>
       <c r="B29" t="s">
-        <v>3525</v>
+        <v>3528</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>3526</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -28551,32 +28572,32 @@
         <v>648</v>
       </c>
       <c r="B30" t="s">
-        <v>3527</v>
+        <v>3530</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>3528</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>3529</v>
+        <v>3532</v>
       </c>
       <c r="B31" t="s">
-        <v>3530</v>
+        <v>3533</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>3531</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>3532</v>
+        <v>3535</v>
       </c>
       <c r="B32" t="s">
-        <v>3533</v>
+        <v>3536</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>3534</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -28584,43 +28605,43 @@
         <v>648</v>
       </c>
       <c r="B33" t="s">
-        <v>3535</v>
+        <v>3538</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>3536</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>3537</v>
+        <v>3540</v>
       </c>
       <c r="B34" t="s">
-        <v>3538</v>
+        <v>3541</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>3539</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>3540</v>
+        <v>3543</v>
       </c>
       <c r="B35" t="s">
-        <v>3541</v>
+        <v>3544</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>3542</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>3543</v>
+        <v>3546</v>
       </c>
       <c r="B36" t="s">
-        <v>3544</v>
+        <v>3547</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>3545</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -28628,10 +28649,10 @@
         <v>648</v>
       </c>
       <c r="B37" t="s">
-        <v>3546</v>
+        <v>3549</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>3547</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -28639,43 +28660,43 @@
         <v>941</v>
       </c>
       <c r="B38" t="s">
-        <v>3548</v>
+        <v>3551</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>3549</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>3550</v>
+        <v>3553</v>
       </c>
       <c r="B39" t="s">
-        <v>3551</v>
+        <v>3554</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>3552</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>3553</v>
+        <v>3556</v>
       </c>
       <c r="B40" t="s">
-        <v>3554</v>
+        <v>3557</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>3555</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>3556</v>
+        <v>3559</v>
       </c>
       <c r="B41" t="s">
-        <v>3557</v>
+        <v>3560</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>3558</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -28683,142 +28704,142 @@
         <v>1187</v>
       </c>
       <c r="B42" t="s">
-        <v>3559</v>
+        <v>3562</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>3560</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>3561</v>
+        <v>3564</v>
       </c>
       <c r="B43" t="s">
-        <v>3562</v>
+        <v>3565</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>3563</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>3564</v>
+        <v>3567</v>
       </c>
       <c r="B44" t="s">
-        <v>3565</v>
+        <v>3568</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>3566</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>3567</v>
+        <v>3570</v>
       </c>
       <c r="B45" t="s">
-        <v>3568</v>
+        <v>3571</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>3569</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>3570</v>
+        <v>3573</v>
       </c>
       <c r="B46" t="s">
-        <v>3571</v>
+        <v>3574</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>3572</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>3573</v>
+        <v>3576</v>
       </c>
       <c r="B47" t="s">
-        <v>3574</v>
+        <v>3577</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>3575</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>3576</v>
+        <v>3579</v>
       </c>
       <c r="B48" t="s">
-        <v>3577</v>
+        <v>3580</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>3578</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>3579</v>
+        <v>3582</v>
       </c>
       <c r="B49" t="s">
-        <v>3580</v>
+        <v>3583</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>3581</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>3582</v>
+        <v>3585</v>
       </c>
       <c r="B50" t="s">
-        <v>3583</v>
+        <v>3586</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>3584</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>3585</v>
+        <v>3588</v>
       </c>
       <c r="B51" t="s">
-        <v>3586</v>
+        <v>3589</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>3587</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>3588</v>
+        <v>3591</v>
       </c>
       <c r="B52" t="s">
-        <v>3589</v>
+        <v>3592</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>3590</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>3591</v>
+        <v>3594</v>
       </c>
       <c r="B53" t="s">
-        <v>3592</v>
+        <v>3595</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>3593</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>3594</v>
+        <v>3597</v>
       </c>
       <c r="B54" t="s">
-        <v>3595</v>
+        <v>3598</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>3596</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -28826,10 +28847,10 @@
         <v>2403</v>
       </c>
       <c r="B55" t="s">
-        <v>3597</v>
+        <v>3600</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>3598</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -28837,10 +28858,10 @@
         <v>2403</v>
       </c>
       <c r="B56" t="s">
-        <v>3599</v>
+        <v>3602</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>3600</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -28848,10 +28869,10 @@
         <v>2403</v>
       </c>
       <c r="B57" t="s">
-        <v>3601</v>
+        <v>3604</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>3602</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -28859,43 +28880,43 @@
         <v>2403</v>
       </c>
       <c r="B58" t="s">
-        <v>3603</v>
+        <v>3606</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>3604</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>3605</v>
+        <v>3608</v>
       </c>
       <c r="B59" t="s">
-        <v>3606</v>
+        <v>3609</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>3607</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>3608</v>
+        <v>3611</v>
       </c>
       <c r="B60" t="s">
-        <v>3609</v>
+        <v>3612</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>3610</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>3611</v>
+        <v>3614</v>
       </c>
       <c r="B61" t="s">
-        <v>3612</v>
+        <v>3615</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>3613</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -28903,263 +28924,263 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>3614</v>
+        <v>3617</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>3615</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>3616</v>
+        <v>3619</v>
       </c>
       <c r="B63" t="s">
-        <v>3617</v>
+        <v>3620</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>3618</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>3619</v>
+        <v>3622</v>
       </c>
       <c r="B64" t="s">
-        <v>3620</v>
+        <v>3623</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>3621</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>3096</v>
+        <v>3099</v>
       </c>
       <c r="B65" t="s">
-        <v>3622</v>
+        <v>3625</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>3623</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>3624</v>
+        <v>3627</v>
       </c>
       <c r="B66" t="s">
-        <v>3625</v>
+        <v>3628</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>3626</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>3627</v>
+        <v>3630</v>
       </c>
       <c r="B67" t="s">
-        <v>3628</v>
+        <v>3631</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>3629</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>3630</v>
+        <v>3633</v>
       </c>
       <c r="B68" t="s">
-        <v>3631</v>
+        <v>3634</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>3632</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>3633</v>
+        <v>3636</v>
       </c>
       <c r="B69" t="s">
-        <v>3634</v>
+        <v>3637</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>3635</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>3636</v>
+        <v>3639</v>
       </c>
       <c r="B70" t="s">
-        <v>3637</v>
+        <v>3640</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>3638</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>3639</v>
+        <v>3642</v>
       </c>
       <c r="B71" t="s">
-        <v>3640</v>
+        <v>3643</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>3641</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>3642</v>
+        <v>3645</v>
       </c>
       <c r="B72" t="s">
-        <v>3643</v>
+        <v>3646</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>3644</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>3645</v>
+        <v>3648</v>
       </c>
       <c r="B73" t="s">
-        <v>3646</v>
+        <v>3649</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>3647</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>3648</v>
+        <v>3651</v>
       </c>
       <c r="B74" t="s">
-        <v>3649</v>
+        <v>3652</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>3650</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>3651</v>
+        <v>3654</v>
       </c>
       <c r="B75" t="s">
-        <v>3652</v>
+        <v>3655</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>3653</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>3654</v>
+        <v>3657</v>
       </c>
       <c r="B76" t="s">
-        <v>3655</v>
+        <v>3658</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>3656</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>3657</v>
+        <v>3660</v>
       </c>
       <c r="B77" t="s">
-        <v>3658</v>
+        <v>3661</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>3659</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>3660</v>
+        <v>3663</v>
       </c>
       <c r="B78" t="s">
-        <v>3661</v>
+        <v>3664</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>3662</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>3663</v>
+        <v>3666</v>
       </c>
       <c r="B79" t="s">
-        <v>3664</v>
+        <v>3667</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>3665</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>3666</v>
+        <v>3669</v>
       </c>
       <c r="B80" t="s">
-        <v>3667</v>
+        <v>3670</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>3668</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>3669</v>
+        <v>3672</v>
       </c>
       <c r="B81" t="s">
-        <v>3670</v>
+        <v>3673</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>3671</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>3437</v>
+        <v>3440</v>
       </c>
       <c r="B82" t="s">
-        <v>3672</v>
+        <v>3675</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>3673</v>
+        <v>3676</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>3674</v>
+        <v>3677</v>
       </c>
       <c r="B83" t="s">
-        <v>3675</v>
+        <v>3678</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>3676</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>3677</v>
+        <v>3680</v>
       </c>
       <c r="B84" t="s">
-        <v>3678</v>
+        <v>3681</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>3679</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>3680</v>
+        <v>3683</v>
       </c>
       <c r="B85" t="s">
-        <v>3681</v>
+        <v>3684</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>3682</v>
+        <v>3685</v>
       </c>
     </row>
   </sheetData>
@@ -29279,24 +29300,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3683</v>
+        <v>3686</v>
       </c>
       <c r="B2" t="s">
-        <v>3684</v>
+        <v>3687</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3685</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3686</v>
+        <v>3689</v>
       </c>
       <c r="B3" t="s">
-        <v>3687</v>
+        <v>3690</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3688</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -29304,43 +29325,43 @@
         <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>3689</v>
+        <v>3692</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3690</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3691</v>
+        <v>3694</v>
       </c>
       <c r="B5" t="s">
-        <v>3692</v>
+        <v>3695</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3693</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3694</v>
+        <v>3697</v>
       </c>
       <c r="B6" t="s">
-        <v>3695</v>
+        <v>3698</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3696</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3697</v>
+        <v>3700</v>
       </c>
       <c r="B7" t="s">
-        <v>3698</v>
+        <v>3701</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3699</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -29348,10 +29369,10 @@
         <v>648</v>
       </c>
       <c r="B8" t="s">
-        <v>3700</v>
+        <v>3703</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>3701</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -29359,32 +29380,32 @@
         <v>648</v>
       </c>
       <c r="B9" t="s">
-        <v>3702</v>
+        <v>3705</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>3703</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>3704</v>
+        <v>3707</v>
       </c>
       <c r="B10" t="s">
-        <v>3705</v>
+        <v>3708</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3706</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3707</v>
+        <v>3710</v>
       </c>
       <c r="B11" t="s">
-        <v>3708</v>
+        <v>3711</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>3709</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -29392,10 +29413,10 @@
         <v>648</v>
       </c>
       <c r="B12" t="s">
-        <v>3710</v>
+        <v>3713</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3711</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -29403,10 +29424,10 @@
         <v>648</v>
       </c>
       <c r="B13" t="s">
-        <v>3712</v>
+        <v>3715</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3713</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -29414,10 +29435,10 @@
         <v>1126</v>
       </c>
       <c r="B14" t="s">
-        <v>3714</v>
+        <v>3717</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3715</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -29425,43 +29446,43 @@
         <v>1187</v>
       </c>
       <c r="B15" t="s">
-        <v>3716</v>
+        <v>3719</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>3717</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>3567</v>
+        <v>3570</v>
       </c>
       <c r="B16" t="s">
-        <v>3718</v>
+        <v>3721</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>3719</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>3720</v>
+        <v>3723</v>
       </c>
       <c r="B17" t="s">
-        <v>3721</v>
+        <v>3724</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3722</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>3723</v>
+        <v>3726</v>
       </c>
       <c r="B18" t="s">
-        <v>3724</v>
+        <v>3727</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3725</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -29469,32 +29490,32 @@
         <v>1187</v>
       </c>
       <c r="B19" t="s">
-        <v>3726</v>
+        <v>3729</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>3727</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>3728</v>
+        <v>3731</v>
       </c>
       <c r="B20" t="s">
-        <v>3729</v>
+        <v>3732</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>3730</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>3731</v>
+        <v>3734</v>
       </c>
       <c r="B21" t="s">
-        <v>3732</v>
+        <v>3735</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>3733</v>
+        <v>3736</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -29502,10 +29523,10 @@
         <v>1187</v>
       </c>
       <c r="B22" t="s">
-        <v>3734</v>
+        <v>3737</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>3735</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -29513,10 +29534,10 @@
         <v>941</v>
       </c>
       <c r="B23" t="s">
-        <v>3736</v>
+        <v>3739</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>3737</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -29524,153 +29545,153 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>3738</v>
+        <v>3741</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3739</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3740</v>
+        <v>3743</v>
       </c>
       <c r="B25" t="s">
-        <v>3741</v>
+        <v>3744</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>3742</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>3743</v>
+        <v>3746</v>
       </c>
       <c r="B26" t="s">
-        <v>3744</v>
+        <v>3747</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>3745</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>3425</v>
+        <v>3428</v>
       </c>
       <c r="B27" t="s">
-        <v>3746</v>
+        <v>3749</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>3747</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>3748</v>
+        <v>3751</v>
       </c>
       <c r="B28" t="s">
-        <v>3749</v>
+        <v>3752</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>3750</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>3751</v>
+        <v>3754</v>
       </c>
       <c r="B29" t="s">
-        <v>3752</v>
+        <v>3755</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>3753</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>3754</v>
+        <v>3757</v>
       </c>
       <c r="B30" t="s">
-        <v>3755</v>
+        <v>3758</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>3756</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>3757</v>
+        <v>3760</v>
       </c>
       <c r="B31" t="s">
-        <v>3758</v>
+        <v>3761</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>3759</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>3760</v>
+        <v>3763</v>
       </c>
       <c r="B32" t="s">
-        <v>3761</v>
+        <v>3764</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>3762</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>3763</v>
+        <v>3766</v>
       </c>
       <c r="B33" t="s">
-        <v>3764</v>
+        <v>3767</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>3765</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>3760</v>
+        <v>3763</v>
       </c>
       <c r="B34" t="s">
-        <v>3766</v>
+        <v>3769</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>3767</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>3768</v>
+        <v>3771</v>
       </c>
       <c r="B35" t="s">
-        <v>3769</v>
+        <v>3772</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>3770</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>3771</v>
+        <v>3774</v>
       </c>
       <c r="B36" t="s">
-        <v>3772</v>
+        <v>3775</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>3773</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>3774</v>
+        <v>3777</v>
       </c>
       <c r="B37" t="s">
-        <v>3775</v>
+        <v>3778</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>3776</v>
+        <v>3779</v>
       </c>
     </row>
   </sheetData>
@@ -29742,35 +29763,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3777</v>
+        <v>3780</v>
       </c>
       <c r="B2" t="s">
-        <v>3778</v>
+        <v>3781</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3779</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3777</v>
+        <v>3780</v>
       </c>
       <c r="B3" t="s">
-        <v>3780</v>
+        <v>3783</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3781</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3782</v>
+        <v>3785</v>
       </c>
       <c r="B4" t="s">
-        <v>3783</v>
+        <v>3786</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3784</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -29778,32 +29799,32 @@
         <v>2563</v>
       </c>
       <c r="B5" t="s">
-        <v>3785</v>
+        <v>3788</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3786</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3787</v>
+        <v>3790</v>
       </c>
       <c r="B6" t="s">
-        <v>3788</v>
+        <v>3791</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3789</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3790</v>
+        <v>3793</v>
       </c>
       <c r="B7" t="s">
-        <v>3791</v>
+        <v>3794</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3792</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -29811,43 +29832,43 @@
         <v>2448</v>
       </c>
       <c r="B8" t="s">
-        <v>3793</v>
+        <v>3796</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>3794</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>3795</v>
+        <v>3798</v>
       </c>
       <c r="B9" t="s">
-        <v>3796</v>
+        <v>3799</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>3797</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>3795</v>
+        <v>3798</v>
       </c>
       <c r="B10" t="s">
-        <v>3798</v>
+        <v>3801</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3799</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3795</v>
+        <v>3798</v>
       </c>
       <c r="B11" t="s">
-        <v>3800</v>
+        <v>3803</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>3801</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -29855,164 +29876,164 @@
         <v>2451</v>
       </c>
       <c r="B12" t="s">
-        <v>3802</v>
+        <v>3805</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3803</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>3795</v>
+        <v>3798</v>
       </c>
       <c r="B13" t="s">
-        <v>3804</v>
+        <v>3807</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3805</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>3795</v>
+        <v>3798</v>
       </c>
       <c r="B14" t="s">
-        <v>3806</v>
+        <v>3809</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3807</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>3795</v>
+        <v>3798</v>
       </c>
       <c r="B15" t="s">
-        <v>3808</v>
+        <v>3811</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>3809</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>3795</v>
+        <v>3798</v>
       </c>
       <c r="B16" t="s">
-        <v>3810</v>
+        <v>3813</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>3811</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>3795</v>
+        <v>3798</v>
       </c>
       <c r="B17" t="s">
-        <v>3812</v>
+        <v>3815</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3813</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>3814</v>
+        <v>3817</v>
       </c>
       <c r="B18" t="s">
-        <v>3815</v>
+        <v>3818</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3816</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>3817</v>
+        <v>3820</v>
       </c>
       <c r="B19" t="s">
-        <v>3818</v>
+        <v>3821</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>3819</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>3817</v>
+        <v>3820</v>
       </c>
       <c r="B20" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>3821</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>3817</v>
+        <v>3820</v>
       </c>
       <c r="B21" t="s">
-        <v>3822</v>
+        <v>3825</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>3823</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>3817</v>
+        <v>3820</v>
       </c>
       <c r="B22" t="s">
-        <v>3824</v>
+        <v>3827</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>3825</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>3817</v>
+        <v>3820</v>
       </c>
       <c r="B23" t="s">
-        <v>3826</v>
+        <v>3829</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>3827</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="B24" t="s">
-        <v>3828</v>
+        <v>3831</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3829</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3817</v>
+        <v>3820</v>
       </c>
       <c r="B25" t="s">
-        <v>3830</v>
+        <v>3833</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>3831</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>3817</v>
+        <v>3820</v>
       </c>
       <c r="B26" t="s">
-        <v>3832</v>
+        <v>3835</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>3833</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -30020,21 +30041,21 @@
         <v>2460</v>
       </c>
       <c r="B27" t="s">
-        <v>3834</v>
+        <v>3837</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>3835</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>3836</v>
+        <v>3839</v>
       </c>
       <c r="B28" t="s">
-        <v>3837</v>
+        <v>3840</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>3838</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -30042,10 +30063,10 @@
         <v>2463</v>
       </c>
       <c r="B29" t="s">
-        <v>3839</v>
+        <v>3842</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>3840</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -30056,18 +30077,18 @@
         <v>2467</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>3841</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>3842</v>
+        <v>3845</v>
       </c>
       <c r="B31" t="s">
-        <v>3843</v>
+        <v>3846</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>3844</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -30078,29 +30099,29 @@
         <v>2764</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>3845</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>3386</v>
+        <v>3389</v>
       </c>
       <c r="B33" t="s">
-        <v>3846</v>
+        <v>3849</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>3847</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>3848</v>
+        <v>3851</v>
       </c>
       <c r="B34" t="s">
-        <v>3849</v>
+        <v>3852</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>3850</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -30108,43 +30129,43 @@
         <v>2472</v>
       </c>
       <c r="B35" t="s">
-        <v>3851</v>
+        <v>3854</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>3852</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>3853</v>
+        <v>3856</v>
       </c>
       <c r="B36" t="s">
-        <v>3854</v>
+        <v>3857</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>3855</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>3856</v>
+        <v>3859</v>
       </c>
       <c r="B37" t="s">
-        <v>3857</v>
+        <v>3860</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>3858</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>3859</v>
+        <v>3862</v>
       </c>
       <c r="B38" t="s">
-        <v>3860</v>
+        <v>3863</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>3861</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -30152,10 +30173,10 @@
         <v>2910</v>
       </c>
       <c r="B39" t="s">
-        <v>3862</v>
+        <v>3865</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>3863</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -30163,43 +30184,43 @@
         <v>2479</v>
       </c>
       <c r="B40" t="s">
-        <v>3864</v>
+        <v>3867</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>3865</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>3866</v>
+        <v>3869</v>
       </c>
       <c r="B41" t="s">
-        <v>3867</v>
+        <v>3870</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>3868</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>3651</v>
+        <v>3654</v>
       </c>
       <c r="B42" t="s">
-        <v>3869</v>
+        <v>3872</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>3870</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>3651</v>
+        <v>3654</v>
       </c>
       <c r="B43" t="s">
-        <v>3871</v>
+        <v>3874</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>3872</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -30207,10 +30228,10 @@
         <v>2490</v>
       </c>
       <c r="B44" t="s">
-        <v>3873</v>
+        <v>3876</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>3874</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -30218,10 +30239,10 @@
         <v>2490</v>
       </c>
       <c r="B45" t="s">
-        <v>3875</v>
+        <v>3878</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>3876</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -30229,10 +30250,10 @@
         <v>2482</v>
       </c>
       <c r="B46" t="s">
-        <v>3877</v>
+        <v>3880</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>3878</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -30240,54 +30261,54 @@
         <v>2493</v>
       </c>
       <c r="B47" t="s">
-        <v>3879</v>
+        <v>3882</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>3880</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>3881</v>
+        <v>3884</v>
       </c>
       <c r="B48" t="s">
-        <v>3882</v>
+        <v>3885</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>3883</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>3573</v>
+        <v>3576</v>
       </c>
       <c r="B49" t="s">
-        <v>3884</v>
+        <v>3887</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>3885</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>3397</v>
+        <v>3400</v>
       </c>
       <c r="B50" t="s">
-        <v>3886</v>
+        <v>3889</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>3887</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>3888</v>
+        <v>3891</v>
       </c>
       <c r="B51" t="s">
-        <v>3889</v>
+        <v>3892</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>3890</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -30295,76 +30316,76 @@
         <v>2498</v>
       </c>
       <c r="B52" t="s">
-        <v>3891</v>
+        <v>3894</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>3892</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>3893</v>
+        <v>3896</v>
       </c>
       <c r="B53" t="s">
-        <v>3894</v>
+        <v>3897</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>3895</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>3896</v>
+        <v>3899</v>
       </c>
       <c r="B54" t="s">
-        <v>3897</v>
+        <v>3900</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>3898</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>3899</v>
+        <v>3902</v>
       </c>
       <c r="B55" t="s">
-        <v>3900</v>
+        <v>3903</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>3901</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>3902</v>
+        <v>3905</v>
       </c>
       <c r="B56" t="s">
-        <v>3903</v>
+        <v>3906</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>3904</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>3414</v>
+        <v>3417</v>
       </c>
       <c r="B57" t="s">
-        <v>3628</v>
+        <v>3631</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>3905</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>3420</v>
+        <v>3423</v>
       </c>
       <c r="B58" t="s">
-        <v>3906</v>
+        <v>3909</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>3907</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -30372,32 +30393,32 @@
         <v>2515</v>
       </c>
       <c r="B59" t="s">
-        <v>3908</v>
+        <v>3911</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>3909</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>3132</v>
+        <v>3135</v>
       </c>
       <c r="B60" t="s">
-        <v>3910</v>
+        <v>3913</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>3911</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>3748</v>
+        <v>3751</v>
       </c>
       <c r="B61" t="s">
-        <v>3912</v>
+        <v>3915</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>3913</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -30405,32 +30426,32 @@
         <v>2518</v>
       </c>
       <c r="B62" t="s">
-        <v>3914</v>
+        <v>3917</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>3915</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>3430</v>
+        <v>3433</v>
       </c>
       <c r="B63" t="s">
-        <v>3916</v>
+        <v>3919</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>3917</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>3918</v>
+        <v>3921</v>
       </c>
       <c r="B64" t="s">
-        <v>3919</v>
+        <v>3922</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>3920</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -30438,76 +30459,76 @@
         <v>2523</v>
       </c>
       <c r="B65" t="s">
-        <v>3921</v>
+        <v>3924</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>3922</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>3923</v>
+        <v>3926</v>
       </c>
       <c r="B66" t="s">
-        <v>3924</v>
+        <v>3927</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>3925</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>3259</v>
+        <v>3262</v>
       </c>
       <c r="B67" t="s">
-        <v>3926</v>
+        <v>3929</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>3927</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>3928</v>
+        <v>3931</v>
       </c>
       <c r="B68" t="s">
-        <v>3929</v>
+        <v>3932</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>3930</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>3931</v>
+        <v>3934</v>
       </c>
       <c r="B69" t="s">
-        <v>3932</v>
+        <v>3935</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>3933</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>3934</v>
+        <v>3937</v>
       </c>
       <c r="B70" t="s">
-        <v>3935</v>
+        <v>3938</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>3936</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>3937</v>
+        <v>3940</v>
       </c>
       <c r="B71" t="s">
-        <v>3938</v>
+        <v>3941</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>3939</v>
+        <v>3942</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4572" uniqueCount="3946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4575" uniqueCount="3948">
   <si>
     <t>标题</t>
   </si>
@@ -8874,6 +8874,12 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/290226867/</t>
+  </si>
+  <si>
+    <t>06-14 15:35</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307328956/</t>
   </si>
   <si>
     <t>06-14 11:21</t>
@@ -23732,7 +23738,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C343"/>
+  <dimension ref="A1:C344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25527,7 +25533,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>1126</v>
+        <v>1171</v>
       </c>
       <c r="B163" t="s">
         <v>2951</v>
@@ -25538,43 +25544,43 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="B164" t="s">
-        <v>1135</v>
+        <v>2953</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>2953</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>2954</v>
+        <v>1134</v>
       </c>
       <c r="B165" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>2955</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>2956</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>1134</v>
+        <v>2956</v>
       </c>
       <c r="B166" t="s">
-        <v>1151</v>
+        <v>2957</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>2957</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>1171</v>
+        <v>1134</v>
       </c>
       <c r="B167" t="s">
-        <v>2958</v>
+        <v>1151</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>2959</v>
@@ -25582,7 +25588,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>6</v>
+        <v>1171</v>
       </c>
       <c r="B168" t="s">
         <v>2960</v>
@@ -25593,7 +25599,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>1189</v>
+        <v>6</v>
       </c>
       <c r="B169" t="s">
         <v>2962</v>
@@ -25604,7 +25610,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>1134</v>
+        <v>1189</v>
       </c>
       <c r="B170" t="s">
         <v>2964</v>
@@ -25615,7 +25621,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>1212</v>
+        <v>1134</v>
       </c>
       <c r="B171" t="s">
         <v>2966</v>
@@ -25626,7 +25632,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>463</v>
+        <v>1212</v>
       </c>
       <c r="B172" t="s">
         <v>2968</v>
@@ -25637,7 +25643,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>2487</v>
+        <v>463</v>
       </c>
       <c r="B173" t="s">
         <v>2970</v>
@@ -25648,7 +25654,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>1248</v>
+        <v>2487</v>
       </c>
       <c r="B174" t="s">
         <v>2972</v>
@@ -25659,7 +25665,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>1270</v>
+        <v>1248</v>
       </c>
       <c r="B175" t="s">
         <v>2974</v>
@@ -25670,29 +25676,29 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B176" t="s">
         <v>2976</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" s="1" t="s">
         <v>2977</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>2978</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B177" t="s">
         <v>2979</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" s="1" t="s">
         <v>2980</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>2981</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>1286</v>
+        <v>2981</v>
       </c>
       <c r="B178" t="s">
         <v>2982</v>
@@ -25703,21 +25709,21 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>1212</v>
+        <v>1286</v>
       </c>
       <c r="B179" t="s">
-        <v>1298</v>
+        <v>2984</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>2984</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>1189</v>
+        <v>1212</v>
       </c>
       <c r="B180" t="s">
-        <v>2985</v>
+        <v>1298</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>2986</v>
@@ -25725,29 +25731,29 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B181" t="s">
         <v>2987</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" s="1" t="s">
         <v>2988</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>2989</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B182" t="s">
         <v>2990</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" s="1" t="s">
         <v>2991</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>2992</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>1134</v>
+        <v>2992</v>
       </c>
       <c r="B183" t="s">
         <v>2993</v>
@@ -25758,7 +25764,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>1345</v>
+        <v>1134</v>
       </c>
       <c r="B184" t="s">
         <v>2995</v>
@@ -25769,7 +25775,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>1134</v>
+        <v>1345</v>
       </c>
       <c r="B185" t="s">
         <v>2997</v>
@@ -25780,7 +25786,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>2492</v>
+        <v>1134</v>
       </c>
       <c r="B186" t="s">
         <v>2999</v>
@@ -25791,18 +25797,18 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B187" t="s">
         <v>3001</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" s="1" t="s">
         <v>3002</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>3003</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>1163</v>
+        <v>3003</v>
       </c>
       <c r="B188" t="s">
         <v>3004</v>
@@ -25813,7 +25819,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>1395</v>
+        <v>1163</v>
       </c>
       <c r="B189" t="s">
         <v>3006</v>
@@ -25824,7 +25830,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>6</v>
+        <v>1395</v>
       </c>
       <c r="B190" t="s">
         <v>3008</v>
@@ -25835,7 +25841,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>1163</v>
+        <v>6</v>
       </c>
       <c r="B191" t="s">
         <v>3010</v>
@@ -25846,18 +25852,18 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B192" t="s">
         <v>3012</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" s="1" t="s">
         <v>3013</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>3014</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>1452</v>
+        <v>3014</v>
       </c>
       <c r="B193" t="s">
         <v>3015</v>
@@ -25868,7 +25874,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>6</v>
+        <v>1452</v>
       </c>
       <c r="B194" t="s">
         <v>3017</v>
@@ -25879,18 +25885,18 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
+        <v>6</v>
+      </c>
+      <c r="B195" t="s">
         <v>3019</v>
       </c>
-      <c r="B195" t="s">
+      <c r="C195" s="1" t="s">
         <v>3020</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>3021</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>6</v>
+        <v>3021</v>
       </c>
       <c r="B196" t="s">
         <v>3022</v>
@@ -25901,18 +25907,18 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
+        <v>6</v>
+      </c>
+      <c r="B197" t="s">
         <v>3024</v>
       </c>
-      <c r="B197" t="s">
+      <c r="C197" s="1" t="s">
         <v>3025</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>3026</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>1481</v>
+        <v>3026</v>
       </c>
       <c r="B198" t="s">
         <v>3027</v>
@@ -25923,18 +25929,18 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B199" t="s">
         <v>3029</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C199" s="1" t="s">
         <v>3030</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>3031</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>1134</v>
+        <v>3031</v>
       </c>
       <c r="B200" t="s">
         <v>3032</v>
@@ -25945,7 +25951,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>1189</v>
+        <v>1134</v>
       </c>
       <c r="B201" t="s">
         <v>3034</v>
@@ -25956,7 +25962,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>272</v>
+        <v>1189</v>
       </c>
       <c r="B202" t="s">
         <v>3036</v>
@@ -25967,18 +25973,18 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
+        <v>272</v>
+      </c>
+      <c r="B203" t="s">
         <v>3038</v>
       </c>
-      <c r="B203" t="s">
+      <c r="C203" s="1" t="s">
         <v>3039</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>3040</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>1134</v>
+        <v>3040</v>
       </c>
       <c r="B204" t="s">
         <v>3041</v>
@@ -25989,18 +25995,18 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B205" t="s">
         <v>3043</v>
       </c>
-      <c r="B205" t="s">
+      <c r="C205" s="1" t="s">
         <v>3044</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>3045</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>1171</v>
+        <v>3045</v>
       </c>
       <c r="B206" t="s">
         <v>3046</v>
@@ -26011,29 +26017,29 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>1134</v>
+        <v>1171</v>
       </c>
       <c r="B207" t="s">
-        <v>1583</v>
+        <v>3048</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>3049</v>
+        <v>1134</v>
       </c>
       <c r="B208" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>3050</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>3051</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>1134</v>
+        <v>3051</v>
       </c>
       <c r="B209" t="s">
         <v>3052</v>
@@ -26044,32 +26050,32 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B210" t="s">
         <v>3054</v>
       </c>
-      <c r="B210" t="s">
+      <c r="C210" s="1" t="s">
         <v>3055</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>3056</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>1134</v>
+        <v>3056</v>
       </c>
       <c r="B211" t="s">
-        <v>1624</v>
+        <v>3057</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>3057</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>1631</v>
+        <v>1134</v>
       </c>
       <c r="B212" t="s">
-        <v>3058</v>
+        <v>1624</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>3059</v>
@@ -26077,7 +26083,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>1640</v>
+        <v>1631</v>
       </c>
       <c r="B213" t="s">
         <v>3060</v>
@@ -26088,40 +26094,40 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B214" t="s">
         <v>3062</v>
       </c>
-      <c r="B214" t="s">
+      <c r="C214" s="1" t="s">
         <v>3063</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>3064</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B215" t="s">
         <v>3065</v>
       </c>
-      <c r="B215" t="s">
+      <c r="C215" s="1" t="s">
         <v>3066</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>3067</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B216" t="s">
         <v>3068</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" s="1" t="s">
         <v>3069</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>3070</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>1134</v>
+        <v>3070</v>
       </c>
       <c r="B217" t="s">
         <v>3071</v>
@@ -26143,7 +26149,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>1672</v>
+        <v>1134</v>
       </c>
       <c r="B219" t="s">
         <v>3075</v>
@@ -26154,7 +26160,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="B220" t="s">
         <v>3077</v>
@@ -26165,7 +26171,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>1134</v>
+        <v>1675</v>
       </c>
       <c r="B221" t="s">
         <v>3079</v>
@@ -26187,29 +26193,29 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B223" t="s">
         <v>3083</v>
       </c>
-      <c r="B223" t="s">
+      <c r="C223" s="1" t="s">
         <v>3084</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>3085</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B224" t="s">
         <v>3086</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C224" s="1" t="s">
         <v>3087</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>3088</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>6</v>
+        <v>3088</v>
       </c>
       <c r="B225" t="s">
         <v>3089</v>
@@ -26220,18 +26226,18 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
+        <v>6</v>
+      </c>
+      <c r="B226" t="s">
         <v>3091</v>
       </c>
-      <c r="B226" t="s">
+      <c r="C226" s="1" t="s">
         <v>3092</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>3093</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>1134</v>
+        <v>3093</v>
       </c>
       <c r="B227" t="s">
         <v>3094</v>
@@ -26242,40 +26248,40 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B228" t="s">
         <v>3096</v>
       </c>
-      <c r="B228" t="s">
+      <c r="C228" s="1" t="s">
         <v>3097</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>3098</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
+        <v>3098</v>
+      </c>
+      <c r="B229" t="s">
         <v>3099</v>
       </c>
-      <c r="B229" t="s">
+      <c r="C229" s="1" t="s">
         <v>3100</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>3101</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
+        <v>3101</v>
+      </c>
+      <c r="B230" t="s">
         <v>3102</v>
       </c>
-      <c r="B230" t="s">
+      <c r="C230" s="1" t="s">
         <v>3103</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>3104</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>1737</v>
+        <v>3104</v>
       </c>
       <c r="B231" t="s">
         <v>3105</v>
@@ -26286,18 +26292,18 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B232" t="s">
         <v>3107</v>
       </c>
-      <c r="B232" t="s">
+      <c r="C232" s="1" t="s">
         <v>3108</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>3109</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>1134</v>
+        <v>3109</v>
       </c>
       <c r="B233" t="s">
         <v>3110</v>
@@ -26308,73 +26314,73 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B234" t="s">
         <v>3112</v>
       </c>
-      <c r="B234" t="s">
+      <c r="C234" s="1" t="s">
         <v>3113</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>3114</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
+        <v>3114</v>
+      </c>
+      <c r="B235" t="s">
         <v>3115</v>
       </c>
-      <c r="B235" t="s">
+      <c r="C235" s="1" t="s">
         <v>3116</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>3117</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
+        <v>3117</v>
+      </c>
+      <c r="B236" t="s">
         <v>3118</v>
       </c>
-      <c r="B236" t="s">
+      <c r="C236" s="1" t="s">
         <v>3119</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>3120</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
+        <v>3120</v>
+      </c>
+      <c r="B237" t="s">
         <v>3121</v>
       </c>
-      <c r="B237" t="s">
+      <c r="C237" s="1" t="s">
         <v>3122</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>3123</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B238" t="s">
         <v>3124</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" s="1" t="s">
         <v>3125</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>3126</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
+        <v>3126</v>
+      </c>
+      <c r="B239" t="s">
         <v>3127</v>
       </c>
-      <c r="B239" t="s">
+      <c r="C239" s="1" t="s">
         <v>3128</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>3129</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>1134</v>
+        <v>3129</v>
       </c>
       <c r="B240" t="s">
         <v>3130</v>
@@ -26385,40 +26391,40 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B241" t="s">
         <v>3132</v>
       </c>
-      <c r="B241" t="s">
+      <c r="C241" s="1" t="s">
         <v>3133</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>3134</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
+        <v>3134</v>
+      </c>
+      <c r="B242" t="s">
         <v>3135</v>
       </c>
-      <c r="B242" t="s">
+      <c r="C242" s="1" t="s">
         <v>3136</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>3137</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
+        <v>3137</v>
+      </c>
+      <c r="B243" t="s">
         <v>3138</v>
       </c>
-      <c r="B243" t="s">
+      <c r="C243" s="1" t="s">
         <v>3139</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>3140</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>1134</v>
+        <v>3140</v>
       </c>
       <c r="B244" t="s">
         <v>3141</v>
@@ -26451,21 +26457,21 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>1846</v>
+        <v>1134</v>
       </c>
       <c r="B247" t="s">
-        <v>1847</v>
+        <v>3147</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>1852</v>
+        <v>1846</v>
       </c>
       <c r="B248" t="s">
-        <v>3148</v>
+        <v>1847</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>3149</v>
@@ -26473,18 +26479,18 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B249" t="s">
         <v>3150</v>
       </c>
-      <c r="B249" t="s">
+      <c r="C249" s="1" t="s">
         <v>3151</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>3152</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>1134</v>
+        <v>3152</v>
       </c>
       <c r="B250" t="s">
         <v>3153</v>
@@ -26498,37 +26504,37 @@
         <v>1134</v>
       </c>
       <c r="B251" t="s">
-        <v>1862</v>
+        <v>3155</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>3156</v>
+        <v>1134</v>
       </c>
       <c r="B252" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C252" s="1" t="s">
         <v>3157</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>3158</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
+        <v>3158</v>
+      </c>
+      <c r="B253" t="s">
         <v>3159</v>
       </c>
-      <c r="B253" t="s">
+      <c r="C253" s="1" t="s">
         <v>3160</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>3161</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>1870</v>
+        <v>3161</v>
       </c>
       <c r="B254" t="s">
         <v>3162</v>
@@ -26539,21 +26545,21 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>1675</v>
+        <v>1870</v>
       </c>
       <c r="B255" t="s">
-        <v>1871</v>
+        <v>3164</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>3164</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>3138</v>
+        <v>1675</v>
       </c>
       <c r="B256" t="s">
-        <v>3165</v>
+        <v>1871</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>3166</v>
@@ -26561,7 +26567,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>1134</v>
+        <v>3140</v>
       </c>
       <c r="B257" t="s">
         <v>3167</v>
@@ -26572,40 +26578,40 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B258" t="s">
         <v>3169</v>
       </c>
-      <c r="B258" t="s">
+      <c r="C258" s="1" t="s">
         <v>3170</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>3171</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B259" t="s">
         <v>3172</v>
       </c>
-      <c r="B259" t="s">
+      <c r="C259" s="1" t="s">
         <v>3173</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>3174</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B260" t="s">
         <v>3175</v>
       </c>
-      <c r="B260" t="s">
+      <c r="C260" s="1" t="s">
         <v>3176</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>3177</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>1134</v>
+        <v>3177</v>
       </c>
       <c r="B261" t="s">
         <v>3178</v>
@@ -26616,18 +26622,18 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B262" t="s">
         <v>3180</v>
       </c>
-      <c r="B262" t="s">
+      <c r="C262" s="1" t="s">
         <v>3181</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>3182</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>1864</v>
+        <v>3182</v>
       </c>
       <c r="B263" t="s">
         <v>3183</v>
@@ -26638,21 +26644,21 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>1134</v>
+        <v>1864</v>
       </c>
       <c r="B264" t="s">
-        <v>1915</v>
+        <v>3185</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>3185</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>148</v>
+        <v>1134</v>
       </c>
       <c r="B265" t="s">
-        <v>3186</v>
+        <v>1915</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>3187</v>
@@ -26660,7 +26666,7 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>1134</v>
+        <v>148</v>
       </c>
       <c r="B266" t="s">
         <v>3188</v>
@@ -26671,18 +26677,18 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B267" t="s">
         <v>3190</v>
       </c>
-      <c r="B267" t="s">
+      <c r="C267" s="1" t="s">
         <v>3191</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>3192</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>1134</v>
+        <v>3192</v>
       </c>
       <c r="B268" t="s">
         <v>3193</v>
@@ -26693,7 +26699,7 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>1943</v>
+        <v>1134</v>
       </c>
       <c r="B269" t="s">
         <v>3195</v>
@@ -26704,29 +26710,29 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B270" t="s">
         <v>3197</v>
       </c>
-      <c r="B270" t="s">
+      <c r="C270" s="1" t="s">
         <v>3198</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>3199</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B271" t="s">
         <v>3200</v>
       </c>
-      <c r="B271" t="s">
+      <c r="C271" s="1" t="s">
         <v>3201</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>3202</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>1134</v>
+        <v>3202</v>
       </c>
       <c r="B272" t="s">
         <v>3203</v>
@@ -26737,18 +26743,18 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B273" t="s">
         <v>3205</v>
       </c>
-      <c r="B273" t="s">
+      <c r="C273" s="1" t="s">
         <v>3206</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>3207</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>1134</v>
+        <v>3207</v>
       </c>
       <c r="B274" t="s">
         <v>3208</v>
@@ -26759,29 +26765,29 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B275" t="s">
         <v>3210</v>
       </c>
-      <c r="B275" t="s">
+      <c r="C275" s="1" t="s">
         <v>3211</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>3212</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
+        <v>3212</v>
+      </c>
+      <c r="B276" t="s">
         <v>3213</v>
       </c>
-      <c r="B276" t="s">
+      <c r="C276" s="1" t="s">
         <v>3214</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>3215</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>1134</v>
+        <v>3215</v>
       </c>
       <c r="B277" t="s">
         <v>3216</v>
@@ -26792,51 +26798,51 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B278" t="s">
         <v>3218</v>
       </c>
-      <c r="B278" t="s">
+      <c r="C278" s="1" t="s">
         <v>3219</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>3220</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
+        <v>3220</v>
+      </c>
+      <c r="B279" t="s">
         <v>3221</v>
       </c>
-      <c r="B279" t="s">
+      <c r="C279" s="1" t="s">
         <v>3222</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>3223</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B280" t="s">
         <v>3224</v>
       </c>
-      <c r="B280" t="s">
+      <c r="C280" s="1" t="s">
         <v>3225</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>3226</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
+        <v>3226</v>
+      </c>
+      <c r="B281" t="s">
         <v>3227</v>
       </c>
-      <c r="B281" t="s">
+      <c r="C281" s="1" t="s">
         <v>3228</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>3229</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>1134</v>
+        <v>3229</v>
       </c>
       <c r="B282" t="s">
         <v>3230</v>
@@ -26847,7 +26853,7 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>1988</v>
+        <v>1134</v>
       </c>
       <c r="B283" t="s">
         <v>3232</v>
@@ -26858,51 +26864,51 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B284" t="s">
         <v>3234</v>
       </c>
-      <c r="B284" t="s">
+      <c r="C284" s="1" t="s">
         <v>3235</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>3236</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B285" t="s">
         <v>3237</v>
       </c>
-      <c r="B285" t="s">
+      <c r="C285" s="1" t="s">
         <v>3238</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>3239</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
+        <v>3239</v>
+      </c>
+      <c r="B286" t="s">
         <v>3240</v>
       </c>
-      <c r="B286" t="s">
+      <c r="C286" s="1" t="s">
         <v>3241</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>3242</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
+        <v>3242</v>
+      </c>
+      <c r="B287" t="s">
         <v>3243</v>
       </c>
-      <c r="B287" t="s">
+      <c r="C287" s="1" t="s">
         <v>3244</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>3245</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>1171</v>
+        <v>3245</v>
       </c>
       <c r="B288" t="s">
         <v>3246</v>
@@ -26913,7 +26919,7 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>1134</v>
+        <v>1171</v>
       </c>
       <c r="B289" t="s">
         <v>3248</v>
@@ -26927,26 +26933,26 @@
         <v>1134</v>
       </c>
       <c r="B290" t="s">
-        <v>2003</v>
+        <v>3250</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>3250</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>3251</v>
+        <v>1134</v>
       </c>
       <c r="B291" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C291" s="1" t="s">
         <v>3252</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>3253</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>3234</v>
+        <v>3253</v>
       </c>
       <c r="B292" t="s">
         <v>3254</v>
@@ -26957,18 +26963,18 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B293" t="s">
         <v>3256</v>
       </c>
-      <c r="B293" t="s">
+      <c r="C293" s="1" t="s">
         <v>3257</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>3258</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>6</v>
+        <v>3258</v>
       </c>
       <c r="B294" t="s">
         <v>3259</v>
@@ -26979,32 +26985,32 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>1134</v>
+        <v>6</v>
       </c>
       <c r="B295" t="s">
-        <v>2055</v>
+        <v>3261</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>2060</v>
+        <v>1134</v>
       </c>
       <c r="B296" t="s">
-        <v>2061</v>
+        <v>2055</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>52</v>
+        <v>2060</v>
       </c>
       <c r="B297" t="s">
-        <v>3263</v>
+        <v>2061</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>3264</v>
@@ -27012,18 +27018,18 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
+        <v>52</v>
+      </c>
+      <c r="B298" t="s">
         <v>3265</v>
       </c>
-      <c r="B298" t="s">
+      <c r="C298" s="1" t="s">
         <v>3266</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>3267</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>2084</v>
+        <v>3267</v>
       </c>
       <c r="B299" t="s">
         <v>3268</v>
@@ -27034,7 +27040,7 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="B300" t="s">
         <v>3270</v>
@@ -27045,18 +27051,18 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B301" t="s">
         <v>3272</v>
       </c>
-      <c r="B301" t="s">
+      <c r="C301" s="1" t="s">
         <v>3273</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>3274</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>1134</v>
+        <v>3274</v>
       </c>
       <c r="B302" t="s">
         <v>3275</v>
@@ -27067,29 +27073,29 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>2100</v>
+        <v>1134</v>
       </c>
       <c r="B303" t="s">
-        <v>2101</v>
+        <v>3277</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>3277</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>3278</v>
+        <v>2100</v>
       </c>
       <c r="B304" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C304" s="1" t="s">
         <v>3279</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>3280</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>2118</v>
+        <v>3280</v>
       </c>
       <c r="B305" t="s">
         <v>3281</v>
@@ -27100,18 +27106,18 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B306" t="s">
         <v>3283</v>
       </c>
-      <c r="B306" t="s">
+      <c r="C306" s="1" t="s">
         <v>3284</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>3285</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>1704</v>
+        <v>3285</v>
       </c>
       <c r="B307" t="s">
         <v>3286</v>
@@ -27122,21 +27128,21 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>2060</v>
+        <v>1704</v>
       </c>
       <c r="B308" t="s">
-        <v>2130</v>
+        <v>3288</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>2137</v>
+        <v>2060</v>
       </c>
       <c r="B309" t="s">
-        <v>3289</v>
+        <v>2130</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>3290</v>
@@ -27144,7 +27150,7 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>1134</v>
+        <v>2137</v>
       </c>
       <c r="B310" t="s">
         <v>3291</v>
@@ -27155,29 +27161,29 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B311" t="s">
         <v>3293</v>
       </c>
-      <c r="B311" t="s">
+      <c r="C311" s="1" t="s">
         <v>3294</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>3295</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
+        <v>3295</v>
+      </c>
+      <c r="B312" t="s">
         <v>3296</v>
       </c>
-      <c r="B312" t="s">
+      <c r="C312" s="1" t="s">
         <v>3297</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>3298</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>1704</v>
+        <v>3298</v>
       </c>
       <c r="B313" t="s">
         <v>3299</v>
@@ -27188,62 +27194,62 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B314" t="s">
         <v>3301</v>
       </c>
-      <c r="B314" t="s">
+      <c r="C314" s="1" t="s">
         <v>3302</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>3303</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B315" t="s">
         <v>3304</v>
       </c>
-      <c r="B315" t="s">
+      <c r="C315" s="1" t="s">
         <v>3305</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>3306</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
+        <v>3306</v>
+      </c>
+      <c r="B316" t="s">
         <v>3307</v>
       </c>
-      <c r="B316" t="s">
+      <c r="C316" s="1" t="s">
         <v>3308</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>3309</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B317" t="s">
         <v>3310</v>
       </c>
-      <c r="B317" t="s">
+      <c r="C317" s="1" t="s">
         <v>3311</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>3312</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
+        <v>3312</v>
+      </c>
+      <c r="B318" t="s">
         <v>3313</v>
       </c>
-      <c r="B318" t="s">
+      <c r="C318" s="1" t="s">
         <v>3314</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>1704</v>
+        <v>3315</v>
       </c>
       <c r="B319" t="s">
         <v>3316</v>
@@ -27254,7 +27260,7 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>1675</v>
+        <v>1704</v>
       </c>
       <c r="B320" t="s">
         <v>3318</v>
@@ -27265,7 +27271,7 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>6</v>
+        <v>1675</v>
       </c>
       <c r="B321" t="s">
         <v>3320</v>
@@ -27276,18 +27282,18 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
+        <v>6</v>
+      </c>
+      <c r="B322" t="s">
         <v>3322</v>
       </c>
-      <c r="B322" t="s">
+      <c r="C322" s="1" t="s">
         <v>3323</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>3324</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>1171</v>
+        <v>3324</v>
       </c>
       <c r="B323" t="s">
         <v>3325</v>
@@ -27298,7 +27304,7 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>1675</v>
+        <v>1171</v>
       </c>
       <c r="B324" t="s">
         <v>3327</v>
@@ -27309,7 +27315,7 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>52</v>
+        <v>1675</v>
       </c>
       <c r="B325" t="s">
         <v>3329</v>
@@ -27320,29 +27326,29 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
+        <v>52</v>
+      </c>
+      <c r="B326" t="s">
         <v>3331</v>
       </c>
-      <c r="B326" t="s">
+      <c r="C326" s="1" t="s">
         <v>3332</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>3333</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
+        <v>3333</v>
+      </c>
+      <c r="B327" t="s">
         <v>3334</v>
       </c>
-      <c r="B327" t="s">
+      <c r="C327" s="1" t="s">
         <v>3335</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>3336</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>1704</v>
+        <v>3336</v>
       </c>
       <c r="B328" t="s">
         <v>3337</v>
@@ -27353,29 +27359,29 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B329" t="s">
         <v>3339</v>
       </c>
-      <c r="B329" t="s">
+      <c r="C329" s="1" t="s">
         <v>3340</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>3341</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
+        <v>3341</v>
+      </c>
+      <c r="B330" t="s">
         <v>3342</v>
       </c>
-      <c r="B330" t="s">
+      <c r="C330" s="1" t="s">
         <v>3343</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>3344</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>1704</v>
+        <v>3344</v>
       </c>
       <c r="B331" t="s">
         <v>3345</v>
@@ -27386,29 +27392,29 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B332" t="s">
         <v>3347</v>
       </c>
-      <c r="B332" t="s">
+      <c r="C332" s="1" t="s">
         <v>3348</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>3349</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B333" t="s">
         <v>3350</v>
       </c>
-      <c r="B333" t="s">
+      <c r="C333" s="1" t="s">
         <v>3351</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>3352</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>1782</v>
+        <v>3352</v>
       </c>
       <c r="B334" t="s">
         <v>3353</v>
@@ -27419,18 +27425,18 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B335" t="s">
         <v>3355</v>
       </c>
-      <c r="B335" t="s">
+      <c r="C335" s="1" t="s">
         <v>3356</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>3357</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>1171</v>
+        <v>3357</v>
       </c>
       <c r="B336" t="s">
         <v>3358</v>
@@ -27441,7 +27447,7 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>1675</v>
+        <v>1171</v>
       </c>
       <c r="B337" t="s">
         <v>3360</v>
@@ -27452,7 +27458,7 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>6</v>
+        <v>1675</v>
       </c>
       <c r="B338" t="s">
         <v>3362</v>
@@ -27463,18 +27469,18 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
+        <v>6</v>
+      </c>
+      <c r="B339" t="s">
         <v>3364</v>
       </c>
-      <c r="B339" t="s">
+      <c r="C339" s="1" t="s">
         <v>3365</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>3366</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>6</v>
+        <v>3366</v>
       </c>
       <c r="B340" t="s">
         <v>3367</v>
@@ -27485,7 +27491,7 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="B341" t="s">
         <v>3369</v>
@@ -27496,7 +27502,7 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>1782</v>
+        <v>52</v>
       </c>
       <c r="B342" t="s">
         <v>3371</v>
@@ -27507,13 +27513,24 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B343" t="s">
         <v>3373</v>
       </c>
-      <c r="B343" t="s">
+      <c r="C343" s="1" t="s">
         <v>3374</v>
       </c>
-      <c r="C343" s="1" t="s">
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" t="s">
         <v>3375</v>
+      </c>
+      <c r="B344" t="s">
+        <v>3376</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>3377</v>
       </c>
     </row>
   </sheetData>
@@ -27860,6 +27877,7 @@
     <hyperlink ref="C341" r:id="rId340"/>
     <hyperlink ref="C342" r:id="rId341"/>
     <hyperlink ref="C343" r:id="rId342"/>
+    <hyperlink ref="C344" r:id="rId343"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27891,13 +27909,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="B2" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3378</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -27905,32 +27923,32 @@
         <v>2453</v>
       </c>
       <c r="B3" t="s">
-        <v>3379</v>
+        <v>3381</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3380</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3381</v>
+        <v>3383</v>
       </c>
       <c r="B4" t="s">
-        <v>3382</v>
+        <v>3384</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3383</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3384</v>
+        <v>3386</v>
       </c>
       <c r="B5" t="s">
-        <v>3385</v>
+        <v>3387</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3386</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -27938,32 +27956,32 @@
         <v>2465</v>
       </c>
       <c r="B6" t="s">
-        <v>3387</v>
+        <v>3389</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3388</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3389</v>
+        <v>3391</v>
       </c>
       <c r="B7" t="s">
-        <v>3390</v>
+        <v>3392</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3391</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>3392</v>
+        <v>3394</v>
       </c>
       <c r="B8" t="s">
-        <v>3393</v>
+        <v>3395</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>3394</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -27974,7 +27992,7 @@
         <v>2475</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>3395</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -27982,10 +28000,10 @@
         <v>2948</v>
       </c>
       <c r="B10" t="s">
-        <v>3396</v>
+        <v>3398</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3397</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -27993,10 +28011,10 @@
         <v>2484</v>
       </c>
       <c r="B11" t="s">
-        <v>3398</v>
+        <v>3400</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>3399</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -28007,7 +28025,7 @@
         <v>2488</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3400</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -28015,32 +28033,32 @@
         <v>2492</v>
       </c>
       <c r="B13" t="s">
-        <v>3401</v>
+        <v>3403</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3402</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>3403</v>
+        <v>3405</v>
       </c>
       <c r="B14" t="s">
-        <v>3404</v>
+        <v>3406</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3405</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>3406</v>
+        <v>3408</v>
       </c>
       <c r="B15" t="s">
-        <v>3407</v>
+        <v>3409</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>3408</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -28051,7 +28069,7 @@
         <v>2501</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>3409</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -28059,10 +28077,10 @@
         <v>2500</v>
       </c>
       <c r="B17" t="s">
-        <v>3410</v>
+        <v>3412</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3411</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -28070,65 +28088,65 @@
         <v>2503</v>
       </c>
       <c r="B18" t="s">
-        <v>3412</v>
+        <v>3414</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3413</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>3414</v>
+        <v>3416</v>
       </c>
       <c r="B19" t="s">
-        <v>3415</v>
+        <v>3417</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>3416</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>3417</v>
+        <v>3419</v>
       </c>
       <c r="B20" t="s">
-        <v>3418</v>
+        <v>3420</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>3419</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>3420</v>
+        <v>3422</v>
       </c>
       <c r="B21" t="s">
-        <v>3421</v>
+        <v>3423</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>3422</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>3423</v>
+        <v>3425</v>
       </c>
       <c r="B22" t="s">
-        <v>3424</v>
+        <v>3426</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>3425</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>3426</v>
+        <v>3428</v>
       </c>
       <c r="B23" t="s">
-        <v>3427</v>
+        <v>3429</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>3428</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -28136,21 +28154,21 @@
         <v>2517</v>
       </c>
       <c r="B24" t="s">
-        <v>3429</v>
+        <v>3431</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3430</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3431</v>
+        <v>3433</v>
       </c>
       <c r="B25" t="s">
-        <v>3432</v>
+        <v>3434</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>3433</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -28158,21 +28176,21 @@
         <v>2520</v>
       </c>
       <c r="B26" t="s">
-        <v>3434</v>
+        <v>3436</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>3435</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>3436</v>
+        <v>3438</v>
       </c>
       <c r="B27" t="s">
-        <v>3437</v>
+        <v>3439</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>3438</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -28180,54 +28198,54 @@
         <v>2525</v>
       </c>
       <c r="B28" t="s">
-        <v>3439</v>
+        <v>3441</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>3440</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>3265</v>
+        <v>3267</v>
       </c>
       <c r="B29" t="s">
-        <v>3441</v>
+        <v>3443</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>3442</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>3443</v>
+        <v>3445</v>
       </c>
       <c r="B30" t="s">
-        <v>3444</v>
+        <v>3446</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>3445</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>3446</v>
+        <v>3448</v>
       </c>
       <c r="B31" t="s">
-        <v>3447</v>
+        <v>3449</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>3448</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>3449</v>
+        <v>3451</v>
       </c>
       <c r="B32" t="s">
-        <v>3450</v>
+        <v>3452</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>3451</v>
+        <v>3453</v>
       </c>
     </row>
   </sheetData>
@@ -28294,13 +28312,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3452</v>
+        <v>3454</v>
       </c>
       <c r="B2" t="s">
-        <v>3453</v>
+        <v>3455</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3454</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -28308,186 +28326,186 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>3455</v>
+        <v>3457</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3456</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="B4" t="s">
-        <v>3458</v>
+        <v>3460</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3459</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3460</v>
+        <v>3462</v>
       </c>
       <c r="B5" t="s">
-        <v>3461</v>
+        <v>3463</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3462</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3463</v>
+        <v>3465</v>
       </c>
       <c r="B6" t="s">
-        <v>3464</v>
+        <v>3466</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3465</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3466</v>
+        <v>3468</v>
       </c>
       <c r="B7" t="s">
-        <v>3467</v>
+        <v>3469</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3468</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>3469</v>
+        <v>3471</v>
       </c>
       <c r="B8" t="s">
-        <v>3470</v>
+        <v>3472</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>3471</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>3472</v>
+        <v>3474</v>
       </c>
       <c r="B9" t="s">
-        <v>3473</v>
+        <v>3475</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>3474</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>3475</v>
+        <v>3477</v>
       </c>
       <c r="B10" t="s">
-        <v>3476</v>
+        <v>3478</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3477</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="B11" t="s">
-        <v>3479</v>
+        <v>3481</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>3480</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>3481</v>
+        <v>3483</v>
       </c>
       <c r="B12" t="s">
-        <v>3482</v>
+        <v>3484</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3483</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>3484</v>
+        <v>3486</v>
       </c>
       <c r="B13" t="s">
-        <v>3485</v>
+        <v>3487</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3486</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>3487</v>
+        <v>3489</v>
       </c>
       <c r="B14" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3489</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>3490</v>
+        <v>3492</v>
       </c>
       <c r="B15" t="s">
-        <v>3491</v>
+        <v>3493</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>3492</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>3493</v>
+        <v>3495</v>
       </c>
       <c r="B16" t="s">
-        <v>3494</v>
+        <v>3496</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>3495</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>3496</v>
+        <v>3498</v>
       </c>
       <c r="B17" t="s">
-        <v>3497</v>
+        <v>3499</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3498</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>3499</v>
+        <v>3501</v>
       </c>
       <c r="B18" t="s">
-        <v>3500</v>
+        <v>3502</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3501</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>3502</v>
+        <v>3504</v>
       </c>
       <c r="B19" t="s">
-        <v>3503</v>
+        <v>3505</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>3504</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -28495,76 +28513,76 @@
         <v>648</v>
       </c>
       <c r="B20" t="s">
-        <v>3505</v>
+        <v>3507</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>3506</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>3507</v>
+        <v>3509</v>
       </c>
       <c r="B21" t="s">
-        <v>3508</v>
+        <v>3510</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>3509</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>3510</v>
+        <v>3512</v>
       </c>
       <c r="B22" t="s">
-        <v>3511</v>
+        <v>3513</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>3512</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>3513</v>
+        <v>3515</v>
       </c>
       <c r="B23" t="s">
-        <v>3514</v>
+        <v>3516</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>3515</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>3516</v>
+        <v>3518</v>
       </c>
       <c r="B24" t="s">
-        <v>3517</v>
+        <v>3519</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3518</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3519</v>
+        <v>3521</v>
       </c>
       <c r="B25" t="s">
-        <v>3520</v>
+        <v>3522</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>3521</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>3522</v>
+        <v>3524</v>
       </c>
       <c r="B26" t="s">
-        <v>3523</v>
+        <v>3525</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>3524</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -28572,32 +28590,32 @@
         <v>648</v>
       </c>
       <c r="B27" t="s">
-        <v>3525</v>
+        <v>3527</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>3526</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>3527</v>
+        <v>3529</v>
       </c>
       <c r="B28" t="s">
-        <v>3528</v>
+        <v>3530</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>3529</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>3530</v>
+        <v>3532</v>
       </c>
       <c r="B29" t="s">
-        <v>3531</v>
+        <v>3533</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>3532</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -28605,32 +28623,32 @@
         <v>648</v>
       </c>
       <c r="B30" t="s">
-        <v>3533</v>
+        <v>3535</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>3534</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>3535</v>
+        <v>3537</v>
       </c>
       <c r="B31" t="s">
-        <v>3536</v>
+        <v>3538</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>3537</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>3538</v>
+        <v>3540</v>
       </c>
       <c r="B32" t="s">
-        <v>3539</v>
+        <v>3541</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>3540</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -28638,43 +28656,43 @@
         <v>648</v>
       </c>
       <c r="B33" t="s">
-        <v>3541</v>
+        <v>3543</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>3542</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>3543</v>
+        <v>3545</v>
       </c>
       <c r="B34" t="s">
-        <v>3544</v>
+        <v>3546</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>3545</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>3546</v>
+        <v>3548</v>
       </c>
       <c r="B35" t="s">
-        <v>3547</v>
+        <v>3549</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>3548</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>3549</v>
+        <v>3551</v>
       </c>
       <c r="B36" t="s">
-        <v>3550</v>
+        <v>3552</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>3551</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -28682,10 +28700,10 @@
         <v>648</v>
       </c>
       <c r="B37" t="s">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>3553</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -28693,43 +28711,43 @@
         <v>941</v>
       </c>
       <c r="B38" t="s">
-        <v>3554</v>
+        <v>3556</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>3555</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>3556</v>
+        <v>3558</v>
       </c>
       <c r="B39" t="s">
-        <v>3557</v>
+        <v>3559</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>3558</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>3559</v>
+        <v>3561</v>
       </c>
       <c r="B40" t="s">
-        <v>3560</v>
+        <v>3562</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>3561</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>3562</v>
+        <v>3564</v>
       </c>
       <c r="B41" t="s">
-        <v>3563</v>
+        <v>3565</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>3564</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -28737,142 +28755,142 @@
         <v>1189</v>
       </c>
       <c r="B42" t="s">
-        <v>3565</v>
+        <v>3567</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>3566</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>3567</v>
+        <v>3569</v>
       </c>
       <c r="B43" t="s">
-        <v>3568</v>
+        <v>3570</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>3569</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>3570</v>
+        <v>3572</v>
       </c>
       <c r="B44" t="s">
-        <v>3571</v>
+        <v>3573</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>3572</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>3573</v>
+        <v>3575</v>
       </c>
       <c r="B45" t="s">
-        <v>3574</v>
+        <v>3576</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>3575</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>3576</v>
+        <v>3578</v>
       </c>
       <c r="B46" t="s">
-        <v>3577</v>
+        <v>3579</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>3578</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>3579</v>
+        <v>3581</v>
       </c>
       <c r="B47" t="s">
-        <v>3580</v>
+        <v>3582</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>3581</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>3582</v>
+        <v>3584</v>
       </c>
       <c r="B48" t="s">
-        <v>3583</v>
+        <v>3585</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>3584</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>3585</v>
+        <v>3587</v>
       </c>
       <c r="B49" t="s">
-        <v>3586</v>
+        <v>3588</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>3587</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>3588</v>
+        <v>3590</v>
       </c>
       <c r="B50" t="s">
-        <v>3589</v>
+        <v>3591</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>3590</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>3591</v>
+        <v>3593</v>
       </c>
       <c r="B51" t="s">
-        <v>3592</v>
+        <v>3594</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>3593</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>3594</v>
+        <v>3596</v>
       </c>
       <c r="B52" t="s">
-        <v>3595</v>
+        <v>3597</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>3596</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>3597</v>
+        <v>3599</v>
       </c>
       <c r="B53" t="s">
-        <v>3598</v>
+        <v>3600</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>3599</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>3600</v>
+        <v>3602</v>
       </c>
       <c r="B54" t="s">
-        <v>3601</v>
+        <v>3603</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>3602</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -28880,10 +28898,10 @@
         <v>2405</v>
       </c>
       <c r="B55" t="s">
-        <v>3603</v>
+        <v>3605</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>3604</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -28891,10 +28909,10 @@
         <v>2405</v>
       </c>
       <c r="B56" t="s">
-        <v>3605</v>
+        <v>3607</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>3606</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -28902,10 +28920,10 @@
         <v>2405</v>
       </c>
       <c r="B57" t="s">
-        <v>3607</v>
+        <v>3609</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>3608</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -28913,43 +28931,43 @@
         <v>2405</v>
       </c>
       <c r="B58" t="s">
-        <v>3609</v>
+        <v>3611</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>3610</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>3611</v>
+        <v>3613</v>
       </c>
       <c r="B59" t="s">
-        <v>3612</v>
+        <v>3614</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>3613</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>3614</v>
+        <v>3616</v>
       </c>
       <c r="B60" t="s">
-        <v>3615</v>
+        <v>3617</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>3616</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>3617</v>
+        <v>3619</v>
       </c>
       <c r="B61" t="s">
-        <v>3618</v>
+        <v>3620</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>3619</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -28957,263 +28975,263 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>3620</v>
+        <v>3622</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>3621</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>3622</v>
+        <v>3624</v>
       </c>
       <c r="B63" t="s">
-        <v>3623</v>
+        <v>3625</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>3624</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>3625</v>
+        <v>3627</v>
       </c>
       <c r="B64" t="s">
-        <v>3626</v>
+        <v>3628</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>3627</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>3102</v>
+        <v>3104</v>
       </c>
       <c r="B65" t="s">
-        <v>3628</v>
+        <v>3630</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>3629</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>3630</v>
+        <v>3632</v>
       </c>
       <c r="B66" t="s">
-        <v>3631</v>
+        <v>3633</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>3632</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>3633</v>
+        <v>3635</v>
       </c>
       <c r="B67" t="s">
-        <v>3634</v>
+        <v>3636</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>3635</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>3636</v>
+        <v>3638</v>
       </c>
       <c r="B68" t="s">
-        <v>3637</v>
+        <v>3639</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>3638</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>3639</v>
+        <v>3641</v>
       </c>
       <c r="B69" t="s">
-        <v>3640</v>
+        <v>3642</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>3641</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>3642</v>
+        <v>3644</v>
       </c>
       <c r="B70" t="s">
-        <v>3643</v>
+        <v>3645</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>3644</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>3645</v>
+        <v>3647</v>
       </c>
       <c r="B71" t="s">
-        <v>3646</v>
+        <v>3648</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>3647</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>3648</v>
+        <v>3650</v>
       </c>
       <c r="B72" t="s">
-        <v>3649</v>
+        <v>3651</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>3650</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>3651</v>
+        <v>3653</v>
       </c>
       <c r="B73" t="s">
-        <v>3652</v>
+        <v>3654</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>3653</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>3654</v>
+        <v>3656</v>
       </c>
       <c r="B74" t="s">
-        <v>3655</v>
+        <v>3657</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>3656</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>3657</v>
+        <v>3659</v>
       </c>
       <c r="B75" t="s">
-        <v>3658</v>
+        <v>3660</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>3659</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>3660</v>
+        <v>3662</v>
       </c>
       <c r="B76" t="s">
-        <v>3661</v>
+        <v>3663</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>3662</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>3663</v>
+        <v>3665</v>
       </c>
       <c r="B77" t="s">
-        <v>3664</v>
+        <v>3666</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>3665</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>3666</v>
+        <v>3668</v>
       </c>
       <c r="B78" t="s">
-        <v>3667</v>
+        <v>3669</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>3668</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>3669</v>
+        <v>3671</v>
       </c>
       <c r="B79" t="s">
-        <v>3670</v>
+        <v>3672</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>3671</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>3672</v>
+        <v>3674</v>
       </c>
       <c r="B80" t="s">
-        <v>3673</v>
+        <v>3675</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>3674</v>
+        <v>3676</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>3675</v>
+        <v>3677</v>
       </c>
       <c r="B81" t="s">
-        <v>3676</v>
+        <v>3678</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>3677</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>3443</v>
+        <v>3445</v>
       </c>
       <c r="B82" t="s">
-        <v>3678</v>
+        <v>3680</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>3679</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>3680</v>
+        <v>3682</v>
       </c>
       <c r="B83" t="s">
-        <v>3681</v>
+        <v>3683</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>3682</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>3683</v>
+        <v>3685</v>
       </c>
       <c r="B84" t="s">
-        <v>3684</v>
+        <v>3686</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>3685</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>3686</v>
+        <v>3688</v>
       </c>
       <c r="B85" t="s">
-        <v>3687</v>
+        <v>3689</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>3688</v>
+        <v>3690</v>
       </c>
     </row>
   </sheetData>
@@ -29333,24 +29351,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3689</v>
+        <v>3691</v>
       </c>
       <c r="B2" t="s">
-        <v>3690</v>
+        <v>3692</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3691</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3692</v>
+        <v>3694</v>
       </c>
       <c r="B3" t="s">
-        <v>3693</v>
+        <v>3695</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3694</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -29358,43 +29376,43 @@
         <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>3695</v>
+        <v>3697</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3696</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3697</v>
+        <v>3699</v>
       </c>
       <c r="B5" t="s">
-        <v>3698</v>
+        <v>3700</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3699</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3700</v>
+        <v>3702</v>
       </c>
       <c r="B6" t="s">
-        <v>3701</v>
+        <v>3703</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3702</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3703</v>
+        <v>3705</v>
       </c>
       <c r="B7" t="s">
-        <v>3704</v>
+        <v>3706</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3705</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -29402,10 +29420,10 @@
         <v>648</v>
       </c>
       <c r="B8" t="s">
-        <v>3706</v>
+        <v>3708</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>3707</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -29413,32 +29431,32 @@
         <v>648</v>
       </c>
       <c r="B9" t="s">
-        <v>3708</v>
+        <v>3710</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>3709</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>3710</v>
+        <v>3712</v>
       </c>
       <c r="B10" t="s">
-        <v>3711</v>
+        <v>3713</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3712</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3713</v>
+        <v>3715</v>
       </c>
       <c r="B11" t="s">
-        <v>3714</v>
+        <v>3716</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>3715</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -29446,10 +29464,10 @@
         <v>648</v>
       </c>
       <c r="B12" t="s">
-        <v>3716</v>
+        <v>3718</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3717</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -29457,10 +29475,10 @@
         <v>648</v>
       </c>
       <c r="B13" t="s">
-        <v>3718</v>
+        <v>3720</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3719</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -29468,10 +29486,10 @@
         <v>1126</v>
       </c>
       <c r="B14" t="s">
-        <v>3720</v>
+        <v>3722</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3721</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -29479,43 +29497,43 @@
         <v>1189</v>
       </c>
       <c r="B15" t="s">
-        <v>3722</v>
+        <v>3724</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>3723</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>3573</v>
+        <v>3575</v>
       </c>
       <c r="B16" t="s">
-        <v>3724</v>
+        <v>3726</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>3725</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>3726</v>
+        <v>3728</v>
       </c>
       <c r="B17" t="s">
-        <v>3727</v>
+        <v>3729</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3728</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>3729</v>
+        <v>3731</v>
       </c>
       <c r="B18" t="s">
-        <v>3730</v>
+        <v>3732</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3731</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -29523,32 +29541,32 @@
         <v>1189</v>
       </c>
       <c r="B19" t="s">
-        <v>3732</v>
+        <v>3734</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>3733</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>3734</v>
+        <v>3736</v>
       </c>
       <c r="B20" t="s">
-        <v>3735</v>
+        <v>3737</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>3736</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>3737</v>
+        <v>3739</v>
       </c>
       <c r="B21" t="s">
-        <v>3738</v>
+        <v>3740</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>3739</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -29556,10 +29574,10 @@
         <v>1189</v>
       </c>
       <c r="B22" t="s">
-        <v>3740</v>
+        <v>3742</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>3741</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -29567,10 +29585,10 @@
         <v>941</v>
       </c>
       <c r="B23" t="s">
-        <v>3742</v>
+        <v>3744</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>3743</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -29578,153 +29596,153 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>3744</v>
+        <v>3746</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3745</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3746</v>
+        <v>3748</v>
       </c>
       <c r="B25" t="s">
-        <v>3747</v>
+        <v>3749</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>3748</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>3749</v>
+        <v>3751</v>
       </c>
       <c r="B26" t="s">
-        <v>3750</v>
+        <v>3752</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>3751</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>3431</v>
+        <v>3433</v>
       </c>
       <c r="B27" t="s">
-        <v>3752</v>
+        <v>3754</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>3753</v>
+        <v>3755</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>3754</v>
+        <v>3756</v>
       </c>
       <c r="B28" t="s">
-        <v>3755</v>
+        <v>3757</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>3756</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>3757</v>
+        <v>3759</v>
       </c>
       <c r="B29" t="s">
-        <v>3758</v>
+        <v>3760</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>3759</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>3760</v>
+        <v>3762</v>
       </c>
       <c r="B30" t="s">
-        <v>3761</v>
+        <v>3763</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>3762</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>3763</v>
+        <v>3765</v>
       </c>
       <c r="B31" t="s">
-        <v>3764</v>
+        <v>3766</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>3765</v>
+        <v>3767</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>3766</v>
+        <v>3768</v>
       </c>
       <c r="B32" t="s">
-        <v>3767</v>
+        <v>3769</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>3768</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>3769</v>
+        <v>3771</v>
       </c>
       <c r="B33" t="s">
-        <v>3770</v>
+        <v>3772</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>3771</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>3766</v>
+        <v>3768</v>
       </c>
       <c r="B34" t="s">
-        <v>3772</v>
+        <v>3774</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>3773</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>3774</v>
+        <v>3776</v>
       </c>
       <c r="B35" t="s">
-        <v>3775</v>
+        <v>3777</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>3776</v>
+        <v>3778</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>3777</v>
+        <v>3779</v>
       </c>
       <c r="B36" t="s">
-        <v>3778</v>
+        <v>3780</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>3779</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>3780</v>
+        <v>3782</v>
       </c>
       <c r="B37" t="s">
-        <v>3781</v>
+        <v>3783</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>3782</v>
+        <v>3784</v>
       </c>
     </row>
   </sheetData>
@@ -29796,35 +29814,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3783</v>
+        <v>3785</v>
       </c>
       <c r="B2" t="s">
-        <v>3784</v>
+        <v>3786</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3785</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3783</v>
+        <v>3785</v>
       </c>
       <c r="B3" t="s">
-        <v>3786</v>
+        <v>3788</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3787</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3788</v>
+        <v>3790</v>
       </c>
       <c r="B4" t="s">
-        <v>3789</v>
+        <v>3791</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3790</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -29832,32 +29850,32 @@
         <v>2565</v>
       </c>
       <c r="B5" t="s">
-        <v>3791</v>
+        <v>3793</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3792</v>
+        <v>3794</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3793</v>
+        <v>3795</v>
       </c>
       <c r="B6" t="s">
-        <v>3794</v>
+        <v>3796</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3795</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3796</v>
+        <v>3798</v>
       </c>
       <c r="B7" t="s">
-        <v>3797</v>
+        <v>3799</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3798</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -29865,43 +29883,43 @@
         <v>2450</v>
       </c>
       <c r="B8" t="s">
-        <v>3799</v>
+        <v>3801</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>3800</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>3801</v>
+        <v>3803</v>
       </c>
       <c r="B9" t="s">
-        <v>3802</v>
+        <v>3804</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>3803</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>3801</v>
+        <v>3803</v>
       </c>
       <c r="B10" t="s">
-        <v>3804</v>
+        <v>3806</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3805</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3801</v>
+        <v>3803</v>
       </c>
       <c r="B11" t="s">
-        <v>3806</v>
+        <v>3808</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>3807</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -29909,164 +29927,164 @@
         <v>2453</v>
       </c>
       <c r="B12" t="s">
-        <v>3808</v>
+        <v>3810</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3809</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>3801</v>
+        <v>3803</v>
       </c>
       <c r="B13" t="s">
-        <v>3810</v>
+        <v>3812</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3811</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>3801</v>
+        <v>3803</v>
       </c>
       <c r="B14" t="s">
-        <v>3812</v>
+        <v>3814</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3813</v>
+        <v>3815</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>3801</v>
+        <v>3803</v>
       </c>
       <c r="B15" t="s">
-        <v>3814</v>
+        <v>3816</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>3815</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>3801</v>
+        <v>3803</v>
       </c>
       <c r="B16" t="s">
-        <v>3816</v>
+        <v>3818</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>3817</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>3801</v>
+        <v>3803</v>
       </c>
       <c r="B17" t="s">
-        <v>3818</v>
+        <v>3820</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3819</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>3820</v>
+        <v>3822</v>
       </c>
       <c r="B18" t="s">
-        <v>3821</v>
+        <v>3823</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3822</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>3823</v>
+        <v>3825</v>
       </c>
       <c r="B19" t="s">
-        <v>3824</v>
+        <v>3826</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>3825</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>3823</v>
+        <v>3825</v>
       </c>
       <c r="B20" t="s">
-        <v>3826</v>
+        <v>3828</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>3827</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>3823</v>
+        <v>3825</v>
       </c>
       <c r="B21" t="s">
-        <v>3828</v>
+        <v>3830</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>3829</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>3823</v>
+        <v>3825</v>
       </c>
       <c r="B22" t="s">
-        <v>3830</v>
+        <v>3832</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>3831</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>3823</v>
+        <v>3825</v>
       </c>
       <c r="B23" t="s">
-        <v>3832</v>
+        <v>3834</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>3833</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>3481</v>
+        <v>3483</v>
       </c>
       <c r="B24" t="s">
-        <v>3834</v>
+        <v>3836</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3835</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3823</v>
+        <v>3825</v>
       </c>
       <c r="B25" t="s">
-        <v>3836</v>
+        <v>3838</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>3837</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>3823</v>
+        <v>3825</v>
       </c>
       <c r="B26" t="s">
-        <v>3838</v>
+        <v>3840</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>3839</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -30074,21 +30092,21 @@
         <v>2462</v>
       </c>
       <c r="B27" t="s">
-        <v>3840</v>
+        <v>3842</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>3841</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>3842</v>
+        <v>3844</v>
       </c>
       <c r="B28" t="s">
-        <v>3843</v>
+        <v>3845</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>3844</v>
+        <v>3846</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -30096,10 +30114,10 @@
         <v>2465</v>
       </c>
       <c r="B29" t="s">
-        <v>3845</v>
+        <v>3847</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>3846</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -30110,18 +30128,18 @@
         <v>2469</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>3847</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>3848</v>
+        <v>3850</v>
       </c>
       <c r="B31" t="s">
-        <v>3849</v>
+        <v>3851</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>3850</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -30132,29 +30150,29 @@
         <v>2766</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>3851</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>3392</v>
+        <v>3394</v>
       </c>
       <c r="B33" t="s">
-        <v>3852</v>
+        <v>3854</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>3853</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>3854</v>
+        <v>3856</v>
       </c>
       <c r="B34" t="s">
-        <v>3855</v>
+        <v>3857</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>3856</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -30162,43 +30180,43 @@
         <v>2474</v>
       </c>
       <c r="B35" t="s">
-        <v>3857</v>
+        <v>3859</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>3858</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>3859</v>
+        <v>3861</v>
       </c>
       <c r="B36" t="s">
-        <v>3860</v>
+        <v>3862</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>3861</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>3862</v>
+        <v>3864</v>
       </c>
       <c r="B37" t="s">
-        <v>3863</v>
+        <v>3865</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>3864</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>3865</v>
+        <v>3867</v>
       </c>
       <c r="B38" t="s">
-        <v>3866</v>
+        <v>3868</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>3867</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -30206,10 +30224,10 @@
         <v>2912</v>
       </c>
       <c r="B39" t="s">
-        <v>3868</v>
+        <v>3870</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>3869</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -30217,43 +30235,43 @@
         <v>2481</v>
       </c>
       <c r="B40" t="s">
-        <v>3870</v>
+        <v>3872</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>3871</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>3872</v>
+        <v>3874</v>
       </c>
       <c r="B41" t="s">
-        <v>3873</v>
+        <v>3875</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>3874</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>3657</v>
+        <v>3659</v>
       </c>
       <c r="B42" t="s">
-        <v>3875</v>
+        <v>3877</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>3876</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>3657</v>
+        <v>3659</v>
       </c>
       <c r="B43" t="s">
-        <v>3877</v>
+        <v>3879</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>3878</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -30261,10 +30279,10 @@
         <v>2492</v>
       </c>
       <c r="B44" t="s">
-        <v>3879</v>
+        <v>3881</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>3880</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -30272,10 +30290,10 @@
         <v>2492</v>
       </c>
       <c r="B45" t="s">
-        <v>3881</v>
+        <v>3883</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>3882</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -30283,10 +30301,10 @@
         <v>2484</v>
       </c>
       <c r="B46" t="s">
-        <v>3883</v>
+        <v>3885</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>3884</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -30294,54 +30312,54 @@
         <v>2495</v>
       </c>
       <c r="B47" t="s">
-        <v>3885</v>
+        <v>3887</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>3886</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>3887</v>
+        <v>3889</v>
       </c>
       <c r="B48" t="s">
-        <v>3888</v>
+        <v>3890</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>3889</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>3579</v>
+        <v>3581</v>
       </c>
       <c r="B49" t="s">
-        <v>3890</v>
+        <v>3892</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>3891</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>3403</v>
+        <v>3405</v>
       </c>
       <c r="B50" t="s">
-        <v>3892</v>
+        <v>3894</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>3893</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>3894</v>
+        <v>3896</v>
       </c>
       <c r="B51" t="s">
-        <v>3895</v>
+        <v>3897</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>3896</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -30349,76 +30367,76 @@
         <v>2500</v>
       </c>
       <c r="B52" t="s">
-        <v>3897</v>
+        <v>3899</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>3898</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>3899</v>
+        <v>3901</v>
       </c>
       <c r="B53" t="s">
-        <v>3900</v>
+        <v>3902</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>3901</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>3902</v>
+        <v>3904</v>
       </c>
       <c r="B54" t="s">
-        <v>3903</v>
+        <v>3905</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>3904</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>3905</v>
+        <v>3907</v>
       </c>
       <c r="B55" t="s">
-        <v>3906</v>
+        <v>3908</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>3907</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>3908</v>
+        <v>3910</v>
       </c>
       <c r="B56" t="s">
-        <v>3909</v>
+        <v>3911</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>3910</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>3420</v>
+        <v>3422</v>
       </c>
       <c r="B57" t="s">
-        <v>3634</v>
+        <v>3636</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>3911</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>3426</v>
+        <v>3428</v>
       </c>
       <c r="B58" t="s">
-        <v>3912</v>
+        <v>3914</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>3913</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -30426,32 +30444,32 @@
         <v>2517</v>
       </c>
       <c r="B59" t="s">
-        <v>3914</v>
+        <v>3916</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>3915</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>3138</v>
+        <v>3140</v>
       </c>
       <c r="B60" t="s">
-        <v>3916</v>
+        <v>3918</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>3917</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>3754</v>
+        <v>3756</v>
       </c>
       <c r="B61" t="s">
-        <v>3918</v>
+        <v>3920</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>3919</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -30459,32 +30477,32 @@
         <v>2520</v>
       </c>
       <c r="B62" t="s">
-        <v>3920</v>
+        <v>3922</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>3921</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>3436</v>
+        <v>3438</v>
       </c>
       <c r="B63" t="s">
-        <v>3922</v>
+        <v>3924</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>3923</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>3924</v>
+        <v>3926</v>
       </c>
       <c r="B64" t="s">
-        <v>3925</v>
+        <v>3927</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>3926</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -30492,76 +30510,76 @@
         <v>2525</v>
       </c>
       <c r="B65" t="s">
-        <v>3927</v>
+        <v>3929</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>3928</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>3929</v>
+        <v>3931</v>
       </c>
       <c r="B66" t="s">
-        <v>3930</v>
+        <v>3932</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>3931</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>3265</v>
+        <v>3267</v>
       </c>
       <c r="B67" t="s">
-        <v>3932</v>
+        <v>3934</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>3933</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>3934</v>
+        <v>3936</v>
       </c>
       <c r="B68" t="s">
-        <v>3935</v>
+        <v>3937</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>3936</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>3937</v>
+        <v>3939</v>
       </c>
       <c r="B69" t="s">
-        <v>3938</v>
+        <v>3940</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>3939</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>3940</v>
+        <v>3942</v>
       </c>
       <c r="B70" t="s">
-        <v>3941</v>
+        <v>3943</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>3942</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>3943</v>
+        <v>3945</v>
       </c>
       <c r="B71" t="s">
-        <v>3944</v>
+        <v>3946</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>3945</v>
+        <v>3947</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>标题</t>
   </si>
@@ -26,19 +26,158 @@
   </si>
   <si>
     <t>链接</t>
+  </si>
+  <si>
+    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-15 10:11</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307371737/</t>
+  </si>
+  <si>
+    <t>8号线杨思【小整租】独卫独厨 带阳台 天然气厨房3100 可付一 房东直租</t>
+  </si>
+  <si>
+    <t>06-15 08:54</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307369542/</t>
+  </si>
+  <si>
+    <t>06-14 22:10</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307354365/</t>
+  </si>
+  <si>
+    <t>1号线 汶水路~富锦路沿线，房东直租，大小单间，独厨独卫一室户，整租一房两房三房，民用水电,押一付一,无中介费!合规性价比房源</t>
+  </si>
+  <si>
+    <t>06-14 21:27</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307349752/</t>
+  </si>
+  <si>
+    <t>房东直租，8号线杨思地铁站，小整租独立一室户，燃气厨房独卫，有阳台晾晒方便，空间大🉑住两人，民用水电，压一付一3100</t>
+  </si>
+  <si>
+    <t>06-12 17:03</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307239290/</t>
+  </si>
+  <si>
+    <t>06-15 08:55</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307369548/</t>
+  </si>
+  <si>
+    <t>一号线宝山区静安区 整租一房 整租二房 整租三房 合租一室户 合租独厨独卫 合租独卫 合租小单间 都有房源</t>
+  </si>
+  <si>
+    <t>06-13 22:22</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307300857/</t>
+  </si>
+  <si>
+    <t>8号线杨思【小整租】独卫独厨 3200押一付一 民用水电 可办居住证 房东直签</t>
+  </si>
+  <si>
+    <t>06-13 11:03</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307268461/</t>
+  </si>
+  <si>
+    <t>6/8/11号线东方体育中心【小整租】独卫独厨一室户 押一付一 3200 可办居住证 民用水电 房东直签 随时看房</t>
+  </si>
+  <si>
+    <t>06-13 08:12</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307262977/</t>
+  </si>
+  <si>
+    <t>11号线三林站 直达徐家汇 小整租 独卫独厨 3000 民用水电 押一付一 可办居住证 可以短租</t>
+  </si>
+  <si>
+    <t>06-12 22:32</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307253773/</t>
+  </si>
+  <si>
+    <t>06-12 18:53</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307243635/</t>
+  </si>
+  <si>
+    <t>6号线高青路站【小整租】独卫独厨3000 押一付一 房东直签</t>
+  </si>
+  <si>
+    <t>06-12 11:32</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307224230/</t>
+  </si>
+  <si>
+    <t>8号线杨思【小整租】民用水电 押一付一 房东直签 独卫独厨 3000包网费水费</t>
+  </si>
+  <si>
+    <t>06-12 07:56</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307216580/</t>
+  </si>
+  <si>
+    <t>整租8号线杨思【小整租】独卫独厨 押一付一 3200 包网费水费 地铁五分钟 房东直签</t>
+  </si>
+  <si>
+    <t>06-11 20:54</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307201449/</t>
+  </si>
+  <si>
+    <t>吴中路虹桥路宜山路15号线 内独卫 1室户独立厨卫 精装修 无费用</t>
+  </si>
+  <si>
+    <t>05-19 12:59</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/306102923/</t>
+  </si>
+  <si>
+    <t>06-07 10:59</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/306996408/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,13 +197,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -357,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -379,14 +524,76 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,7 +615,129 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -444,7 +773,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -466,7 +795,21 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>标题</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307239290/</t>
+  </si>
+  <si>
+    <t>06-15 10:46</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307373173/</t>
   </si>
   <si>
     <t>06-15 08:55</t>
@@ -593,7 +599,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -617,7 +623,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -628,51 +634,51 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -683,46 +689,57 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -737,6 +754,7 @@
     <hyperlink ref="C9" r:id="rId8"/>
     <hyperlink ref="C10" r:id="rId9"/>
     <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -797,13 +815,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>标题</t>
   </si>
@@ -28,9 +28,33 @@
     <t>链接</t>
   </si>
   <si>
+    <t>浦东2/6/7/11/13/18号地铁沿线，房东直租单间独卫、主卧独卫、独立厨卫一室户、整租两房、三房，可押一付一，可办理居住证</t>
+  </si>
+  <si>
+    <t>06-15 13:52</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307381495/</t>
+  </si>
+  <si>
     <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
   </si>
   <si>
+    <t>06-15 13:49</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307381348/</t>
+  </si>
+  <si>
+    <t>6号线上南路站 【小整租】独卫独厨 带阳台 民用水电 押一付一 3000</t>
+  </si>
+  <si>
+    <t>06-15 12:53</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307378669/</t>
+  </si>
+  <si>
     <t>06-15 10:11</t>
   </si>
   <si>
@@ -68,6 +92,12 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307239290/</t>
+  </si>
+  <si>
+    <t>06-15 12:55</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307378732/</t>
   </si>
   <si>
     <t>06-15 10:46</t>
@@ -508,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -554,18 +584,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -583,6 +613,39 @@
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -592,6 +655,9 @@
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4"/>
     <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -599,7 +665,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,13 +689,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -637,109 +703,120 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -755,6 +832,7 @@
     <hyperlink ref="C10" r:id="rId9"/>
     <hyperlink ref="C11" r:id="rId10"/>
     <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -815,13 +893,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>标题</t>
   </si>
@@ -28,16 +28,25 @@
     <t>链接</t>
   </si>
   <si>
+    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-15 18:26</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307393061/</t>
+  </si>
+  <si>
     <t>浦东2/6/7/11/13/18号地铁沿线，房东直租单间独卫、主卧独卫、独立厨卫一室户、整租两房、三房，可押一付一，可办理居住证</t>
   </si>
   <si>
+    <t>https://www.douban.com/group/topic/307393042/</t>
+  </si>
+  <si>
     <t>06-15 13:52</t>
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307381495/</t>
-  </si>
-  <si>
-    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
   </si>
   <si>
     <t>06-15 13:49</t>
@@ -538,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -576,76 +585,98 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -658,6 +689,8 @@
     <hyperlink ref="C7" r:id="rId6"/>
     <hyperlink ref="C8" r:id="rId7"/>
     <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -689,134 +722,134 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -893,13 +926,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
   <si>
     <t>标题</t>
   </si>
@@ -28,9 +28,24 @@
     <t>链接</t>
   </si>
   <si>
+    <t>8号线杨思【小整租】独卫独厨 民用水电 地铁五分钟 3000 押一付一 精装拎包入住 房东直签 随时看房</t>
+  </si>
+  <si>
+    <t>06-15 21:10</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307401372/</t>
+  </si>
+  <si>
     <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
   </si>
   <si>
+    <t>06-15 21:00</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307400829/</t>
+  </si>
+  <si>
     <t>06-15 18:26</t>
   </si>
   <si>
@@ -101,6 +116,12 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307239290/</t>
+  </si>
+  <si>
+    <t>06-15 21:11</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307401427/</t>
   </si>
   <si>
     <t>06-15 12:55</t>
@@ -547,157 +568,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="75.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -722,134 +592,134 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -866,6 +736,193 @@
     <hyperlink ref="C11" r:id="rId10"/>
     <hyperlink ref="C12" r:id="rId11"/>
     <hyperlink ref="C13" r:id="rId12"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="75.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -926,13 +983,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,33 @@
     <t>链接</t>
   </si>
   <si>
+    <t>租客转租:1号线，共康路，通河新村，通河七村，朝南，独厨独卫2户合租，房租3000，精装修联系方式19532376978</t>
+  </si>
+  <si>
+    <t>06-15 22:50</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307406705/</t>
+  </si>
+  <si>
+    <t>14号嘉怡路地铁站 朝南大主卧 独厨独卫一室户 精装修 电梯房</t>
+  </si>
+  <si>
+    <t>06-15 22:42</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307406270/</t>
+  </si>
+  <si>
+    <t>1号线 汶水路~富锦路沿线，房东直租，大小单间，独厨独卫一室户，整租一房两房三房，民用水电,押一付一!合规性价比房源</t>
+  </si>
+  <si>
+    <t>06-15 22:16</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307404885/</t>
+  </si>
+  <si>
     <t>8号线杨思【小整租】独卫独厨 民用水电 地铁五分钟 3000 押一付一 精装拎包入住 房东直签 随时看房</t>
   </si>
   <si>
@@ -118,6 +145,18 @@
     <t>https://www.douban.com/group/topic/307239290/</t>
   </si>
   <si>
+    <t>06-15 22:51</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307406736/</t>
+  </si>
+  <si>
+    <t>06-15 22:19</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307405007/</t>
+  </si>
+  <si>
     <t>06-15 21:11</t>
   </si>
   <si>
@@ -218,6 +257,15 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/306102923/</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307406758/</t>
+  </si>
+  <si>
+    <t>06-15 22:20</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307405071/</t>
   </si>
   <si>
     <t>06-07 10:59</t>
@@ -568,7 +616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -614,298 +662,145 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="75.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -923,14 +818,16 @@
     <hyperlink ref="C12" r:id="rId11"/>
     <hyperlink ref="C13" r:id="rId12"/>
     <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -952,7 +849,244 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId15"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="75.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -983,13 +1117,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,24 @@
     <t>链接</t>
   </si>
   <si>
+    <t>整租永和二村一居室，精装修，1楼带院子，独厨独卫，领包入住，看房v：13276927528</t>
+  </si>
+  <si>
+    <t>06-16 10:18</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307420235/</t>
+  </si>
+  <si>
+    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-16 09:24</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307418593/</t>
+  </si>
+  <si>
     <t>租客转租:1号线，共康路，通河新村，通河七村，朝南，独厨独卫2户合租，房租3000，精装修联系方式19532376978</t>
   </si>
   <si>
@@ -62,9 +80,6 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307401372/</t>
-  </si>
-  <si>
-    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
   </si>
   <si>
     <t>06-15 21:00</t>
@@ -616,7 +631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -695,51 +710,51 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -750,7 +765,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -772,7 +787,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -794,13 +809,35 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -820,6 +857,8 @@
     <hyperlink ref="C14" r:id="rId13"/>
     <hyperlink ref="C15" r:id="rId14"/>
     <hyperlink ref="C16" r:id="rId15"/>
+    <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="C18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -851,167 +890,167 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1062,24 +1101,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1117,13 +1156,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="95">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,15 @@
     <t>链接</t>
   </si>
   <si>
+    <t>11号线三林站 直达徐家汇 小整租 独卫独厨 3000民用水电 押一付一 可以短租</t>
+  </si>
+  <si>
+    <t>06-16 11:20</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307422590/</t>
+  </si>
+  <si>
     <t>整租永和二村一居室，精装修，1楼带院子，独厨独卫，领包入住，看房v：13276927528</t>
   </si>
   <si>
@@ -158,6 +167,12 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307239290/</t>
+  </si>
+  <si>
+    <t>06-16 11:21</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307422636/</t>
   </si>
   <si>
     <t>06-15 22:51</t>
@@ -631,7 +646,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -721,62 +736,62 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -787,18 +802,18 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -809,18 +824,18 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
@@ -838,6 +853,17 @@
       </c>
       <c r="C18" s="1" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -859,6 +885,7 @@
     <hyperlink ref="C16" r:id="rId15"/>
     <hyperlink ref="C17" r:id="rId16"/>
     <hyperlink ref="C18" r:id="rId17"/>
+    <hyperlink ref="C19" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -866,7 +893,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -890,167 +917,178 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1070,6 +1108,7 @@
     <hyperlink ref="C14" r:id="rId13"/>
     <hyperlink ref="C15" r:id="rId14"/>
     <hyperlink ref="C16" r:id="rId15"/>
+    <hyperlink ref="C17" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1101,24 +1140,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1156,13 +1195,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="101">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,30 @@
     <t>链接</t>
   </si>
   <si>
+    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-16 15:41</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307433234/</t>
+  </si>
+  <si>
+    <t>浦东2/6/7/11/13/18号地铁沿线，房东直租单间独卫、主卧独卫、独立厨卫一室户、整租两房、三房，可押一付一，可办理居住证</t>
+  </si>
+  <si>
+    <t>06-16 15:39</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307433165/</t>
+  </si>
+  <si>
+    <t>06-16 14:08</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307429364/</t>
+  </si>
+  <si>
     <t>11号线三林站 直达徐家汇 小整租 独卫独厨 3000民用水电 押一付一 可以短租</t>
   </si>
   <si>
@@ -46,9 +70,6 @@
     <t>https://www.douban.com/group/topic/307420235/</t>
   </si>
   <si>
-    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
-  </si>
-  <si>
     <t>06-16 09:24</t>
   </si>
   <si>
@@ -101,9 +122,6 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307393061/</t>
-  </si>
-  <si>
-    <t>浦东2/6/7/11/13/18号地铁沿线，房东直租单间独卫、主卧独卫、独立厨卫一室户、整租两房、三房，可押一付一，可办理居住证</t>
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307393042/</t>
@@ -646,7 +664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -692,73 +710,73 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -772,98 +790,131 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -886,6 +937,9 @@
     <hyperlink ref="C17" r:id="rId16"/>
     <hyperlink ref="C18" r:id="rId17"/>
     <hyperlink ref="C19" r:id="rId18"/>
+    <hyperlink ref="C20" r:id="rId19"/>
+    <hyperlink ref="C21" r:id="rId20"/>
+    <hyperlink ref="C22" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -917,178 +971,178 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1140,24 +1194,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1195,13 +1249,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="103">
   <si>
     <t>标题</t>
   </si>
@@ -314,6 +314,12 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307405071/</t>
+  </si>
+  <si>
+    <t>06-16 16:58</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307436393/</t>
   </si>
   <si>
     <t>06-07 10:59</t>
@@ -1225,7 +1231,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1258,9 +1264,21 @@
         <v>100</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="108">
   <si>
     <t>标题</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-16 19:33</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307443370/</t>
+  </si>
+  <si>
+    <t>6号线上南站 11号线三林站 双线地铁口小整租独立一室户独厨独卫 3280月</t>
+  </si>
+  <si>
+    <t>06-16 18:56</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307441605/</t>
   </si>
   <si>
     <t>06-16 15:41</t>
@@ -670,7 +685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -738,18 +753,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -771,40 +786,40 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -815,51 +830,51 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
@@ -914,13 +929,35 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
         <v>53</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -946,6 +983,8 @@
     <hyperlink ref="C20" r:id="rId19"/>
     <hyperlink ref="C21" r:id="rId20"/>
     <hyperlink ref="C22" r:id="rId21"/>
+    <hyperlink ref="C23" r:id="rId22"/>
+    <hyperlink ref="C24" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -977,57 +1016,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1035,65 +1074,65 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1101,54 +1140,54 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1200,24 +1239,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1255,24 +1294,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,15 @@
     <t>链接</t>
   </si>
   <si>
+    <t>8号线杨思【小整租】独卫独厨 燃气做饭 民用水电 押一付一 可以办居住证 3100 地铁五分钟 房东直签</t>
+  </si>
+  <si>
+    <t>06-16 22:29</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307452342/</t>
+  </si>
+  <si>
     <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
   </si>
   <si>
@@ -200,6 +209,9 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307239290/</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307452371/</t>
   </si>
   <si>
     <t>06-16 11:21</t>
@@ -685,7 +697,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -731,18 +743,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -753,18 +765,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -786,18 +798,18 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -841,62 +853,62 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -907,18 +919,18 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>51</v>
@@ -929,18 +941,18 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
@@ -958,6 +970,17 @@
       </c>
       <c r="C24" s="1" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -985,6 +1008,7 @@
     <hyperlink ref="C22" r:id="rId21"/>
     <hyperlink ref="C23" r:id="rId22"/>
     <hyperlink ref="C24" r:id="rId23"/>
+    <hyperlink ref="C25" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -992,7 +1016,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1016,178 +1040,189 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1208,6 +1243,7 @@
     <hyperlink ref="C15" r:id="rId14"/>
     <hyperlink ref="C16" r:id="rId15"/>
     <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="C18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1239,24 +1275,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1294,24 +1330,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="114">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,15 @@
     <t>链接</t>
   </si>
   <si>
+    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-17 00:09</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307457305/</t>
+  </si>
+  <si>
     <t>8号线杨思【小整租】独卫独厨 燃气做饭 民用水电 押一付一 可以办居住证 3100 地铁五分钟 房东直签</t>
   </si>
   <si>
@@ -35,9 +44,6 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307452342/</t>
-  </si>
-  <si>
-    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
   </si>
   <si>
     <t>06-16 19:33</t>
@@ -697,7 +703,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -743,18 +749,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -765,18 +771,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -787,29 +793,29 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -820,51 +826,51 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
@@ -875,7 +881,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
@@ -886,21 +892,21 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>45</v>
@@ -908,7 +914,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -919,18 +925,18 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
         <v>51</v>
@@ -941,18 +947,18 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
         <v>53</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
@@ -963,24 +969,35 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
         <v>58</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
         <v>61</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1009,6 +1026,7 @@
     <hyperlink ref="C23" r:id="rId22"/>
     <hyperlink ref="C24" r:id="rId23"/>
     <hyperlink ref="C25" r:id="rId24"/>
+    <hyperlink ref="C26" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1040,189 +1058,189 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1275,24 +1293,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1330,24 +1348,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="119">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,15 @@
     <t>链接</t>
   </si>
   <si>
+    <t>8号线杨思 个人转租 【小整租】独卫独厨 押一付一 3200包水费网费 无中介 随时看房</t>
+  </si>
+  <si>
+    <t>06-17 08:15</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307462106/</t>
+  </si>
+  <si>
     <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
   </si>
   <si>
@@ -215,6 +224,12 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307239290/</t>
+  </si>
+  <si>
+    <t>06-17 08:16</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307462119/</t>
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307452371/</t>
@@ -703,7 +718,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -749,18 +764,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -771,18 +786,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -793,18 +808,18 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -826,18 +841,18 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -881,62 +896,62 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>51</v>
@@ -947,18 +962,18 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
@@ -969,18 +984,18 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
         <v>61</v>
@@ -998,6 +1013,17 @@
       </c>
       <c r="C26" s="1" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1027,6 +1053,7 @@
     <hyperlink ref="C24" r:id="rId23"/>
     <hyperlink ref="C25" r:id="rId24"/>
     <hyperlink ref="C26" r:id="rId25"/>
+    <hyperlink ref="C27" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1034,7 +1061,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1058,189 +1085,200 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1262,6 +1300,7 @@
     <hyperlink ref="C16" r:id="rId15"/>
     <hyperlink ref="C17" r:id="rId16"/>
     <hyperlink ref="C18" r:id="rId17"/>
+    <hyperlink ref="C19" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1293,24 +1332,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1348,24 +1387,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="121">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,15 @@
     <t>链接</t>
   </si>
   <si>
+    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-17 09:51</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307464184/</t>
+  </si>
+  <si>
     <t>8号线杨思 个人转租 【小整租】独卫独厨 押一付一 3200包水费网费 无中介 随时看房</t>
   </si>
   <si>
@@ -35,9 +44,6 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307462106/</t>
-  </si>
-  <si>
-    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
   </si>
   <si>
     <t>06-17 00:09</t>
@@ -718,7 +724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -764,18 +770,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -786,18 +792,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -808,18 +814,18 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -830,29 +836,29 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -863,51 +869,51 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
         <v>41</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
         <v>44</v>
@@ -918,7 +924,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
         <v>46</v>
@@ -929,21 +935,21 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>50</v>
@@ -951,7 +957,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>51</v>
@@ -962,18 +968,18 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
         <v>53</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
@@ -984,18 +990,18 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
         <v>58</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
         <v>61</v>
@@ -1006,24 +1012,35 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
         <v>63</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
         <v>66</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1054,6 +1071,7 @@
     <hyperlink ref="C25" r:id="rId24"/>
     <hyperlink ref="C26" r:id="rId25"/>
     <hyperlink ref="C27" r:id="rId26"/>
+    <hyperlink ref="C28" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1085,200 +1103,200 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1332,24 +1350,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1387,24 +1405,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="129">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,24 @@
     <t>链接</t>
   </si>
   <si>
+    <t>11号线三林，房东直租【小整租】独立一室户，天燃气厨房独卫，民用水电气，步行距离5分钟，压一付一3100</t>
+  </si>
+  <si>
+    <t>06-17 11:56</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307469161/</t>
+  </si>
+  <si>
+    <t>6号线高青路站【小整租】独卫独厨3000 押一付一 房东直签</t>
+  </si>
+  <si>
+    <t>06-17 11:11</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307467383/</t>
+  </si>
+  <si>
     <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
   </si>
   <si>
@@ -232,6 +250,15 @@
     <t>https://www.douban.com/group/topic/307239290/</t>
   </si>
   <si>
+    <t>8号线杨思地铁站，房东直租，电梯房小区，整租独立一室户，近地铁口，燃气厨房独卫，好晾晒，月付3080</t>
+  </si>
+  <si>
+    <t>06-17 12:00</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307469305/</t>
+  </si>
+  <si>
     <t>06-17 08:16</t>
   </si>
   <si>
@@ -323,9 +350,6 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307243635/</t>
-  </si>
-  <si>
-    <t>6号线高青路站【小整租】独卫独厨3000 押一付一 房东直签</t>
   </si>
   <si>
     <t>06-12 11:32</t>
@@ -724,7 +748,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -770,95 +794,95 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -869,29 +893,29 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
@@ -924,123 +948,145 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
         <v>69</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1072,6 +1118,8 @@
     <hyperlink ref="C26" r:id="rId25"/>
     <hyperlink ref="C27" r:id="rId26"/>
     <hyperlink ref="C28" r:id="rId27"/>
+    <hyperlink ref="C29" r:id="rId28"/>
+    <hyperlink ref="C30" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1079,7 +1127,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1103,200 +1151,211 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1319,6 +1378,7 @@
     <hyperlink ref="C17" r:id="rId16"/>
     <hyperlink ref="C18" r:id="rId17"/>
     <hyperlink ref="C19" r:id="rId18"/>
+    <hyperlink ref="C20" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1350,24 +1410,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1405,24 +1465,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="133">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,15 @@
     <t>链接</t>
   </si>
   <si>
+    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-17 12:27</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307470271/</t>
+  </si>
+  <si>
     <t>11号线三林，房东直租【小整租】独立一室户，天燃气厨房独卫，民用水电气，步行距离5分钟，压一付一3100</t>
   </si>
   <si>
@@ -46,9 +55,6 @@
     <t>https://www.douban.com/group/topic/307467383/</t>
   </si>
   <si>
-    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
-  </si>
-  <si>
     <t>06-17 09:51</t>
   </si>
   <si>
@@ -248,6 +254,12 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307239290/</t>
+  </si>
+  <si>
+    <t>06-17 12:32</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307470458/</t>
   </si>
   <si>
     <t>8号线杨思地铁站，房东直租，电梯房小区，整租独立一室户，近地铁口，燃气厨房独卫，好晾晒，月付3080</t>
@@ -748,7 +760,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -805,18 +817,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -827,18 +839,18 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -849,18 +861,18 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -871,18 +883,18 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -893,29 +905,29 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
@@ -926,51 +938,51 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
         <v>49</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -981,7 +993,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
         <v>54</v>
@@ -992,21 +1004,21 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>58</v>
@@ -1014,7 +1026,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
         <v>59</v>
@@ -1025,18 +1037,18 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
         <v>61</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
         <v>64</v>
@@ -1047,18 +1059,18 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
         <v>66</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
         <v>69</v>
@@ -1069,24 +1081,35 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
         <v>71</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
         <v>74</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
         <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1120,6 +1143,7 @@
     <hyperlink ref="C28" r:id="rId27"/>
     <hyperlink ref="C29" r:id="rId28"/>
     <hyperlink ref="C30" r:id="rId29"/>
+    <hyperlink ref="C31" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1127,7 +1151,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1151,211 +1175,222 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1379,6 +1414,7 @@
     <hyperlink ref="C18" r:id="rId17"/>
     <hyperlink ref="C19" r:id="rId18"/>
     <hyperlink ref="C20" r:id="rId19"/>
+    <hyperlink ref="C21" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1410,24 +1446,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1465,24 +1501,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="136">
   <si>
     <t>标题</t>
   </si>
@@ -28,9 +28,21 @@
     <t>链接</t>
   </si>
   <si>
+    <t>浦东2/6/7/11/13/18号地铁沿线，房东直租单间独卫、主卧独卫、独立厨卫一室户、整租两房、三房，可押一付一，可办理居住证</t>
+  </si>
+  <si>
+    <t>06-17 15:50</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307477760/</t>
+  </si>
+  <si>
     <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
   </si>
   <si>
+    <t>https://www.douban.com/group/topic/307477739/</t>
+  </si>
+  <si>
     <t>06-17 12:27</t>
   </si>
   <si>
@@ -104,9 +116,6 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307433234/</t>
-  </si>
-  <si>
-    <t>浦东2/6/7/11/13/18号地铁沿线，房东直租单间独卫、主卧独卫、独立厨卫一室户、整租两房、三房，可押一付一，可办理居住证</t>
   </si>
   <si>
     <t>06-16 15:39</t>
@@ -760,7 +769,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -798,227 +807,227 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>58</v>
@@ -1026,7 +1035,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
         <v>59</v>
@@ -1040,76 +1049,98 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
         <v>76</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1144,6 +1175,8 @@
     <hyperlink ref="C29" r:id="rId28"/>
     <hyperlink ref="C30" r:id="rId29"/>
     <hyperlink ref="C31" r:id="rId30"/>
+    <hyperlink ref="C32" r:id="rId31"/>
+    <hyperlink ref="C33" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1175,222 +1208,222 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1446,24 +1479,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1501,24 +1534,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="138">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,15 @@
     <t>链接</t>
   </si>
   <si>
+    <t>整租8号线杨思【小整租】独卫独厨 押一付一 3200 包网费水费 地铁五分钟 房东直签</t>
+  </si>
+  <si>
+    <t>06-17 17:08</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307481068/</t>
+  </si>
+  <si>
     <t>浦东2/6/7/11/13/18号地铁沿线，房东直租单间独卫、主卧独卫、独立厨卫一室户、整租两房、三房，可押一付一，可办理居住证</t>
   </si>
   <si>
@@ -386,9 +395,6 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307216580/</t>
-  </si>
-  <si>
-    <t>整租8号线杨思【小整租】独卫独厨 押一付一 3200 包网费水费 地铁五分钟 房东直签</t>
   </si>
   <si>
     <t>06-11 20:54</t>
@@ -769,7 +775,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -807,26 +813,26 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -848,18 +854,18 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -870,18 +876,18 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -892,18 +898,18 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -914,24 +920,24 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -939,15 +945,15 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
@@ -969,18 +975,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -1024,46 +1030,46 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1071,15 +1077,15 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
         <v>67</v>
@@ -1090,18 +1096,18 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
         <v>72</v>
@@ -1112,18 +1118,18 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
         <v>77</v>
@@ -1141,6 +1147,17 @@
       </c>
       <c r="C33" s="1" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1177,6 +1194,7 @@
     <hyperlink ref="C31" r:id="rId30"/>
     <hyperlink ref="C32" r:id="rId31"/>
     <hyperlink ref="C33" r:id="rId32"/>
+    <hyperlink ref="C34" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1208,222 +1226,222 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1479,24 +1497,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1534,24 +1552,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="142">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,15 @@
     <t>链接</t>
   </si>
   <si>
+    <t>临近前滩 6/8/11号线东方体育中心 小整租 独卫独厨 2900每月 民用水电 押一付一 房东直签</t>
+  </si>
+  <si>
+    <t>06-17 20:52</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307491078/</t>
+  </si>
+  <si>
     <t>整租8号线杨思【小整租】独卫独厨 押一付一 3200 包网费水费 地铁五分钟 房东直签</t>
   </si>
   <si>
@@ -272,6 +281,9 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307239290/</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307491099/</t>
   </si>
   <si>
     <t>06-17 12:32</t>
@@ -775,7 +787,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -824,26 +836,26 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -865,18 +877,18 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -887,18 +899,18 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -909,18 +921,18 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -931,24 +943,24 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -956,15 +968,15 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
@@ -986,18 +998,18 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
@@ -1041,46 +1053,46 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1088,15 +1100,15 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
         <v>70</v>
@@ -1107,18 +1119,18 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
         <v>75</v>
@@ -1129,18 +1141,18 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
         <v>80</v>
@@ -1158,6 +1170,17 @@
       </c>
       <c r="C34" s="1" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1195,6 +1218,7 @@
     <hyperlink ref="C32" r:id="rId31"/>
     <hyperlink ref="C33" r:id="rId32"/>
     <hyperlink ref="C34" r:id="rId33"/>
+    <hyperlink ref="C35" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1202,7 +1226,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1226,222 +1250,233 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1466,6 +1501,7 @@
     <hyperlink ref="C19" r:id="rId18"/>
     <hyperlink ref="C20" r:id="rId19"/>
     <hyperlink ref="C21" r:id="rId20"/>
+    <hyperlink ref="C22" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1497,24 +1533,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1552,24 +1588,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="144">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,15 @@
     <t>链接</t>
   </si>
   <si>
+    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-18 00:13</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307502075/</t>
+  </si>
+  <si>
     <t>临近前滩 6/8/11号线东方体育中心 小整租 独卫独厨 2900每月 民用水电 押一付一 房东直签</t>
   </si>
   <si>
@@ -53,9 +62,6 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307477760/</t>
-  </si>
-  <si>
-    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307477739/</t>
@@ -787,7 +793,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -847,18 +853,18 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -866,29 +872,29 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -899,18 +905,18 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -921,18 +927,18 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -943,18 +949,18 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -965,7 +971,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
@@ -987,29 +993,29 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
         <v>46</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
@@ -1020,51 +1026,51 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
         <v>60</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
         <v>63</v>
@@ -1075,7 +1081,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
         <v>65</v>
@@ -1086,21 +1092,21 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>69</v>
@@ -1119,18 +1125,18 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
         <v>72</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
         <v>75</v>
@@ -1141,18 +1147,18 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
         <v>77</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
         <v>80</v>
@@ -1163,24 +1169,35 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
         <v>82</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
         <v>85</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="1" t="s">
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
         <v>87</v>
+      </c>
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1219,6 +1236,7 @@
     <hyperlink ref="C33" r:id="rId32"/>
     <hyperlink ref="C34" r:id="rId33"/>
     <hyperlink ref="C35" r:id="rId34"/>
+    <hyperlink ref="C36" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1250,233 +1268,233 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1533,24 +1551,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1588,24 +1606,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="146">
   <si>
     <t>标题</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-18 10:04</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307509970/</t>
   </si>
   <si>
     <t>06-18 00:13</t>
@@ -793,7 +799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -828,46 +834,46 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -875,7 +881,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
@@ -883,29 +889,29 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -916,18 +922,18 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -938,18 +944,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -960,18 +966,18 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
@@ -982,7 +988,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
@@ -993,7 +999,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
@@ -1004,29 +1010,29 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
         <v>51</v>
@@ -1037,51 +1043,51 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
         <v>53</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
         <v>56</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
         <v>59</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
         <v>62</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
         <v>65</v>
@@ -1103,21 +1109,21 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>71</v>
@@ -1125,7 +1131,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
         <v>72</v>
@@ -1136,18 +1142,18 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
         <v>74</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
         <v>77</v>
@@ -1158,18 +1164,18 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
         <v>79</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
         <v>82</v>
@@ -1180,24 +1186,35 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
         <v>84</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
         <v>87</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="1" t="s">
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
         <v>89</v>
+      </c>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1237,6 +1254,7 @@
     <hyperlink ref="C34" r:id="rId33"/>
     <hyperlink ref="C35" r:id="rId34"/>
     <hyperlink ref="C36" r:id="rId35"/>
+    <hyperlink ref="C37" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1268,13 +1286,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1282,98 +1300,98 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1381,65 +1399,65 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1447,54 +1465,54 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1551,24 +1569,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1606,24 +1624,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="148">
   <si>
     <t>标题</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-18 14:28</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307521408/</t>
   </si>
   <si>
     <t>06-18 10:04</t>
@@ -799,7 +805,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -845,46 +851,46 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -892,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
@@ -900,29 +906,29 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -933,18 +939,18 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -955,18 +961,18 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
@@ -977,18 +983,18 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
@@ -999,7 +1005,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
@@ -1010,7 +1016,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>45</v>
@@ -1021,29 +1027,29 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
         <v>53</v>
@@ -1054,51 +1060,51 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
         <v>55</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
         <v>58</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
         <v>61</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
         <v>64</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
         <v>67</v>
@@ -1120,21 +1126,21 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>73</v>
@@ -1142,7 +1148,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
         <v>74</v>
@@ -1153,18 +1159,18 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
         <v>76</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s">
         <v>79</v>
@@ -1175,18 +1181,18 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
         <v>81</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
         <v>84</v>
@@ -1197,24 +1203,35 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
         <v>86</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" t="s">
         <v>89</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="1" t="s">
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
         <v>91</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1255,6 +1272,7 @@
     <hyperlink ref="C35" r:id="rId34"/>
     <hyperlink ref="C36" r:id="rId35"/>
     <hyperlink ref="C37" r:id="rId36"/>
+    <hyperlink ref="C38" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1286,13 +1304,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1300,98 +1318,98 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1399,65 +1417,65 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1465,54 +1483,54 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1569,24 +1587,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1624,24 +1642,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="169">
   <si>
     <t>标题</t>
   </si>
@@ -28,9 +28,51 @@
     <t>链接</t>
   </si>
   <si>
+    <t>11号线三林站 直达徐家汇 小整租 独卫独厨 2800 民用水电 押一付一 可办居住证 可以短租</t>
+  </si>
+  <si>
+    <t>06-18 19:53</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307534373/</t>
+  </si>
+  <si>
+    <t>整租8号线杨思【小整租】独卫独厨 押一付一 3200 包网费水费 地铁五分钟 房东直签</t>
+  </si>
+  <si>
+    <t>06-18 19:11</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307532663/</t>
+  </si>
+  <si>
+    <t>6号线上南站 11号线三林站 双线地铁口小整租独立一室户独厨独卫 3300月</t>
+  </si>
+  <si>
+    <t>06-18 19:08</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307532493/</t>
+  </si>
+  <si>
+    <t>浦东2/6/7/11/13/18号地铁沿线，房东直租单间独卫、主卧独卫、独立厨卫一室户、整租两房、三房，可押一付一，可办理居住证</t>
+  </si>
+  <si>
+    <t>06-18 18:07</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307530151/</t>
+  </si>
+  <si>
     <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
   </si>
   <si>
+    <t>06-18 18:05</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307530086/</t>
+  </si>
+  <si>
     <t>06-18 14:28</t>
   </si>
   <si>
@@ -58,18 +100,12 @@
     <t>https://www.douban.com/group/topic/307491078/</t>
   </si>
   <si>
-    <t>整租8号线杨思【小整租】独卫独厨 押一付一 3200 包网费水费 地铁五分钟 房东直签</t>
-  </si>
-  <si>
     <t>06-17 17:08</t>
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307481068/</t>
   </si>
   <si>
-    <t>浦东2/6/7/11/13/18号地铁沿线，房东直租单间独卫、主卧独卫、独立厨卫一室户、整租两房、三房，可押一付一，可办理居住证</t>
-  </si>
-  <si>
     <t>06-17 15:50</t>
   </si>
   <si>
@@ -301,6 +337,30 @@
     <t>https://www.douban.com/group/topic/307239290/</t>
   </si>
   <si>
+    <t>06-18 19:58</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307534618/</t>
+  </si>
+  <si>
+    <t>一号线宝山区 静安区 整租一房 整租二房 整租三房 合租一室户 合租单间独卫独厨 合租单间独卫 合租小单间都有房源</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307534599/</t>
+  </si>
+  <si>
+    <t>06-18 19:54</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307534438/</t>
+  </si>
+  <si>
+    <t>06-18 19:09</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307532575/</t>
+  </si>
+  <si>
     <t>https://www.douban.com/group/topic/307491099/</t>
   </si>
   <si>
@@ -440,6 +500,9 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/306102923/</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307532551/</t>
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307406758/</t>
@@ -805,7 +868,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -840,150 +903,150 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
@@ -994,18 +1057,18 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
@@ -1016,7 +1079,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>45</v>
@@ -1027,18 +1090,18 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
@@ -1060,7 +1123,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
         <v>55</v>
@@ -1071,131 +1134,131 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
         <v>57</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
         <v>83</v>
-      </c>
-      <c r="B35" t="s">
-        <v>84</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>85</v>
@@ -1203,7 +1266,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
         <v>86</v>
@@ -1214,24 +1277,79 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
         <v>88</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" t="s">
         <v>91</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="1" t="s">
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
         <v>93</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1273,6 +1391,11 @@
     <hyperlink ref="C36" r:id="rId35"/>
     <hyperlink ref="C37" r:id="rId36"/>
     <hyperlink ref="C38" r:id="rId37"/>
+    <hyperlink ref="C39" r:id="rId38"/>
+    <hyperlink ref="C40" r:id="rId39"/>
+    <hyperlink ref="C41" r:id="rId40"/>
+    <hyperlink ref="C42" r:id="rId41"/>
+    <hyperlink ref="C43" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1280,7 +1403,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1304,233 +1427,277 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1556,6 +1723,10 @@
     <hyperlink ref="C20" r:id="rId19"/>
     <hyperlink ref="C21" r:id="rId20"/>
     <hyperlink ref="C22" r:id="rId21"/>
+    <hyperlink ref="C23" r:id="rId22"/>
+    <hyperlink ref="C24" r:id="rId23"/>
+    <hyperlink ref="C25" r:id="rId24"/>
+    <hyperlink ref="C26" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1563,7 +1734,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1587,30 +1758,42 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1642,24 +1825,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="178">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,24 @@
     <t>链接</t>
   </si>
   <si>
+    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-18 22:33</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307542218/</t>
+  </si>
+  <si>
+    <t>临近前滩6/8/11号线东方体育中心【小整租】独卫独厨一室户 押一付一 3100 可办居住证 民用水电 房东直签 随时看房</t>
+  </si>
+  <si>
+    <t>06-18 22:14</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307541295/</t>
+  </si>
+  <si>
     <t>11号线三林站 直达徐家汇 小整租 独卫独厨 2800 民用水电 押一付一 可办居住证 可以短租</t>
   </si>
   <si>
@@ -64,9 +82,6 @@
     <t>https://www.douban.com/group/topic/307530151/</t>
   </si>
   <si>
-    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
-  </si>
-  <si>
     <t>06-18 18:05</t>
   </si>
   <si>
@@ -335,6 +350,18 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307239290/</t>
+  </si>
+  <si>
+    <t>06-18 23:04</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307543769/</t>
+  </si>
+  <si>
+    <t>06-18 22:16</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307541383/</t>
   </si>
   <si>
     <t>06-18 19:58</t>
@@ -868,7 +895,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -947,40 +974,40 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -991,7 +1018,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -1002,43 +1029,43 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
         <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>36</v>
@@ -1046,18 +1073,18 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
         <v>37</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
@@ -1079,7 +1106,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
         <v>45</v>
@@ -1101,7 +1128,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
@@ -1123,7 +1150,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
         <v>55</v>
@@ -1134,29 +1161,29 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
         <v>62</v>
@@ -1167,18 +1194,18 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
         <v>64</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
         <v>67</v>
@@ -1200,40 +1227,40 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
         <v>72</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
         <v>75</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
         <v>78</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
         <v>81</v>
@@ -1244,51 +1271,51 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
         <v>88</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
         <v>91</v>
@@ -1299,7 +1326,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
         <v>93</v>
@@ -1321,7 +1348,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
         <v>98</v>
@@ -1343,13 +1370,35 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
         <v>103</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="1" t="s">
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
         <v>105</v>
+      </c>
+      <c r="B44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1396,6 +1445,8 @@
     <hyperlink ref="C41" r:id="rId40"/>
     <hyperlink ref="C42" r:id="rId41"/>
     <hyperlink ref="C43" r:id="rId42"/>
+    <hyperlink ref="C44" r:id="rId43"/>
+    <hyperlink ref="C45" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1403,7 +1454,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1427,24 +1478,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1452,32 +1503,32 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1485,109 +1536,109 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1595,109 +1646,131 @@
         <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="B22" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1727,6 +1800,8 @@
     <hyperlink ref="C24" r:id="rId23"/>
     <hyperlink ref="C25" r:id="rId24"/>
     <hyperlink ref="C26" r:id="rId25"/>
+    <hyperlink ref="C27" r:id="rId26"/>
+    <hyperlink ref="C28" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1758,35 +1833,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1825,24 +1900,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="180">
   <si>
     <t>标题</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-19 08:52</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307552275/</t>
   </si>
   <si>
     <t>06-18 22:33</t>
@@ -895,7 +901,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -930,62 +936,62 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1029,18 +1035,18 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -1051,7 +1057,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -1062,13 +1068,13 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1076,7 +1082,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>38</v>
@@ -1084,29 +1090,29 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
         <v>42</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
         <v>45</v>
@@ -1117,18 +1123,18 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
@@ -1139,18 +1145,18 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
         <v>55</v>
@@ -1161,18 +1167,18 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
         <v>57</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
         <v>60</v>
@@ -1183,7 +1189,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
         <v>62</v>
@@ -1194,7 +1200,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
         <v>64</v>
@@ -1205,29 +1211,29 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
         <v>66</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
         <v>69</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
         <v>72</v>
@@ -1238,51 +1244,51 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
         <v>74</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
         <v>77</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" t="s">
         <v>80</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
         <v>83</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
         <v>86</v>
@@ -1304,21 +1310,21 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>92</v>
@@ -1326,7 +1332,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
         <v>93</v>
@@ -1337,18 +1343,18 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
         <v>95</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="B41" t="s">
         <v>98</v>
@@ -1359,18 +1365,18 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
         <v>100</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="B43" t="s">
         <v>103</v>
@@ -1381,24 +1387,35 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
         <v>105</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" t="s">
         <v>108</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="1" t="s">
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
         <v>110</v>
+      </c>
+      <c r="B46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1447,6 +1464,7 @@
     <hyperlink ref="C43" r:id="rId42"/>
     <hyperlink ref="C44" r:id="rId43"/>
     <hyperlink ref="C45" r:id="rId44"/>
+    <hyperlink ref="C46" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1478,24 +1496,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1503,54 +1521,54 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
         <v>117</v>
       </c>
-      <c r="B5" t="s">
-        <v>115</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1558,98 +1576,98 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1657,65 +1675,65 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1723,54 +1741,54 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1833,35 +1851,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1900,24 +1918,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="191">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,24 @@
     <t>链接</t>
   </si>
   <si>
+    <t>8号线杨思【小整租】独卫独厨 3200押一付一 民用水电 可办居住证 房东直签</t>
+  </si>
+  <si>
+    <t>06-19 11:39</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307558341/</t>
+  </si>
+  <si>
+    <t>6号线上南站 11号线三林站 双线地铁口小整租独立一室户独厨独卫 3380月</t>
+  </si>
+  <si>
+    <t>06-19 10:49</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307556181/</t>
+  </si>
+  <si>
     <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
   </si>
   <si>
@@ -358,6 +376,18 @@
     <t>https://www.douban.com/group/topic/307239290/</t>
   </si>
   <si>
+    <t>06-19 11:40</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307558380/</t>
+  </si>
+  <si>
+    <t>06-19 10:52</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307556297/</t>
+  </si>
+  <si>
     <t>06-18 23:04</t>
   </si>
   <si>
@@ -472,9 +502,6 @@
     <t>https://www.douban.com/group/topic/307300857/</t>
   </si>
   <si>
-    <t>8号线杨思【小整租】独卫独厨 3200押一付一 民用水电 可办居住证 房东直签</t>
-  </si>
-  <si>
     <t>06-13 11:03</t>
   </si>
   <si>
@@ -533,6 +560,12 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/306102923/</t>
+  </si>
+  <si>
+    <t>06-19 10:50</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307556228/</t>
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307532551/</t>
@@ -901,7 +934,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -936,29 +969,29 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1002,117 +1035,117 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
         <v>45</v>
@@ -1123,117 +1156,117 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
         <v>72</v>
@@ -1244,29 +1277,29 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
         <v>80</v>
@@ -1299,123 +1332,145 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
         <v>111</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1465,6 +1520,8 @@
     <hyperlink ref="C44" r:id="rId43"/>
     <hyperlink ref="C45" r:id="rId44"/>
     <hyperlink ref="C46" r:id="rId45"/>
+    <hyperlink ref="C47" r:id="rId46"/>
+    <hyperlink ref="C48" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1472,7 +1529,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1496,299 +1553,321 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1820,6 +1899,8 @@
     <hyperlink ref="C26" r:id="rId25"/>
     <hyperlink ref="C27" r:id="rId26"/>
     <hyperlink ref="C28" r:id="rId27"/>
+    <hyperlink ref="C29" r:id="rId28"/>
+    <hyperlink ref="C30" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1827,7 +1908,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1851,35 +1932,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>175</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1887,6 +1979,7 @@
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1918,24 +2011,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="201">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,33 @@
     <t>链接</t>
   </si>
   <si>
+    <t>整租单间独卫2300/月｜补贴400元｜10号线基隆路6号线航津路｜近产业园抖音哔哩得物</t>
+  </si>
+  <si>
+    <t>06-19 13:23</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307563062/</t>
+  </si>
+  <si>
+    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-19 12:48</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307561439/</t>
+  </si>
+  <si>
+    <t>浦东2/6/7/11/13/18号线单间独卫、主卧独卫、独立厨卫一室户、整租两房、三房，可押一付一，可办理居住证</t>
+  </si>
+  <si>
+    <t>06-19 12:14</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307559890/</t>
+  </si>
+  <si>
     <t>8号线杨思【小整租】独卫独厨 3200押一付一 民用水电 可办居住证 房东直签</t>
   </si>
   <si>
@@ -46,9 +73,6 @@
     <t>https://www.douban.com/group/topic/307556181/</t>
   </si>
   <si>
-    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
-  </si>
-  <si>
     <t>06-19 08:52</t>
   </si>
   <si>
@@ -578,6 +602,12 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307405071/</t>
+  </si>
+  <si>
+    <t>06-19 13:34</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307563550/</t>
   </si>
   <si>
     <t>06-16 16:58</t>
@@ -934,7 +964,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -991,29 +1021,29 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -1024,40 +1054,40 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -1068,109 +1098,109 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
         <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>52</v>
@@ -1178,7 +1208,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>53</v>
@@ -1200,18 +1230,18 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
         <v>61</v>
@@ -1222,18 +1252,18 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
         <v>66</v>
@@ -1244,51 +1274,51 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
         <v>78</v>
@@ -1299,7 +1329,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
         <v>80</v>
@@ -1332,29 +1362,29 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
         <v>88</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" t="s">
         <v>91</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
         <v>94</v>
@@ -1365,73 +1395,73 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
         <v>104</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
         <v>109</v>
@@ -1442,18 +1472,18 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
         <v>114</v>
@@ -1471,6 +1501,39 @@
       </c>
       <c r="C48" s="1" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1522,6 +1585,9 @@
     <hyperlink ref="C46" r:id="rId45"/>
     <hyperlink ref="C47" r:id="rId46"/>
     <hyperlink ref="C48" r:id="rId47"/>
+    <hyperlink ref="C49" r:id="rId48"/>
+    <hyperlink ref="C50" r:id="rId49"/>
+    <hyperlink ref="C51" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1553,321 +1619,321 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B28" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B30" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1932,46 +1998,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -1987,7 +2053,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2011,30 +2077,42 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="205">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,24 @@
     <t>链接</t>
   </si>
   <si>
+    <t>浦东2/6/7/11/13/18号地铁沿线，房东直租单间独卫、主卧独卫、独立厨卫一室户、整租两房、三房，可押一付一，可办理居住证</t>
+  </si>
+  <si>
+    <t>06-19 14:59</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307567318/</t>
+  </si>
+  <si>
+    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-19 14:58</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307567275/</t>
+  </si>
+  <si>
     <t>整租单间独卫2300/月｜补贴400元｜10号线基隆路6号线航津路｜近产业园抖音哔哩得物</t>
   </si>
   <si>
@@ -37,9 +55,6 @@
     <t>https://www.douban.com/group/topic/307563062/</t>
   </si>
   <si>
-    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
-  </si>
-  <si>
     <t>06-19 12:48</t>
   </si>
   <si>
@@ -119,9 +134,6 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307532493/</t>
-  </si>
-  <si>
-    <t>浦东2/6/7/11/13/18号地铁沿线，房东直租单间独卫、主卧独卫、独立厨卫一室户、整租两房、三房，可押一付一，可办理居住证</t>
   </si>
   <si>
     <t>06-18 18:07</t>
@@ -964,7 +976,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1021,29 +1033,29 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -1054,18 +1066,18 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -1076,51 +1088,51 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -1131,7 +1143,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
@@ -1164,29 +1176,29 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
         <v>45</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
@@ -1197,68 +1209,68 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
         <v>63</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1266,21 +1278,21 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
         <v>68</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1288,21 +1300,21 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
         <v>73</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1310,15 +1322,15 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
         <v>78</v>
@@ -1340,95 +1352,95 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
         <v>82</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" t="s">
         <v>90</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B38" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B42" t="s">
         <v>104</v>
@@ -1439,32 +1451,32 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>110</v>
@@ -1472,13 +1484,13 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
         <v>111</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1486,21 +1498,21 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" t="s">
         <v>116</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1508,32 +1520,54 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" t="s">
         <v>121</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B51" t="s">
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
         <v>125</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="B52" t="s">
         <v>126</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1588,6 +1622,8 @@
     <hyperlink ref="C49" r:id="rId48"/>
     <hyperlink ref="C50" r:id="rId49"/>
     <hyperlink ref="C51" r:id="rId50"/>
+    <hyperlink ref="C52" r:id="rId51"/>
+    <hyperlink ref="C53" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1619,46 +1655,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1666,54 +1702,54 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1721,98 +1757,98 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1820,65 +1856,65 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B24" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1886,54 +1922,54 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B28" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B30" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1998,46 +2034,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2077,35 +2113,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="207">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,15 @@
     <t>链接</t>
   </si>
   <si>
+    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-19 18:04</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307575418/</t>
+  </si>
+  <si>
     <t>浦东2/6/7/11/13/18号地铁沿线，房东直租单间独卫、主卧独卫、独立厨卫一室户、整租两房、三房，可押一付一，可办理居住证</t>
   </si>
   <si>
@@ -35,9 +44,6 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307567318/</t>
-  </si>
-  <si>
-    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
   </si>
   <si>
     <t>06-19 14:58</t>
@@ -976,7 +982,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1022,18 +1028,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1044,40 +1050,40 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -1088,7 +1094,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1099,51 +1105,51 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
@@ -1165,7 +1171,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -1176,7 +1182,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
@@ -1187,7 +1193,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
         <v>47</v>
@@ -1198,18 +1204,18 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -1220,7 +1226,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
@@ -1234,18 +1240,18 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>58</v>
@@ -1253,29 +1259,29 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
         <v>59</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
         <v>62</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
         <v>65</v>
@@ -1286,18 +1292,18 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
         <v>67</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
         <v>70</v>
@@ -1308,18 +1314,18 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
         <v>72</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
         <v>75</v>
@@ -1330,18 +1336,18 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
         <v>77</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
         <v>80</v>
@@ -1374,29 +1380,29 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
         <v>86</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" t="s">
         <v>89</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
         <v>92</v>
@@ -1407,51 +1413,51 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
         <v>94</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" t="s">
         <v>97</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" t="s">
         <v>100</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" t="s">
         <v>103</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="B43" t="s">
         <v>106</v>
@@ -1462,7 +1468,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
         <v>108</v>
@@ -1476,18 +1482,18 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>112</v>
@@ -1506,18 +1512,18 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
         <v>115</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="B49" t="s">
         <v>118</v>
@@ -1528,18 +1534,18 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
         <v>120</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="B51" t="s">
         <v>123</v>
@@ -1550,24 +1556,35 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
         <v>125</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" t="s">
         <v>128</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="1" t="s">
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
         <v>130</v>
+      </c>
+      <c r="B54" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1624,6 +1641,7 @@
     <hyperlink ref="C51" r:id="rId50"/>
     <hyperlink ref="C52" r:id="rId51"/>
     <hyperlink ref="C53" r:id="rId52"/>
+    <hyperlink ref="C54" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1655,321 +1673,321 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" t="s">
         <v>141</v>
       </c>
-      <c r="B7" t="s">
-        <v>139</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B28" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2034,46 +2052,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2113,35 +2131,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="209">
   <si>
     <t>标题</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-19 20:41</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307581417/</t>
   </si>
   <si>
     <t>06-19 18:04</t>
@@ -982,7 +988,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1017,18 +1023,18 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1039,18 +1045,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -1061,40 +1067,40 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1116,51 +1122,51 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
@@ -1171,7 +1177,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -1215,18 +1221,18 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
@@ -1237,7 +1243,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
@@ -1248,13 +1254,13 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1262,7 +1268,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>60</v>
@@ -1270,29 +1276,29 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
         <v>61</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
         <v>64</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
         <v>67</v>
@@ -1303,18 +1309,18 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
         <v>69</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
         <v>72</v>
@@ -1325,18 +1331,18 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
         <v>74</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
         <v>77</v>
@@ -1347,18 +1353,18 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
         <v>79</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
         <v>82</v>
@@ -1369,7 +1375,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
         <v>84</v>
@@ -1380,7 +1386,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
         <v>86</v>
@@ -1391,29 +1397,29 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
         <v>88</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" t="s">
         <v>91</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
         <v>94</v>
@@ -1424,51 +1430,51 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
         <v>96</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" t="s">
         <v>99</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" t="s">
         <v>102</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
         <v>105</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="B44" t="s">
         <v>108</v>
@@ -1490,21 +1496,21 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>114</v>
@@ -1512,7 +1518,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
         <v>115</v>
@@ -1523,18 +1529,18 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
         <v>117</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="B50" t="s">
         <v>120</v>
@@ -1545,18 +1551,18 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
         <v>122</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B52" t="s">
         <v>125</v>
@@ -1567,24 +1573,35 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
         <v>127</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" t="s">
         <v>130</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="1" t="s">
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
         <v>132</v>
+      </c>
+      <c r="B55" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1642,6 +1659,7 @@
     <hyperlink ref="C52" r:id="rId51"/>
     <hyperlink ref="C53" r:id="rId52"/>
     <hyperlink ref="C54" r:id="rId53"/>
+    <hyperlink ref="C55" r:id="rId54"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1673,46 +1691,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1720,54 +1738,54 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" t="s">
         <v>143</v>
       </c>
-      <c r="B7" t="s">
-        <v>141</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1775,98 +1793,98 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1874,65 +1892,65 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B24" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1940,54 +1958,54 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B28" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B30" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2052,46 +2070,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2131,35 +2149,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="211">
   <si>
     <t>标题</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-20 08:41</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307595018/</t>
   </si>
   <si>
     <t>06-19 20:41</t>
@@ -988,7 +994,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1034,18 +1040,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1056,18 +1062,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -1078,40 +1084,40 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -1133,51 +1139,51 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -1188,7 +1194,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
@@ -1232,18 +1238,18 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
         <v>53</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
@@ -1254,7 +1260,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
@@ -1265,13 +1271,13 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1279,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>62</v>
@@ -1287,29 +1293,29 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
         <v>63</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
         <v>66</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
         <v>69</v>
@@ -1320,18 +1326,18 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
         <v>71</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
         <v>74</v>
@@ -1342,18 +1348,18 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
         <v>76</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s">
         <v>79</v>
@@ -1364,18 +1370,18 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
         <v>81</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
         <v>84</v>
@@ -1386,7 +1392,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
         <v>86</v>
@@ -1397,7 +1403,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
         <v>88</v>
@@ -1408,29 +1414,29 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
         <v>90</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
         <v>93</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
         <v>96</v>
@@ -1441,51 +1447,51 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
         <v>98</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" t="s">
         <v>101</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" t="s">
         <v>104</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" t="s">
         <v>107</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B45" t="s">
         <v>110</v>
@@ -1507,21 +1513,21 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>116</v>
@@ -1529,7 +1535,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
         <v>117</v>
@@ -1540,18 +1546,18 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
         <v>119</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="B51" t="s">
         <v>122</v>
@@ -1562,18 +1568,18 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
         <v>124</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B53" t="s">
         <v>127</v>
@@ -1584,24 +1590,35 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
         <v>129</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" t="s">
         <v>132</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C55" s="1" t="s">
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
         <v>134</v>
+      </c>
+      <c r="B56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1660,6 +1677,7 @@
     <hyperlink ref="C53" r:id="rId52"/>
     <hyperlink ref="C54" r:id="rId53"/>
     <hyperlink ref="C55" r:id="rId54"/>
+    <hyperlink ref="C56" r:id="rId55"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1691,46 +1709,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1738,54 +1756,54 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" t="s">
         <v>145</v>
       </c>
-      <c r="B7" t="s">
-        <v>143</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1793,98 +1811,98 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1892,65 +1910,65 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1958,54 +1976,54 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B28" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B30" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2070,46 +2088,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2149,35 +2167,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="218">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,24 @@
     <t>链接</t>
   </si>
   <si>
+    <t>租客转租:1号线，共康路，通河新村，通河七村，朝南，独厨独卫2户合租，房租3000，精装修联系方式19532376978</t>
+  </si>
+  <si>
+    <t>06-20 11:10</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307599970/</t>
+  </si>
+  <si>
+    <t>6号找高青站【小整租】 独卫独厨 民用水电 押一付一 3000 地铁五分钟 可以办居住证 可短租</t>
+  </si>
+  <si>
+    <t>06-20 11:05</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307599716/</t>
+  </si>
+  <si>
     <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
   </si>
   <si>
@@ -319,9 +337,6 @@
     <t>https://www.douban.com/group/topic/307418593/</t>
   </si>
   <si>
-    <t>租客转租:1号线，共康路，通河新村，通河七村，朝南，独厨独卫2户合租，房租3000，精装修联系方式19532376978</t>
-  </si>
-  <si>
     <t>06-15 22:50</t>
   </si>
   <si>
@@ -428,6 +443,12 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307239290/</t>
+  </si>
+  <si>
+    <t>06-20 11:06</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307599741/</t>
   </si>
   <si>
     <t>06-19 11:40</t>
@@ -994,7 +1015,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1029,84 +1050,84 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -1128,40 +1149,40 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -1194,128 +1215,128 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
         <v>69</v>
@@ -1326,117 +1347,117 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
         <v>96</v>
@@ -1447,29 +1468,29 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
         <v>104</v>
@@ -1480,29 +1501,29 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
         <v>106</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" t="s">
         <v>109</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="B46" t="s">
         <v>112</v>
@@ -1513,51 +1534,51 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
         <v>119</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
         <v>122</v>
@@ -1568,7 +1589,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
         <v>124</v>
@@ -1590,7 +1611,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
         <v>129</v>
@@ -1612,13 +1633,35 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
         <v>134</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C56" s="1" t="s">
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
         <v>136</v>
+      </c>
+      <c r="B57" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1678,6 +1721,8 @@
     <hyperlink ref="C54" r:id="rId53"/>
     <hyperlink ref="C55" r:id="rId54"/>
     <hyperlink ref="C56" r:id="rId55"/>
+    <hyperlink ref="C57" r:id="rId56"/>
+    <hyperlink ref="C58" r:id="rId57"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1685,7 +1730,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1709,79 +1754,79 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1789,241 +1834,252 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="B29" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>196</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2057,6 +2113,7 @@
     <hyperlink ref="C28" r:id="rId27"/>
     <hyperlink ref="C29" r:id="rId28"/>
     <hyperlink ref="C30" r:id="rId29"/>
+    <hyperlink ref="C31" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2088,46 +2145,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2167,35 +2224,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="220">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,15 @@
     <t>链接</t>
   </si>
   <si>
+    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-20 12:58</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307604294/</t>
+  </si>
+  <si>
     <t>租客转租:1号线，共康路，通河新村，通河七村，朝南，独厨独卫2户合租，房租3000，精装修联系方式19532376978</t>
   </si>
   <si>
@@ -44,9 +53,6 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307599716/</t>
-  </si>
-  <si>
-    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
   </si>
   <si>
     <t>06-20 08:41</t>
@@ -1015,7 +1021,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1072,7 +1078,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1083,7 +1089,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -1094,18 +1100,18 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -1116,18 +1122,18 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -1138,40 +1144,40 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -1182,7 +1188,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -1193,51 +1199,51 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
         <v>42</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
         <v>45</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
         <v>51</v>
@@ -1248,7 +1254,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
@@ -1259,7 +1265,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
@@ -1270,7 +1276,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
@@ -1281,7 +1287,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
         <v>59</v>
@@ -1292,18 +1298,18 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
         <v>61</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
         <v>64</v>
@@ -1314,7 +1320,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
         <v>66</v>
@@ -1325,21 +1331,21 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>70</v>
@@ -1347,29 +1353,29 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
         <v>71</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" t="s">
         <v>74</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
         <v>77</v>
@@ -1380,18 +1386,18 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
         <v>79</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
         <v>82</v>
@@ -1402,18 +1408,18 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
         <v>84</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
         <v>87</v>
@@ -1424,18 +1430,18 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
         <v>89</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
         <v>92</v>
@@ -1446,7 +1452,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
         <v>94</v>
@@ -1457,7 +1463,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
         <v>96</v>
@@ -1468,29 +1474,29 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
         <v>98</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" t="s">
         <v>101</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="B43" t="s">
         <v>104</v>
@@ -1512,40 +1518,40 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
         <v>108</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" t="s">
         <v>111</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" t="s">
         <v>114</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="B48" t="s">
         <v>117</v>
@@ -1556,7 +1562,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B49" t="s">
         <v>119</v>
@@ -1567,21 +1573,21 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>123</v>
@@ -1589,7 +1595,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
         <v>124</v>
@@ -1600,18 +1606,18 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
         <v>126</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="B54" t="s">
         <v>129</v>
@@ -1622,18 +1628,18 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
         <v>131</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="B56" t="s">
         <v>134</v>
@@ -1644,24 +1650,35 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
         <v>136</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" t="s">
         <v>139</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C58" s="1" t="s">
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
         <v>141</v>
+      </c>
+      <c r="B59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1723,6 +1740,7 @@
     <hyperlink ref="C56" r:id="rId55"/>
     <hyperlink ref="C57" r:id="rId56"/>
     <hyperlink ref="C58" r:id="rId57"/>
+    <hyperlink ref="C59" r:id="rId58"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1754,332 +1772,332 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" t="s">
         <v>154</v>
       </c>
-      <c r="B8" t="s">
-        <v>152</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B29" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B31" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2145,46 +2163,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2224,35 +2242,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="224">
   <si>
     <t>标题</t>
   </si>
@@ -28,9 +28,24 @@
     <t>链接</t>
   </si>
   <si>
+    <t>浦东2/6/7/11/13/18号地铁沿线，房东直租单间独卫、主卧独卫、独立厨卫一室户、整租两房、三房，可押一付一，可办理居住证</t>
+  </si>
+  <si>
+    <t>06-20 15:23</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307609954/</t>
+  </si>
+  <si>
     <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
   </si>
   <si>
+    <t>06-20 15:22</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307609926/</t>
+  </si>
+  <si>
     <t>06-20 12:58</t>
   </si>
   <si>
@@ -71,9 +86,6 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307575418/</t>
-  </si>
-  <si>
-    <t>浦东2/6/7/11/13/18号地铁沿线，房东直租单间独卫、主卧独卫、独立厨卫一室户、整租两房、三房，可押一付一，可办理居住证</t>
   </si>
   <si>
     <t>06-19 14:59</t>
@@ -1021,7 +1033,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1067,18 +1079,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1089,29 +1101,29 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -1122,7 +1134,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -1133,73 +1145,73 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
@@ -1210,62 +1222,62 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
@@ -1287,7 +1299,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
         <v>59</v>
@@ -1298,7 +1310,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
         <v>61</v>
@@ -1309,29 +1321,29 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
         <v>63</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
         <v>68</v>
@@ -1342,13 +1354,13 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1356,114 +1368,114 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s">
         <v>81</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
         <v>86</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" t="s">
         <v>91</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
         <v>96</v>
@@ -1474,7 +1486,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
         <v>98</v>
@@ -1485,40 +1497,40 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
         <v>100</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B43" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="B44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="B45" t="s">
         <v>108</v>
@@ -1529,51 +1541,51 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
         <v>110</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B48" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="B49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s">
         <v>121</v>
@@ -1584,24 +1596,24 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1609,7 +1621,7 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>127</v>
@@ -1617,68 +1629,90 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
         <v>128</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" t="s">
         <v>133</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" t="s">
         <v>138</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B59" t="s">
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
         <v>142</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="B60" t="s">
         <v>143</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1741,6 +1775,8 @@
     <hyperlink ref="C57" r:id="rId56"/>
     <hyperlink ref="C58" r:id="rId57"/>
     <hyperlink ref="C59" r:id="rId58"/>
+    <hyperlink ref="C60" r:id="rId59"/>
+    <hyperlink ref="C61" r:id="rId60"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1772,332 +1808,332 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B20" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B26" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B29" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B31" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2163,46 +2199,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2242,35 +2278,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="229">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,15 @@
     <t>链接</t>
   </si>
   <si>
+    <t>临近前滩 6/8/11号线东方体育中心 小整租 独卫独厨 2950每月 民用水电 押一付一 房东直签</t>
+  </si>
+  <si>
+    <t>06-20 16:36</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307612691/</t>
+  </si>
+  <si>
     <t>浦东2/6/7/11/13/18号地铁沿线，房东直租单间独卫、主卧独卫、独立厨卫一室户、整租两房、三房，可押一付一，可办理居住证</t>
   </si>
   <si>
@@ -461,6 +470,12 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307239290/</t>
+  </si>
+  <si>
+    <t>06-20 16:37</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307612736/</t>
   </si>
   <si>
     <t>06-20 11:06</t>
@@ -1033,7 +1048,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1079,18 +1094,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1112,46 +1127,46 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1159,15 +1174,15 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
@@ -1178,18 +1193,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
@@ -1222,29 +1237,29 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -1288,13 +1303,13 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1302,48 +1317,48 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
         <v>68</v>
@@ -1354,24 +1369,24 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1379,26 +1394,26 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
         <v>78</v>
@@ -1420,18 +1435,18 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
         <v>86</v>
@@ -1442,18 +1457,18 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
         <v>91</v>
@@ -1464,18 +1479,18 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
         <v>96</v>
@@ -1486,24 +1501,24 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1511,15 +1526,15 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
         <v>105</v>
@@ -1541,29 +1556,29 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
         <v>115</v>
@@ -1596,46 +1611,46 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
         <v>128</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1643,15 +1658,15 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
         <v>133</v>
@@ -1662,18 +1677,18 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
         <v>138</v>
@@ -1684,18 +1699,18 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
         <v>143</v>
@@ -1713,6 +1728,17 @@
       </c>
       <c r="C61" s="1" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1777,6 +1803,7 @@
     <hyperlink ref="C59" r:id="rId58"/>
     <hyperlink ref="C60" r:id="rId59"/>
     <hyperlink ref="C61" r:id="rId60"/>
+    <hyperlink ref="C62" r:id="rId61"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1784,7 +1811,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1808,24 +1835,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1833,307 +1860,318 @@
         <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>94</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="B23" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B26" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>202</v>
       </c>
       <c r="B27" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>204</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>209</v>
       </c>
       <c r="B30" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>209</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>214</v>
+      </c>
+      <c r="B32" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2168,6 +2206,7 @@
     <hyperlink ref="C29" r:id="rId28"/>
     <hyperlink ref="C30" r:id="rId29"/>
     <hyperlink ref="C31" r:id="rId30"/>
+    <hyperlink ref="C32" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2199,46 +2238,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2278,35 +2317,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="231">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,15 @@
     <t>链接</t>
   </si>
   <si>
+    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-20 19:03</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307618764/</t>
+  </si>
+  <si>
     <t>临近前滩 6/8/11号线东方体育中心 小整租 独卫独厨 2950每月 民用水电 押一付一 房东直签</t>
   </si>
   <si>
@@ -44,9 +53,6 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307609954/</t>
-  </si>
-  <si>
-    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
   </si>
   <si>
     <t>06-20 15:22</t>
@@ -1048,7 +1054,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1105,7 +1111,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1116,29 +1122,29 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -1149,7 +1155,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -1160,7 +1166,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -1171,7 +1177,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1193,18 +1199,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
@@ -1215,40 +1221,40 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
         <v>44</v>
@@ -1259,7 +1265,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -1270,51 +1276,51 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
         <v>60</v>
@@ -1336,7 +1342,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
         <v>64</v>
@@ -1347,7 +1353,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
         <v>66</v>
@@ -1358,7 +1364,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
         <v>68</v>
@@ -1369,18 +1375,18 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
         <v>70</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
         <v>73</v>
@@ -1391,7 +1397,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
         <v>75</v>
@@ -1405,18 +1411,18 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>79</v>
@@ -1424,29 +1430,29 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
         <v>80</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
         <v>83</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
         <v>86</v>
@@ -1457,18 +1463,18 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
         <v>88</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
         <v>91</v>
@@ -1479,18 +1485,18 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
         <v>93</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
         <v>96</v>
@@ -1501,18 +1507,18 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
         <v>98</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="B42" t="s">
         <v>101</v>
@@ -1523,7 +1529,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
         <v>103</v>
@@ -1545,29 +1551,29 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
         <v>107</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" t="s">
         <v>110</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="B47" t="s">
         <v>113</v>
@@ -1578,7 +1584,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
         <v>115</v>
@@ -1589,40 +1595,40 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" t="s">
         <v>117</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" t="s">
         <v>120</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" t="s">
         <v>123</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="B52" t="s">
         <v>126</v>
@@ -1633,7 +1639,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B53" t="s">
         <v>128</v>
@@ -1644,21 +1650,21 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>132</v>
@@ -1677,18 +1683,18 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
         <v>135</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="B58" t="s">
         <v>138</v>
@@ -1699,18 +1705,18 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
         <v>140</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="B60" t="s">
         <v>143</v>
@@ -1721,24 +1727,35 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
         <v>145</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" t="s">
         <v>148</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C62" s="1" t="s">
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
         <v>150</v>
+      </c>
+      <c r="B63" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1804,6 +1821,7 @@
     <hyperlink ref="C60" r:id="rId59"/>
     <hyperlink ref="C61" r:id="rId60"/>
     <hyperlink ref="C62" r:id="rId61"/>
+    <hyperlink ref="C63" r:id="rId62"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1835,343 +1853,343 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" t="s">
         <v>165</v>
       </c>
-      <c r="B9" t="s">
-        <v>163</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B23" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B26" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B27" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B30" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2238,46 +2256,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2317,35 +2335,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="238">
   <si>
     <t>标题</t>
   </si>
@@ -28,9 +28,24 @@
     <t>链接</t>
   </si>
   <si>
+    <t>8号线杨思【小整租】独卫独厨 押一付一 3000 包网费水费 地铁五分钟 房东直签</t>
+  </si>
+  <si>
+    <t>06-20 21:38</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307625850/</t>
+  </si>
+  <si>
     <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
   </si>
   <si>
+    <t>06-20 20:32</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307622601/</t>
+  </si>
+  <si>
     <t>06-20 19:03</t>
   </si>
   <si>
@@ -476,6 +491,12 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307239290/</t>
+  </si>
+  <si>
+    <t>06-20 21:39</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307625938/</t>
   </si>
   <si>
     <t>06-20 16:37</t>
@@ -1054,7 +1075,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1100,18 +1121,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1122,18 +1143,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -1144,18 +1165,18 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -1166,51 +1187,51 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
@@ -1221,7 +1242,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
@@ -1243,29 +1264,29 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -1276,18 +1297,18 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>51</v>
@@ -1298,40 +1319,40 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
         <v>53</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
         <v>56</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
         <v>59</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
@@ -1342,51 +1363,51 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
         <v>73</v>
@@ -1397,7 +1418,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
         <v>75</v>
@@ -1408,43 +1429,43 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
         <v>82</v>
-      </c>
-      <c r="B35" t="s">
-        <v>83</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>84</v>
@@ -1452,18 +1473,18 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
         <v>85</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
         <v>88</v>
@@ -1485,7 +1506,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
         <v>93</v>
@@ -1507,7 +1528,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
         <v>98</v>
@@ -1529,7 +1550,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
         <v>103</v>
@@ -1540,29 +1561,29 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
         <v>110</v>
@@ -1573,18 +1594,18 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
         <v>112</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="B48" t="s">
         <v>115</v>
@@ -1595,18 +1616,18 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
         <v>120</v>
@@ -1617,29 +1638,29 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
         <v>122</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" t="s">
         <v>125</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="B53" t="s">
         <v>128</v>
@@ -1650,51 +1671,51 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
         <v>135</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s">
         <v>138</v>
@@ -1705,7 +1726,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
         <v>140</v>
@@ -1727,7 +1748,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
         <v>145</v>
@@ -1749,13 +1770,35 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
         <v>150</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C63" s="1" t="s">
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
         <v>152</v>
+      </c>
+      <c r="B64" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1822,6 +1865,8 @@
     <hyperlink ref="C61" r:id="rId60"/>
     <hyperlink ref="C62" r:id="rId61"/>
     <hyperlink ref="C63" r:id="rId62"/>
+    <hyperlink ref="C64" r:id="rId63"/>
+    <hyperlink ref="C65" r:id="rId64"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1829,7 +1874,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1853,156 +1898,156 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2010,186 +2055,197 @@
         <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>201</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="B28" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>211</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="B31" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>216</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>223</v>
+      </c>
+      <c r="B33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2225,6 +2281,7 @@
     <hyperlink ref="C30" r:id="rId29"/>
     <hyperlink ref="C31" r:id="rId30"/>
     <hyperlink ref="C32" r:id="rId31"/>
+    <hyperlink ref="C33" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2256,46 +2313,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2335,35 +2392,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="241">
   <si>
     <t>标题</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>链接</t>
+  </si>
+  <si>
+    <t>2.11号线，江苏路超棒主卧！朝南带阳台空间大，合租/🉑住2人/主卧独卫，精装修押一付一，随时看房 17614625290</t>
+  </si>
+  <si>
+    <t>06-20 22:53</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307629413/</t>
   </si>
   <si>
     <t>8号线杨思【小整租】独卫独厨 押一付一 3000 包网费水费 地铁五分钟 房东直签</t>
@@ -1075,7 +1084,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1121,18 +1130,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1154,29 +1163,29 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -1198,62 +1207,62 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
@@ -1264,18 +1273,18 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
@@ -1308,29 +1317,29 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
@@ -1374,62 +1383,62 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
         <v>78</v>
@@ -1440,51 +1449,51 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
         <v>88</v>
@@ -1506,18 +1515,18 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
         <v>96</v>
@@ -1528,18 +1537,18 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
         <v>101</v>
@@ -1550,18 +1559,18 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
         <v>106</v>
@@ -1572,40 +1581,40 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
         <v>115</v>
@@ -1627,29 +1636,29 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="B52" t="s">
         <v>125</v>
@@ -1682,62 +1691,62 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B58" t="s">
         <v>138</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
         <v>143</v>
@@ -1748,18 +1757,18 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="B62" t="s">
         <v>148</v>
@@ -1770,18 +1779,18 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
         <v>153</v>
@@ -1799,6 +1808,17 @@
       </c>
       <c r="C65" s="1" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>158</v>
+      </c>
+      <c r="B66" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1867,6 +1887,7 @@
     <hyperlink ref="C63" r:id="rId62"/>
     <hyperlink ref="C64" r:id="rId63"/>
     <hyperlink ref="C65" r:id="rId64"/>
+    <hyperlink ref="C66" r:id="rId65"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1898,354 +1919,354 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B21" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B22" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B25" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B27" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B28" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B31" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B33" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2313,46 +2334,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2392,35 +2413,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="247">
   <si>
     <t>标题</t>
   </si>
@@ -26,6 +26,24 @@
   </si>
   <si>
     <t>链接</t>
+  </si>
+  <si>
+    <t>5号线地铁莘庄。银都。颛桥。北桥。剑川。地铁口百米内。独立一室户独厨独卫。燃气做饭洗澡。整租一房。两房。三房。民用水电18555523933</t>
+  </si>
+  <si>
+    <t>06-21 00:17</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307633259/</t>
+  </si>
+  <si>
+    <t>15号线景西路。双柏路。永德路。曙建路。合租单间，单间独卫。单间独厨独卫燃气做饭洗澡，精装修一室户家电齐全拎包入住--18555523933</t>
+  </si>
+  <si>
+    <t>06-21 00:12</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307633061/</t>
   </si>
   <si>
     <t>2.11号线，江苏路超棒主卧！朝南带阳台空间大，合租/🉑住2人/主卧独卫，精装修押一付一，随时看房 17614625290</t>
@@ -1084,7 +1102,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1141,29 +1159,29 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -1174,40 +1192,40 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
@@ -1218,95 +1236,95 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
@@ -1328,40 +1346,40 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
@@ -1394,128 +1412,128 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
         <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
         <v>94</v>
@@ -1526,117 +1544,117 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
         <v>121</v>
@@ -1647,40 +1665,40 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
         <v>131</v>
@@ -1702,123 +1720,145 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="B56" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B63" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B65" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="B66" t="s">
         <v>159</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>161</v>
+      </c>
+      <c r="B67" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>164</v>
+      </c>
+      <c r="B68" t="s">
+        <v>165</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1888,6 +1928,8 @@
     <hyperlink ref="C64" r:id="rId63"/>
     <hyperlink ref="C65" r:id="rId64"/>
     <hyperlink ref="C66" r:id="rId65"/>
+    <hyperlink ref="C67" r:id="rId66"/>
+    <hyperlink ref="C68" r:id="rId67"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1919,354 +1961,354 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B21" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B22" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B27" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B28" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B31" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B33" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2334,46 +2376,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2413,35 +2455,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="254">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,24 @@
     <t>链接</t>
   </si>
   <si>
+    <t>11号线三林【小整租】独卫独厨 民用水电 3000 地铁五分钟 直达徐家汇 房东直租 可办居住证</t>
+  </si>
+  <si>
+    <t>06-21 08:47</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307638024/</t>
+  </si>
+  <si>
+    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-21 08:43</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307637957/</t>
+  </si>
+  <si>
     <t>5号线地铁莘庄。银都。颛桥。北桥。剑川。地铁口百米内。独立一室户独厨独卫。燃气做饭洗澡。整租一房。两房。三房。民用水电18555523933</t>
   </si>
   <si>
@@ -64,9 +82,6 @@
     <t>https://www.douban.com/group/topic/307625850/</t>
   </si>
   <si>
-    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
-  </si>
-  <si>
     <t>06-20 20:32</t>
   </si>
   <si>
@@ -518,6 +533,12 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307239290/</t>
+  </si>
+  <si>
+    <t>06-21 08:49</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307638059/</t>
   </si>
   <si>
     <t>06-20 21:39</t>
@@ -1102,7 +1123,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1181,18 +1202,18 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1203,18 +1224,18 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1225,18 +1246,18 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -1247,18 +1268,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
@@ -1269,51 +1290,51 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>47</v>
@@ -1324,7 +1345,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
@@ -1346,29 +1367,29 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
         <v>60</v>
@@ -1379,18 +1400,18 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
         <v>65</v>
@@ -1401,40 +1422,40 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
         <v>67</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
         <v>70</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
         <v>73</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
         <v>76</v>
@@ -1445,51 +1466,51 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
         <v>87</v>
@@ -1500,7 +1521,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
         <v>89</v>
@@ -1511,43 +1532,43 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
         <v>96</v>
-      </c>
-      <c r="B40" t="s">
-        <v>97</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>98</v>
@@ -1555,18 +1576,18 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
         <v>99</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="B42" t="s">
         <v>102</v>
@@ -1588,7 +1609,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
         <v>107</v>
@@ -1610,7 +1631,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
         <v>112</v>
@@ -1632,7 +1653,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
         <v>117</v>
@@ -1643,29 +1664,29 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
         <v>124</v>
@@ -1676,18 +1697,18 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
         <v>126</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="B53" t="s">
         <v>129</v>
@@ -1698,18 +1719,18 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="B54" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
         <v>134</v>
@@ -1720,29 +1741,29 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" t="s">
         <v>136</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" t="s">
         <v>139</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="B58" t="s">
         <v>142</v>
@@ -1753,51 +1774,51 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="B59" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B62" t="s">
         <v>149</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="B63" t="s">
         <v>152</v>
@@ -1808,7 +1829,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
         <v>154</v>
@@ -1830,7 +1851,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
         <v>159</v>
@@ -1852,13 +1873,35 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
         <v>164</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C68" s="1" t="s">
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
         <v>166</v>
+      </c>
+      <c r="B69" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1930,6 +1973,8 @@
     <hyperlink ref="C66" r:id="rId65"/>
     <hyperlink ref="C67" r:id="rId66"/>
     <hyperlink ref="C68" r:id="rId67"/>
+    <hyperlink ref="C69" r:id="rId68"/>
+    <hyperlink ref="C70" r:id="rId69"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1937,7 +1982,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1961,167 +2006,167 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>92</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>192</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>199</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2129,186 +2174,197 @@
         <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>198</v>
+        <v>115</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>219</v>
       </c>
       <c r="B26" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>217</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B28" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="B29" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>227</v>
+        <v>104</v>
       </c>
       <c r="B31" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="B32" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>232</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>239</v>
+      </c>
+      <c r="B34" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2345,6 +2401,7 @@
     <hyperlink ref="C31" r:id="rId30"/>
     <hyperlink ref="C32" r:id="rId31"/>
     <hyperlink ref="C33" r:id="rId32"/>
+    <hyperlink ref="C34" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2376,46 +2433,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2455,35 +2512,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="266">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,33 @@
     <t>链接</t>
   </si>
   <si>
+    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-21 13:25</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307649138/</t>
+  </si>
+  <si>
+    <t>浦东2/6/7/11/13/18号地铁沿线，房东直租单间独卫、主卧独卫、独立厨卫一室户、整租两房、三房，可押一付一，可办理居住证</t>
+  </si>
+  <si>
+    <t>06-21 13:24</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307649098/</t>
+  </si>
+  <si>
+    <t>11号线三林站 直达徐家汇 小整租 独卫独厨 3000 民用水电 押一付一 可办居住证 可以短租</t>
+  </si>
+  <si>
+    <t>06-21 11:20</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307643685/</t>
+  </si>
+  <si>
     <t>11号线三林【小整租】独卫独厨 民用水电 3000 地铁五分钟 直达徐家汇 房东直租 可办居住证</t>
   </si>
   <si>
@@ -37,9 +64,6 @@
     <t>https://www.douban.com/group/topic/307638024/</t>
   </si>
   <si>
-    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
-  </si>
-  <si>
     <t>06-21 08:43</t>
   </si>
   <si>
@@ -103,9 +127,6 @@
     <t>https://www.douban.com/group/topic/307612691/</t>
   </si>
   <si>
-    <t>浦东2/6/7/11/13/18号地铁沿线，房东直租单间独卫、主卧独卫、独立厨卫一室户、整租两房、三房，可押一付一，可办理居住证</t>
-  </si>
-  <si>
     <t>06-20 15:23</t>
   </si>
   <si>
@@ -535,6 +556,24 @@
     <t>https://www.douban.com/group/topic/307239290/</t>
   </si>
   <si>
+    <t>06-21 11:21</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307643719/</t>
+  </si>
+  <si>
+    <t>06-21 11:06</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307642984/</t>
+  </si>
+  <si>
+    <t>06-21 10:30</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307641453/</t>
+  </si>
+  <si>
     <t>06-21 08:49</t>
   </si>
   <si>
@@ -698,9 +737,6 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307262977/</t>
-  </si>
-  <si>
-    <t>11号线三林站 直达徐家汇 小整租 独卫独厨 3000 民用水电 押一付一 可办居住证 可以短租</t>
   </si>
   <si>
     <t>06-12 22:32</t>
@@ -1123,7 +1159,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1191,29 +1227,29 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1224,29 +1260,29 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -1257,7 +1293,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -1268,18 +1304,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
@@ -1290,29 +1326,29 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -1323,40 +1359,40 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -1378,51 +1414,51 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
         <v>56</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
         <v>59</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
         <v>67</v>
@@ -1444,51 +1480,51 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
         <v>72</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
         <v>83</v>
@@ -1499,13 +1535,13 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1513,26 +1549,26 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
         <v>92</v>
@@ -1543,7 +1579,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
         <v>94</v>
@@ -1554,7 +1590,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
         <v>96</v>
@@ -1565,73 +1601,73 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" t="s">
         <v>109</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="B46" t="s">
         <v>112</v>
@@ -1642,18 +1678,18 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
         <v>114</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="B48" t="s">
         <v>117</v>
@@ -1664,18 +1700,18 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
         <v>119</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="B50" t="s">
         <v>122</v>
@@ -1686,7 +1722,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B51" t="s">
         <v>124</v>
@@ -1697,18 +1733,18 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="B53" t="s">
         <v>129</v>
@@ -1719,29 +1755,29 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
         <v>131</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B55" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="B56" t="s">
         <v>136</v>
@@ -1763,40 +1799,40 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
         <v>141</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B59" t="s">
-        <v>145</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="B60" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="B61" t="s">
         <v>149</v>
@@ -1807,43 +1843,43 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
         <v>156</v>
-      </c>
-      <c r="B65" t="s">
-        <v>157</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>158</v>
@@ -1862,18 +1898,18 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
         <v>161</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="B68" t="s">
         <v>164</v>
@@ -1884,24 +1920,57 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
         <v>166</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>168</v>
+      </c>
+      <c r="B70" t="s">
         <v>169</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C70" s="1" t="s">
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
         <v>171</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>173</v>
+      </c>
+      <c r="B72" t="s">
+        <v>174</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>176</v>
+      </c>
+      <c r="B73" t="s">
+        <v>177</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1975,6 +2044,9 @@
     <hyperlink ref="C68" r:id="rId67"/>
     <hyperlink ref="C69" r:id="rId68"/>
     <hyperlink ref="C70" r:id="rId69"/>
+    <hyperlink ref="C71" r:id="rId70"/>
+    <hyperlink ref="C72" r:id="rId71"/>
+    <hyperlink ref="C73" r:id="rId72"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1982,7 +2054,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2006,365 +2078,398 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>203</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
-        <v>209</v>
+        <v>122</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="B24" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B25" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="B28" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>237</v>
       </c>
       <c r="B31" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>234</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>239</v>
+        <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" t="s">
+        <v>247</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>251</v>
+      </c>
+      <c r="B37" t="s">
+        <v>252</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2402,6 +2507,9 @@
     <hyperlink ref="C32" r:id="rId31"/>
     <hyperlink ref="C33" r:id="rId32"/>
     <hyperlink ref="C34" r:id="rId33"/>
+    <hyperlink ref="C35" r:id="rId34"/>
+    <hyperlink ref="C36" r:id="rId35"/>
+    <hyperlink ref="C37" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2433,46 +2541,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2512,35 +2620,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="270">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,15 @@
     <t>链接</t>
   </si>
   <si>
+    <t>临近前滩6/8/11号线东方体育中心【小整租】独卫独厨一室户 押一付一 3100 可办居住证 民用水电 房东直签 随时看房</t>
+  </si>
+  <si>
+    <t>06-21 17:15</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307658711/</t>
+  </si>
+  <si>
     <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
   </si>
   <si>
@@ -247,9 +256,6 @@
     <t>https://www.douban.com/group/topic/307542218/</t>
   </si>
   <si>
-    <t>临近前滩6/8/11号线东方体育中心【小整租】独卫独厨一室户 押一付一 3100 可办居住证 民用水电 房东直签 随时看房</t>
-  </si>
-  <si>
     <t>06-18 22:14</t>
   </si>
   <si>
@@ -554,6 +560,12 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307239290/</t>
+  </si>
+  <si>
+    <t>06-21 17:16</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307658754/</t>
   </si>
   <si>
     <t>06-21 11:21</t>
@@ -1159,7 +1171,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1227,18 +1239,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -1282,29 +1294,29 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -1315,40 +1327,40 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -1370,35 +1382,35 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1406,26 +1418,26 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
         <v>59</v>
@@ -1436,18 +1448,18 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
         <v>64</v>
@@ -1480,29 +1492,29 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
         <v>77</v>
@@ -1513,40 +1525,40 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
         <v>79</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
         <v>82</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
         <v>85</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
         <v>88</v>
@@ -1557,7 +1569,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
         <v>90</v>
@@ -1568,7 +1580,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
         <v>92</v>
@@ -1579,7 +1591,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
         <v>94</v>
@@ -1590,7 +1602,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
         <v>96</v>
@@ -1601,18 +1613,18 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
         <v>98</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
         <v>101</v>
@@ -1623,7 +1635,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B42" t="s">
         <v>103</v>
@@ -1634,21 +1646,21 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>107</v>
@@ -1656,29 +1668,29 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
         <v>108</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" t="s">
         <v>111</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="B47" t="s">
         <v>114</v>
@@ -1689,18 +1701,18 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
         <v>116</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="B49" t="s">
         <v>119</v>
@@ -1711,18 +1723,18 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
         <v>121</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="B51" t="s">
         <v>124</v>
@@ -1733,18 +1745,18 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
         <v>126</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="B53" t="s">
         <v>129</v>
@@ -1766,7 +1778,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
         <v>133</v>
@@ -1777,29 +1789,29 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
         <v>135</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" t="s">
         <v>138</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="B58" t="s">
         <v>141</v>
@@ -1810,7 +1822,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
         <v>143</v>
@@ -1821,40 +1833,40 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" t="s">
         <v>145</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>147</v>
+      </c>
+      <c r="B61" t="s">
         <v>148</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
+        <v>150</v>
+      </c>
+      <c r="B62" t="s">
         <v>151</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="B63" t="s">
         <v>154</v>
@@ -1865,7 +1877,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
         <v>156</v>
@@ -1879,18 +1891,18 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>160</v>
@@ -1898,7 +1910,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
         <v>161</v>
@@ -1909,18 +1921,18 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
         <v>163</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="B69" t="s">
         <v>166</v>
@@ -1931,18 +1943,18 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
         <v>168</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>170</v>
       </c>
       <c r="B71" t="s">
         <v>171</v>
@@ -1953,24 +1965,35 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
         <v>173</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
+        <v>175</v>
+      </c>
+      <c r="B73" t="s">
         <v>176</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C73" s="1" t="s">
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
         <v>178</v>
+      </c>
+      <c r="B74" t="s">
+        <v>179</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2047,6 +2070,7 @@
     <hyperlink ref="C71" r:id="rId70"/>
     <hyperlink ref="C72" r:id="rId71"/>
     <hyperlink ref="C73" r:id="rId72"/>
+    <hyperlink ref="C74" r:id="rId73"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2054,7 +2078,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2078,90 +2102,90 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2169,32 +2193,32 @@
         <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2202,274 +2226,285 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>203</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="B15" t="s">
         <v>205</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>211</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>210</v>
+        <v>101</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>212</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>218</v>
+        <v>124</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="B23" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B26" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="B29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>236</v>
       </c>
       <c r="B30" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>237</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>241</v>
       </c>
       <c r="B32" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>246</v>
+        <v>113</v>
       </c>
       <c r="B35" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c r="B36" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>251</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>255</v>
+      </c>
+      <c r="B38" t="s">
+        <v>256</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2510,6 +2545,7 @@
     <hyperlink ref="C35" r:id="rId34"/>
     <hyperlink ref="C36" r:id="rId35"/>
     <hyperlink ref="C37" r:id="rId36"/>
+    <hyperlink ref="C38" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2541,46 +2577,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2620,35 +2656,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="281">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,39 @@
     <t>链接</t>
   </si>
   <si>
+    <t>8号线杨思【小整租】民用水电 押一付一 房东直签 独卫独厨 3000包网费水费</t>
+  </si>
+  <si>
+    <t>06-21 21:32</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307674663/</t>
+  </si>
+  <si>
+    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-21 21:18</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307673303/</t>
+  </si>
+  <si>
+    <t>🏠🏠🏠转租一五号线莘庄地铁口，朝南独厨独卫，带阳台送院子，使用面积35平，3000+，押一付一，精装修，独立冰箱洗衣机，随时看房</t>
+  </si>
+  <si>
+    <t>06-21 19:25</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307664562/</t>
+  </si>
+  <si>
+    <t>06-21 18:15</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307661162/</t>
+  </si>
+  <si>
     <t>临近前滩6/8/11号线东方体育中心【小整租】独卫独厨一室户 押一付一 3100 可办居住证 民用水电 房东直签 随时看房</t>
   </si>
   <si>
@@ -37,9 +70,6 @@
     <t>https://www.douban.com/group/topic/307658711/</t>
   </si>
   <si>
-    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
-  </si>
-  <si>
     <t>06-21 13:25</t>
   </si>
   <si>
@@ -562,6 +592,12 @@
     <t>https://www.douban.com/group/topic/307239290/</t>
   </si>
   <si>
+    <t>06-21 21:33</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307674809/</t>
+  </si>
+  <si>
     <t>06-21 17:16</t>
   </si>
   <si>
@@ -767,9 +803,6 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307224230/</t>
-  </si>
-  <si>
-    <t>8号线杨思【小整租】民用水电 押一付一 房东直签 独卫独厨 3000包网费水费</t>
   </si>
   <si>
     <t>06-12 07:56</t>
@@ -1171,7 +1204,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1228,24 +1261,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1253,70 +1286,70 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -1338,13 +1371,13 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1352,10 +1385,10 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1363,26 +1396,26 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>49</v>
@@ -1415,24 +1448,24 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1440,21 +1473,21 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1462,15 +1495,15 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
         <v>67</v>
@@ -1481,24 +1514,24 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
         <v>69</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
         <v>72</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1506,15 +1539,15 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
         <v>77</v>
@@ -1525,29 +1558,29 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
         <v>85</v>
@@ -1558,29 +1591,29 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
         <v>87</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="B37" t="s">
         <v>92</v>
@@ -1591,68 +1624,68 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1660,43 +1693,43 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1704,7 +1737,7 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>117</v>
@@ -1712,18 +1745,18 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
         <v>118</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s">
         <v>121</v>
@@ -1778,13 +1811,13 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1792,26 +1825,26 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
         <v>141</v>
@@ -1822,7 +1855,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B59" t="s">
         <v>143</v>
@@ -1833,7 +1866,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
         <v>145</v>
@@ -1866,29 +1899,29 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
         <v>153</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B64" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="B65" t="s">
         <v>158</v>
@@ -1899,24 +1932,24 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="B66" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>163</v>
       </c>
       <c r="B67" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1924,37 +1957,37 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>165</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B70" t="s">
         <v>168</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="B71" t="s">
         <v>171</v>
@@ -1987,13 +2020,57 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
         <v>178</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C74" s="1" t="s">
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
         <v>180</v>
+      </c>
+      <c r="B75" t="s">
+        <v>181</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>185</v>
+      </c>
+      <c r="B77" t="s">
+        <v>186</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>188</v>
+      </c>
+      <c r="B78" t="s">
+        <v>189</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2071,6 +2148,10 @@
     <hyperlink ref="C72" r:id="rId71"/>
     <hyperlink ref="C73" r:id="rId72"/>
     <hyperlink ref="C74" r:id="rId73"/>
+    <hyperlink ref="C75" r:id="rId74"/>
+    <hyperlink ref="C76" r:id="rId75"/>
+    <hyperlink ref="C77" r:id="rId76"/>
+    <hyperlink ref="C78" r:id="rId77"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2078,7 +2159,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2105,406 +2186,417 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>207</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>219</v>
       </c>
       <c r="B16" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>223</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>214</v>
+        <v>111</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>216</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>231</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B23" t="s">
-        <v>222</v>
+        <v>134</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="B26" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>175</v>
       </c>
       <c r="B28" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>170</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>236</v>
+        <v>180</v>
       </c>
       <c r="B30" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="B31" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="B33" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>250</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>257</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>266</v>
+      </c>
+      <c r="B39" t="s">
+        <v>267</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2546,6 +2638,7 @@
     <hyperlink ref="C36" r:id="rId35"/>
     <hyperlink ref="C37" r:id="rId36"/>
     <hyperlink ref="C38" r:id="rId37"/>
+    <hyperlink ref="C39" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2577,46 +2670,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2656,35 +2749,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="283">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,15 @@
     <t>链接</t>
   </si>
   <si>
+    <t>2.11号线，江苏路超棒主卧！朝南带阳台空间大，合租/🉑住2人/主卧独卫，精装修押一付一，随时看房 17614625290</t>
+  </si>
+  <si>
+    <t>06-21 23:10</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307683142/</t>
+  </si>
+  <si>
     <t>8号线杨思【小整租】民用水电 押一付一 房东直签 独卫独厨 3000包网费水费</t>
   </si>
   <si>
@@ -125,9 +134,6 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307633061/</t>
-  </si>
-  <si>
-    <t>2.11号线，江苏路超棒主卧！朝南带阳台空间大，合租/🉑住2人/主卧独卫，精装修押一付一，随时看房 17614625290</t>
   </si>
   <si>
     <t>06-20 22:53</t>
@@ -1204,7 +1210,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1261,18 +1267,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1283,18 +1289,18 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -1327,18 +1333,18 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -1371,18 +1377,18 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -1393,7 +1399,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
         <v>44</v>
@@ -1404,18 +1410,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
         <v>49</v>
@@ -1426,7 +1432,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>51</v>
@@ -1437,7 +1443,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
@@ -1448,29 +1454,29 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
         <v>55</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
         <v>58</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
         <v>61</v>
@@ -1481,7 +1487,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>63</v>
@@ -1492,7 +1498,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
         <v>65</v>
@@ -1503,7 +1509,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
         <v>67</v>
@@ -1514,7 +1520,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>69</v>
@@ -1525,18 +1531,18 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
         <v>71</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
         <v>74</v>
@@ -1547,40 +1553,40 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
         <v>76</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
         <v>79</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
         <v>82</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
         <v>85</v>
@@ -1591,7 +1597,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
         <v>87</v>
@@ -1602,7 +1608,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
         <v>89</v>
@@ -1613,40 +1619,40 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
         <v>91</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" t="s">
         <v>94</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" t="s">
         <v>97</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
         <v>100</v>
@@ -1657,7 +1663,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
         <v>102</v>
@@ -1668,7 +1674,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
         <v>104</v>
@@ -1679,7 +1685,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
         <v>106</v>
@@ -1690,7 +1696,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
         <v>108</v>
@@ -1701,18 +1707,18 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
         <v>110</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B46" t="s">
         <v>113</v>
@@ -1723,7 +1729,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
         <v>115</v>
@@ -1734,21 +1740,21 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>119</v>
@@ -1756,29 +1762,29 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
         <v>120</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" t="s">
         <v>123</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="B52" t="s">
         <v>126</v>
@@ -1789,18 +1795,18 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
         <v>128</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="B54" t="s">
         <v>131</v>
@@ -1811,18 +1817,18 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
         <v>133</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="B56" t="s">
         <v>136</v>
@@ -1833,18 +1839,18 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
         <v>138</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="B58" t="s">
         <v>141</v>
@@ -1855,7 +1861,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B59" t="s">
         <v>143</v>
@@ -1866,7 +1872,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s">
         <v>145</v>
@@ -1877,29 +1883,29 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
         <v>147</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" t="s">
         <v>150</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="B63" t="s">
         <v>153</v>
@@ -1910,7 +1916,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
         <v>155</v>
@@ -1921,40 +1927,40 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" t="s">
         <v>157</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" t="s">
         <v>160</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" t="s">
         <v>163</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="B68" t="s">
         <v>166</v>
@@ -1965,7 +1971,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
         <v>168</v>
@@ -1976,21 +1982,21 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>172</v>
@@ -1998,7 +2004,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B72" t="s">
         <v>173</v>
@@ -2009,18 +2015,18 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" t="s">
         <v>175</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>177</v>
       </c>
       <c r="B74" t="s">
         <v>178</v>
@@ -2031,18 +2037,18 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" t="s">
         <v>180</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>182</v>
       </c>
       <c r="B76" t="s">
         <v>183</v>
@@ -2053,24 +2059,35 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" t="s">
         <v>185</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>187</v>
+      </c>
+      <c r="B78" t="s">
         <v>188</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C78" s="1" t="s">
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
         <v>190</v>
+      </c>
+      <c r="B79" t="s">
+        <v>191</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2152,6 +2169,7 @@
     <hyperlink ref="C76" r:id="rId75"/>
     <hyperlink ref="C77" r:id="rId76"/>
     <hyperlink ref="C78" r:id="rId77"/>
+    <hyperlink ref="C79" r:id="rId78"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2183,420 +2201,420 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B13" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" t="s">
         <v>219</v>
       </c>
-      <c r="B16" t="s">
-        <v>217</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B22" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B24" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B30" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B33" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B39" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -2670,46 +2688,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2749,35 +2767,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="286">
   <si>
     <t>标题</t>
   </si>
@@ -596,6 +596,15 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307239290/</t>
+  </si>
+  <si>
+    <t>9号线九亭地铁口三百米精装修全配主卧，有储藏室独卫飘窗，可以做饭，民用水电煤燃气热水器13817842689（微信同号）</t>
+  </si>
+  <si>
+    <t>06-22 00:06</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307686699/</t>
   </si>
   <si>
     <t>06-21 21:33</t>
@@ -2177,7 +2186,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2201,216 +2210,216 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="B14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>221</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="B17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>228</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
-        <v>228</v>
+        <v>113</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
         <v>231</v>
@@ -2421,106 +2430,106 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s">
-        <v>236</v>
+        <v>136</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="B25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="B27" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
       <c r="B29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>182</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="B31" t="s">
         <v>251</v>
@@ -2531,18 +2540,18 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="B32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="B33" t="s">
         <v>256</v>
@@ -2553,68 +2562,79 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>258</v>
       </c>
       <c r="B34" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>268</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
         <v>269</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>271</v>
+      </c>
+      <c r="B40" t="s">
+        <v>272</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2657,6 +2677,7 @@
     <hyperlink ref="C37" r:id="rId36"/>
     <hyperlink ref="C38" r:id="rId37"/>
     <hyperlink ref="C39" r:id="rId38"/>
+    <hyperlink ref="C40" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2691,10 +2712,10 @@
         <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2702,10 +2723,10 @@
         <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2713,10 +2734,10 @@
         <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2724,10 +2745,10 @@
         <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2770,10 +2791,10 @@
         <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2781,10 +2802,10 @@
         <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2792,10 +2813,10 @@
         <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="290">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,24 @@
     <t>链接</t>
   </si>
   <si>
+    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-22 09:53</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307695118/</t>
+  </si>
+  <si>
+    <t>整租8号线杨思【小整租】独卫独厨 押一付一 3200 包网费水费 地铁五分钟 房东直签</t>
+  </si>
+  <si>
+    <t>06-22 09:23</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307694161/</t>
+  </si>
+  <si>
     <t>2.11号线，江苏路超棒主卧！朝南带阳台空间大，合租/🉑住2人/主卧独卫，精装修押一付一，随时看房 17614625290</t>
   </si>
   <si>
@@ -46,9 +64,6 @@
     <t>https://www.douban.com/group/topic/307674663/</t>
   </si>
   <si>
-    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
-  </si>
-  <si>
     <t>06-21 21:18</t>
   </si>
   <si>
@@ -305,9 +320,6 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307534373/</t>
-  </si>
-  <si>
-    <t>整租8号线杨思【小整租】独卫独厨 押一付一 3200 包网费水费 地铁五分钟 房东直签</t>
   </si>
   <si>
     <t>06-18 19:11</t>
@@ -1219,7 +1231,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1287,7 +1299,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1309,7 +1321,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -1331,29 +1343,29 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -1375,18 +1387,18 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
@@ -1419,18 +1431,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
         <v>49</v>
@@ -1441,7 +1453,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
         <v>51</v>
@@ -1452,29 +1464,29 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
@@ -1485,18 +1497,18 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
         <v>60</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
         <v>63</v>
@@ -1507,51 +1519,51 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
         <v>74</v>
@@ -1562,7 +1574,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
         <v>76</v>
@@ -1584,29 +1596,29 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
         <v>81</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
         <v>84</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
         <v>87</v>
@@ -1617,29 +1629,29 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
         <v>94</v>
@@ -1650,40 +1662,40 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
         <v>96</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" t="s">
         <v>99</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="B42" t="s">
         <v>104</v>
@@ -1694,7 +1706,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
         <v>106</v>
@@ -1705,7 +1717,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
         <v>108</v>
@@ -1716,7 +1728,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
         <v>110</v>
@@ -1727,29 +1739,29 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
         <v>112</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="B48" t="s">
         <v>117</v>
@@ -1760,128 +1772,128 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="B51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B52" t="s">
-        <v>126</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="B53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" t="s">
         <v>130</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B55" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" t="s">
         <v>135</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B57" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" t="s">
         <v>140</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="B60" t="s">
         <v>145</v>
@@ -1892,7 +1904,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B61" t="s">
         <v>147</v>
@@ -1903,40 +1915,40 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" t="s">
         <v>149</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="B63" t="s">
-        <v>153</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="B64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="B65" t="s">
         <v>157</v>
@@ -1947,51 +1959,51 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
         <v>159</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="B67" t="s">
-        <v>163</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B68" t="s">
-        <v>166</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>166</v>
       </c>
       <c r="B69" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
       <c r="B70" t="s">
         <v>170</v>
@@ -2002,32 +2014,32 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>176</v>
@@ -2035,68 +2047,90 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" t="s">
         <v>177</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B75" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>181</v>
+      </c>
+      <c r="B76" t="s">
         <v>182</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B77" t="s">
+        <v>184</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>186</v>
+      </c>
+      <c r="B78" t="s">
         <v>187</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>189</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B79" t="s">
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
         <v>191</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="B80" t="s">
         <v>192</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>194</v>
+      </c>
+      <c r="B81" t="s">
+        <v>195</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2179,6 +2213,8 @@
     <hyperlink ref="C77" r:id="rId76"/>
     <hyperlink ref="C78" r:id="rId77"/>
     <hyperlink ref="C79" r:id="rId78"/>
+    <hyperlink ref="C80" r:id="rId79"/>
+    <hyperlink ref="C81" r:id="rId80"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2210,431 +2246,431 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B14" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B17" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B27" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B29" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B31" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B32" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B34" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B37" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B40" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2709,46 +2745,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2788,35 +2824,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="292">
   <si>
     <t>标题</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-22 14:04</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307705470/</t>
   </si>
   <si>
     <t>06-22 09:53</t>
@@ -1231,7 +1237,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1266,40 +1272,40 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1310,18 +1316,18 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -1332,18 +1338,18 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1354,40 +1360,40 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
@@ -1398,29 +1404,29 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
         <v>41</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
         <v>44</v>
@@ -1431,18 +1437,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
         <v>49</v>
@@ -1464,18 +1470,18 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
         <v>53</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
         <v>56</v>
@@ -1486,7 +1492,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
@@ -1508,29 +1514,29 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
         <v>62</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
         <v>65</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
         <v>68</v>
@@ -1563,7 +1569,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
         <v>74</v>
@@ -1574,7 +1580,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>76</v>
@@ -1585,18 +1591,18 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
         <v>78</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
         <v>81</v>
@@ -1607,40 +1613,40 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
         <v>83</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
         <v>86</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" t="s">
         <v>89</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="B37" t="s">
         <v>92</v>
@@ -1662,7 +1668,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
         <v>96</v>
@@ -1673,18 +1679,18 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" t="s">
         <v>98</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
         <v>101</v>
@@ -1695,18 +1701,18 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
         <v>103</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="B43" t="s">
         <v>106</v>
@@ -1717,7 +1723,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
         <v>108</v>
@@ -1761,18 +1767,18 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
         <v>116</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="B49" t="s">
         <v>119</v>
@@ -1783,7 +1789,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
         <v>121</v>
@@ -1794,13 +1800,13 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1808,7 +1814,7 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>125</v>
@@ -1816,29 +1822,29 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
         <v>126</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" t="s">
         <v>129</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="B55" t="s">
         <v>132</v>
@@ -1849,18 +1855,18 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
         <v>134</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="B57" t="s">
         <v>137</v>
@@ -1871,18 +1877,18 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
         <v>139</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="B59" t="s">
         <v>142</v>
@@ -1893,18 +1899,18 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
         <v>144</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="B61" t="s">
         <v>147</v>
@@ -1915,7 +1921,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B62" t="s">
         <v>149</v>
@@ -1926,7 +1932,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B63" t="s">
         <v>151</v>
@@ -1937,29 +1943,29 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
         <v>153</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65" t="s">
         <v>156</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="B66" t="s">
         <v>159</v>
@@ -1970,7 +1976,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="B67" t="s">
         <v>161</v>
@@ -1981,40 +1987,40 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" t="s">
         <v>163</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
+        <v>165</v>
+      </c>
+      <c r="B69" t="s">
         <v>166</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>168</v>
+      </c>
+      <c r="B70" t="s">
         <v>169</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="B71" t="s">
         <v>172</v>
@@ -2036,21 +2042,21 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B74" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>178</v>
@@ -2058,7 +2064,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B75" t="s">
         <v>179</v>
@@ -2069,18 +2075,18 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
         <v>181</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="B77" t="s">
         <v>184</v>
@@ -2091,18 +2097,18 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
         <v>186</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="B79" t="s">
         <v>189</v>
@@ -2113,24 +2119,35 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
         <v>191</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
+        <v>193</v>
+      </c>
+      <c r="B81" t="s">
         <v>194</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C81" s="1" t="s">
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
         <v>196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>197</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2215,6 +2232,7 @@
     <hyperlink ref="C79" r:id="rId78"/>
     <hyperlink ref="C80" r:id="rId79"/>
     <hyperlink ref="C81" r:id="rId80"/>
+    <hyperlink ref="C82" r:id="rId81"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2246,57 +2264,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2304,98 +2322,98 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B14" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2403,54 +2421,54 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17" t="s">
         <v>228</v>
       </c>
-      <c r="B17" t="s">
-        <v>226</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2458,98 +2476,98 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B23" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B25" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B29" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2557,65 +2575,65 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B31" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B32" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B34" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2623,54 +2641,54 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B40" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2745,46 +2763,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -2824,35 +2842,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="296">
   <si>
     <t>标题</t>
   </si>
@@ -31,6 +31,21 @@
     <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
   </si>
   <si>
+    <t>06-22 17:44</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307713964/</t>
+  </si>
+  <si>
+    <t>浦东2/6/7/11/13/18号地铁沿线，房东直租单间独卫、主卧独卫、独立厨卫一室户、整租两房、三房，可押一付一，可办理居住证</t>
+  </si>
+  <si>
+    <t>06-22 17:41</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307713812/</t>
+  </si>
+  <si>
     <t>06-22 14:04</t>
   </si>
   <si>
@@ -104,9 +119,6 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307649138/</t>
-  </si>
-  <si>
-    <t>浦东2/6/7/11/13/18号地铁沿线，房东直租单间独卫、主卧独卫、独立厨卫一室户、整租两房、三房，可押一付一，可办理居住证</t>
   </si>
   <si>
     <t>06-21 13:24</t>
@@ -1237,7 +1249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1272,18 +1284,18 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1294,29 +1306,29 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -1382,95 +1394,95 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
@@ -1481,29 +1493,29 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
         <v>55</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
         <v>60</v>
@@ -1514,7 +1526,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
@@ -1525,40 +1537,40 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
         <v>64</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
         <v>72</v>
@@ -1580,7 +1592,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
         <v>76</v>
@@ -1602,13 +1614,13 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
         <v>80</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1616,59 +1628,59 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
         <v>85</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B39" t="s">
         <v>96</v>
@@ -1679,7 +1691,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
         <v>98</v>
@@ -1690,51 +1702,51 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
         <v>100</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
         <v>105</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B45" t="s">
         <v>110</v>
@@ -1745,7 +1757,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
         <v>112</v>
@@ -1778,29 +1790,29 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
         <v>118</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="B51" t="s">
         <v>123</v>
@@ -1811,68 +1823,68 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="B54" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B55" t="s">
-        <v>132</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="B56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" t="s">
         <v>136</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1880,21 +1892,21 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" t="s">
         <v>141</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1902,21 +1914,21 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" t="s">
         <v>146</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1924,15 +1936,15 @@
         <v>3</v>
       </c>
       <c r="B62" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="B63" t="s">
         <v>151</v>
@@ -1954,40 +1966,40 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
         <v>155</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>157</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B66" t="s">
-        <v>159</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>159</v>
       </c>
       <c r="B67" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="B68" t="s">
         <v>163</v>
@@ -1998,51 +2010,51 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
         <v>165</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>167</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B70" t="s">
-        <v>169</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
+        <v>169</v>
+      </c>
+      <c r="B71" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B71" t="s">
-        <v>172</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="B72" t="s">
+        <v>173</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="B73" t="s">
         <v>176</v>
@@ -2053,32 +2065,32 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>182</v>
@@ -2086,13 +2098,13 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
         <v>183</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2100,21 +2112,21 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
+        <v>185</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>187</v>
+      </c>
+      <c r="B79" t="s">
         <v>188</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2122,32 +2134,54 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
+        <v>190</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
+        <v>192</v>
+      </c>
+      <c r="B81" t="s">
         <v>193</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>195</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B82" t="s">
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
         <v>197</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="B83" t="s">
         <v>198</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>200</v>
+      </c>
+      <c r="B84" t="s">
+        <v>201</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2233,6 +2267,8 @@
     <hyperlink ref="C80" r:id="rId79"/>
     <hyperlink ref="C81" r:id="rId80"/>
     <hyperlink ref="C82" r:id="rId81"/>
+    <hyperlink ref="C83" r:id="rId82"/>
+    <hyperlink ref="C84" r:id="rId83"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2264,57 +2300,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2322,98 +2358,98 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B14" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2421,54 +2457,54 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B17" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2476,98 +2512,98 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B22" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B23" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B28" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B29" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2575,65 +2611,65 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B31" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2641,54 +2677,54 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B37" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B40" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2763,46 +2799,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -2842,35 +2878,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="301">
   <si>
     <t>标题</t>
   </si>
@@ -31,6 +31,21 @@
     <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
   </si>
   <si>
+    <t>06-22 19:35</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307719804/</t>
+  </si>
+  <si>
+    <t>6号线上南路站 【小整租】独卫独厨 带阳台 民用水电 押一付一 3000</t>
+  </si>
+  <si>
+    <t>06-22 19:01</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307718141/</t>
+  </si>
+  <si>
     <t>06-22 17:44</t>
   </si>
   <si>
@@ -580,9 +595,6 @@
     <t>https://www.douban.com/group/topic/307381348/</t>
   </si>
   <si>
-    <t>6号线上南路站 【小整租】独卫独厨 带阳台 民用水电 押一付一 3000</t>
-  </si>
-  <si>
     <t>06-15 12:53</t>
   </si>
   <si>
@@ -626,6 +638,9 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307239290/</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307718187/</t>
   </si>
   <si>
     <t>9号线九亭地铁口三百米精装修全配主卧，有储藏室独卫飘窗，可以做饭，民用水电煤燃气热水器13817842689（微信同号）</t>
@@ -1249,7 +1264,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1306,18 +1321,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -1328,29 +1343,29 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -1405,18 +1420,18 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -1427,18 +1442,18 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
@@ -1460,18 +1475,18 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
@@ -1493,7 +1508,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
@@ -1504,18 +1519,18 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
         <v>60</v>
@@ -1526,7 +1541,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
@@ -1537,29 +1552,29 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
         <v>69</v>
@@ -1570,18 +1585,18 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
         <v>71</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
         <v>74</v>
@@ -1592,13 +1607,13 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1606,21 +1621,21 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1628,15 +1643,15 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
         <v>85</v>
@@ -1669,29 +1684,29 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
         <v>92</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" t="s">
         <v>95</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
         <v>98</v>
@@ -1702,29 +1717,29 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
         <v>105</v>
@@ -1735,7 +1750,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s">
         <v>107</v>
@@ -1757,7 +1772,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
         <v>112</v>
@@ -1768,24 +1783,24 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1793,10 +1808,10 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1804,15 +1819,15 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="B51" t="s">
         <v>123</v>
@@ -1823,7 +1838,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B52" t="s">
         <v>125</v>
@@ -1834,43 +1849,43 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="B53" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
         <v>132</v>
-      </c>
-      <c r="B56" t="s">
-        <v>133</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>134</v>
@@ -1878,18 +1893,18 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
         <v>135</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="B58" t="s">
         <v>138</v>
@@ -1966,13 +1981,13 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>155</v>
       </c>
       <c r="B65" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1980,15 +1995,15 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
         <v>160</v>
@@ -1999,18 +2014,18 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
         <v>162</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="B69" t="s">
         <v>165</v>
@@ -2021,18 +2036,18 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="B70" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>169</v>
+        <v>3</v>
       </c>
       <c r="B71" t="s">
         <v>170</v>
@@ -2043,29 +2058,29 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
         <v>172</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" t="s">
         <v>175</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="B74" t="s">
         <v>178</v>
@@ -2076,51 +2091,51 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="B75" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B78" t="s">
         <v>185</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="B79" t="s">
         <v>188</v>
@@ -2142,13 +2157,13 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
         <v>192</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2156,32 +2171,54 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
+        <v>194</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
+        <v>196</v>
+      </c>
+      <c r="B83" t="s">
         <v>197</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>199</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B84" t="s">
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
         <v>201</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="B85" t="s">
         <v>202</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>204</v>
+      </c>
+      <c r="B86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2269,6 +2306,8 @@
     <hyperlink ref="C82" r:id="rId81"/>
     <hyperlink ref="C83" r:id="rId82"/>
     <hyperlink ref="C84" r:id="rId83"/>
+    <hyperlink ref="C85" r:id="rId84"/>
+    <hyperlink ref="C86" r:id="rId85"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2276,7 +2315,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2300,189 +2339,189 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="B15" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>234</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="B18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2490,54 +2529,54 @@
         <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>243</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>243</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2545,186 +2584,197 @@
         <v>145</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B25" t="s">
-        <v>249</v>
+        <v>151</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="B28" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B29" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>263</v>
+        <v>196</v>
       </c>
       <c r="B32" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>268</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>273</v>
       </c>
       <c r="B35" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="B38" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>281</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>286</v>
+      </c>
+      <c r="B41" t="s">
+        <v>287</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2768,6 +2818,7 @@
     <hyperlink ref="C38" r:id="rId37"/>
     <hyperlink ref="C39" r:id="rId38"/>
     <hyperlink ref="C40" r:id="rId39"/>
+    <hyperlink ref="C41" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2799,46 +2850,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B5" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -2878,35 +2929,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="303">
   <si>
     <t>标题</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-22 21:11</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307724993/</t>
   </si>
   <si>
     <t>06-22 19:35</t>
@@ -1264,7 +1270,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1299,18 +1305,18 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1321,18 +1327,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -1354,40 +1360,40 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -1398,18 +1404,18 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -1420,18 +1426,18 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -1442,7 +1448,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
@@ -1453,29 +1459,29 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
         <v>47</v>
@@ -1486,29 +1492,29 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
         <v>52</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
@@ -1519,18 +1525,18 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
         <v>60</v>
@@ -1552,18 +1558,18 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
         <v>64</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
         <v>67</v>
@@ -1574,7 +1580,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
         <v>69</v>
@@ -1596,29 +1602,29 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
         <v>73</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
         <v>76</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
         <v>79</v>
@@ -1651,7 +1657,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
         <v>85</v>
@@ -1662,7 +1668,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
         <v>87</v>
@@ -1673,18 +1679,18 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
         <v>89</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
         <v>92</v>
@@ -1695,40 +1701,40 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
         <v>94</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" t="s">
         <v>97</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" t="s">
         <v>100</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="B42" t="s">
         <v>103</v>
@@ -1750,7 +1756,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
         <v>107</v>
@@ -1761,18 +1767,18 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" t="s">
         <v>109</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="B46" t="s">
         <v>112</v>
@@ -1783,18 +1789,18 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
         <v>114</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="B48" t="s">
         <v>117</v>
@@ -1805,7 +1811,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
         <v>119</v>
@@ -1849,18 +1855,18 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
         <v>127</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="B54" t="s">
         <v>130</v>
@@ -1871,7 +1877,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B55" t="s">
         <v>132</v>
@@ -1882,13 +1888,13 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1896,7 +1902,7 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>136</v>
@@ -1904,29 +1910,29 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
         <v>137</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" t="s">
         <v>140</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="B60" t="s">
         <v>143</v>
@@ -1937,18 +1943,18 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
         <v>145</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="B62" t="s">
         <v>148</v>
@@ -1959,18 +1965,18 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
         <v>150</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B64" t="s">
         <v>153</v>
@@ -1981,18 +1987,18 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
         <v>155</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="B66" t="s">
         <v>158</v>
@@ -2003,7 +2009,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B67" t="s">
         <v>160</v>
@@ -2014,7 +2020,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B68" t="s">
         <v>162</v>
@@ -2025,29 +2031,29 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
         <v>164</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B70" t="s">
         <v>167</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>169</v>
       </c>
       <c r="B71" t="s">
         <v>170</v>
@@ -2058,7 +2064,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="B72" t="s">
         <v>172</v>
@@ -2069,40 +2075,40 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
         <v>174</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
+        <v>176</v>
+      </c>
+      <c r="B74" t="s">
         <v>177</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>179</v>
+      </c>
+      <c r="B75" t="s">
         <v>180</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>182</v>
       </c>
       <c r="B76" t="s">
         <v>183</v>
@@ -2124,21 +2130,21 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>189</v>
@@ -2146,7 +2152,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B80" t="s">
         <v>190</v>
@@ -2157,7 +2163,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B81" t="s">
         <v>192</v>
@@ -2168,7 +2174,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
         <v>194</v>
@@ -2179,18 +2185,18 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
         <v>196</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>3</v>
+        <v>198</v>
       </c>
       <c r="B84" t="s">
         <v>199</v>
@@ -2201,24 +2207,35 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
         <v>201</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
+        <v>203</v>
+      </c>
+      <c r="B86" t="s">
         <v>204</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C86" s="1" t="s">
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
         <v>206</v>
+      </c>
+      <c r="B87" t="s">
+        <v>207</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2308,6 +2325,7 @@
     <hyperlink ref="C84" r:id="rId83"/>
     <hyperlink ref="C85" r:id="rId84"/>
     <hyperlink ref="C86" r:id="rId85"/>
+    <hyperlink ref="C87" r:id="rId86"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2339,68 +2357,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2408,98 +2426,98 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B15" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2507,54 +2525,54 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" t="s">
         <v>239</v>
       </c>
-      <c r="B18" t="s">
-        <v>237</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2562,98 +2580,98 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B28" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2661,65 +2679,65 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B32" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2727,54 +2745,54 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B38" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B41" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2850,46 +2868,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -2929,35 +2947,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="306">
   <si>
     <t>标题</t>
   </si>
@@ -890,6 +890,15 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/306102923/</t>
+  </si>
+  <si>
+    <t>房东直租，8号线杨思地铁站，【小整租】独立一室户，燃气厨房独卫，水电民用，近地铁口，空间大适合两个人住.月付3000</t>
+  </si>
+  <si>
+    <t>06-23 07:45</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307741029/</t>
   </si>
   <si>
     <t>06-19 10:50</t>
@@ -2844,7 +2853,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2868,46 +2877,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>291</v>
       </c>
       <c r="B2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>203</v>
       </c>
-      <c r="B5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>296</v>
+      <c r="B6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -2916,6 +2936,7 @@
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2950,10 +2971,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2961,10 +2982,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2972,10 +2993,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="311">
   <si>
     <t>标题</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-23 09:18</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307742361/</t>
+  </si>
+  <si>
+    <t>整租|浦西1/9/10/12/15号地铁沿线，房东直租单间独卫、主卧独卫、独立厨卫一室户、整租一房、两房、三房、四房。可押一付一，非诚勿扰!</t>
+  </si>
+  <si>
+    <t>06-23 09:06</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307742084/</t>
   </si>
   <si>
     <t>06-22 21:11</t>
@@ -1279,7 +1294,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1314,18 +1329,18 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1369,18 +1384,18 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -1391,29 +1406,29 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -1468,18 +1483,18 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
         <v>44</v>
@@ -1490,18 +1505,18 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>46</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
@@ -1523,18 +1538,18 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
@@ -1556,7 +1571,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
@@ -1567,18 +1582,18 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
         <v>67</v>
@@ -1589,7 +1604,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
         <v>69</v>
@@ -1600,29 +1615,29 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
         <v>76</v>
@@ -1633,18 +1648,18 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
         <v>78</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
         <v>81</v>
@@ -1655,13 +1670,13 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1669,21 +1684,21 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1691,15 +1706,15 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
         <v>92</v>
@@ -1732,29 +1747,29 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
         <v>99</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" t="s">
         <v>102</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="B43" t="s">
         <v>105</v>
@@ -1765,29 +1780,29 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
         <v>112</v>
@@ -1798,7 +1813,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
         <v>114</v>
@@ -1820,7 +1835,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
         <v>119</v>
@@ -1831,24 +1846,24 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1856,10 +1871,10 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1867,15 +1882,15 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="B54" t="s">
         <v>130</v>
@@ -1886,7 +1901,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B55" t="s">
         <v>132</v>
@@ -1897,43 +1912,43 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
         <v>139</v>
-      </c>
-      <c r="B59" t="s">
-        <v>140</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>141</v>
@@ -1941,18 +1956,18 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
         <v>142</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="B61" t="s">
         <v>145</v>
@@ -2029,13 +2044,13 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="B68" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2043,15 +2058,15 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="B70" t="s">
         <v>167</v>
@@ -2062,18 +2077,18 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
         <v>169</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="B72" t="s">
         <v>172</v>
@@ -2084,18 +2099,18 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="B73" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
       <c r="B74" t="s">
         <v>177</v>
@@ -2106,29 +2121,29 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" t="s">
         <v>179</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>181</v>
+      </c>
+      <c r="B76" t="s">
         <v>182</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>3</v>
+        <v>184</v>
       </c>
       <c r="B77" t="s">
         <v>185</v>
@@ -2139,57 +2154,57 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>3</v>
+        <v>187</v>
       </c>
       <c r="B78" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B81" t="s">
         <v>192</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B82" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2197,15 +2212,15 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="B84" t="s">
         <v>199</v>
@@ -2238,13 +2253,35 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
         <v>206</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C87" s="1" t="s">
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
         <v>208</v>
+      </c>
+      <c r="B88" t="s">
+        <v>209</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>211</v>
+      </c>
+      <c r="B89" t="s">
+        <v>212</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2335,6 +2372,8 @@
     <hyperlink ref="C85" r:id="rId84"/>
     <hyperlink ref="C86" r:id="rId85"/>
     <hyperlink ref="C87" r:id="rId86"/>
+    <hyperlink ref="C88" r:id="rId87"/>
+    <hyperlink ref="C89" r:id="rId88"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2366,68 +2405,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2435,98 +2474,98 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B15" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2534,54 +2573,54 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B18" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2589,98 +2628,98 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B23" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B24" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B28" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B29" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2688,65 +2727,65 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B32" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B33" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2754,54 +2793,54 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B38" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B41" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -2877,57 +2916,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B6" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -2968,35 +3007,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="313">
   <si>
     <t>标题</t>
   </si>
@@ -659,6 +659,12 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307239290/</t>
+  </si>
+  <si>
+    <t>06-23 10:25</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307744341/</t>
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307718187/</t>
@@ -2381,7 +2387,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2405,29 +2411,29 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
         <v>218</v>
@@ -2438,7 +2444,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>220</v>
@@ -2449,7 +2455,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>222</v>
@@ -2460,7 +2466,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
         <v>224</v>
@@ -2471,7 +2477,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>226</v>
@@ -2482,7 +2488,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>228</v>
@@ -2493,7 +2499,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
         <v>230</v>
@@ -2504,7 +2510,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
         <v>232</v>
@@ -2515,7 +2521,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
         <v>234</v>
@@ -2526,7 +2532,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
         <v>236</v>
@@ -2537,7 +2543,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
         <v>238</v>
@@ -2548,7 +2554,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
         <v>240</v>
@@ -2559,7 +2565,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="B16" t="s">
         <v>242</v>
@@ -2570,7 +2576,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
         <v>244</v>
@@ -2581,10 +2587,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
         <v>246</v>
-      </c>
-      <c r="B18" t="s">
-        <v>244</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>247</v>
@@ -2592,10 +2598,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>249</v>
@@ -2603,7 +2609,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
         <v>250</v>
@@ -2614,21 +2620,21 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>252</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>253</v>
+        <v>135</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>254</v>
@@ -2636,18 +2642,18 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
         <v>255</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="B24" t="s">
         <v>258</v>
@@ -2658,21 +2664,21 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>260</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B26" t="s">
-        <v>261</v>
+        <v>158</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>262</v>
@@ -2680,7 +2686,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s">
         <v>263</v>
@@ -2691,7 +2697,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
         <v>265</v>
@@ -2702,7 +2708,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="B29" t="s">
         <v>267</v>
@@ -2713,7 +2719,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="B30" t="s">
         <v>269</v>
@@ -2724,7 +2730,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
         <v>271</v>
@@ -2735,7 +2741,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
         <v>273</v>
@@ -2746,18 +2752,18 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" t="s">
         <v>275</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>277</v>
       </c>
       <c r="B34" t="s">
         <v>278</v>
@@ -2768,18 +2774,18 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s">
         <v>280</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s">
         <v>283</v>
@@ -2790,7 +2796,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
         <v>285</v>
@@ -2801,7 +2807,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>147</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
         <v>287</v>
@@ -2812,7 +2818,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="B39" t="s">
         <v>289</v>
@@ -2823,7 +2829,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
         <v>291</v>
@@ -2834,13 +2840,24 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s">
         <v>293</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C41" s="1" t="s">
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
         <v>295</v>
+      </c>
+      <c r="B42" t="s">
+        <v>296</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -2885,6 +2902,7 @@
     <hyperlink ref="C39" r:id="rId38"/>
     <hyperlink ref="C40" r:id="rId39"/>
     <hyperlink ref="C41" r:id="rId40"/>
+    <hyperlink ref="C42" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2916,13 +2934,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2930,10 +2948,10 @@
         <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2941,10 +2959,10 @@
         <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2952,10 +2970,10 @@
         <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2963,10 +2981,10 @@
         <v>208</v>
       </c>
       <c r="B6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -3010,10 +3028,10 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3021,10 +3039,10 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3032,10 +3050,10 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="318">
   <si>
     <t>标题</t>
   </si>
@@ -28,7 +28,22 @@
     <t>链接</t>
   </si>
   <si>
+    <t>❤️ ❤️12号线七莘路 地铁站500米 独厨独卫一室户 精装修全新家电家具 电梯房高层 房租3500 性价比超高</t>
+  </si>
+  <si>
+    <t>06-23 14:02</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307752554/</t>
+  </si>
+  <si>
     <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-23 12:15</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307748323/</t>
   </si>
   <si>
     <t>06-23 09:18</t>
@@ -1300,7 +1315,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1346,7 +1361,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1357,18 +1372,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -1379,7 +1394,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -1401,7 +1416,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -1412,18 +1427,18 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1434,29 +1449,29 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -1478,7 +1493,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
@@ -1500,7 +1515,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
         <v>44</v>
@@ -1511,18 +1526,18 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
@@ -1533,18 +1548,18 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
@@ -1566,18 +1581,18 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
         <v>59</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
@@ -1599,7 +1614,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>67</v>
@@ -1610,18 +1625,18 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
         <v>72</v>
@@ -1632,7 +1647,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
         <v>74</v>
@@ -1643,29 +1658,29 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
         <v>81</v>
@@ -1676,18 +1691,18 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
         <v>83</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
         <v>86</v>
@@ -1698,51 +1713,51 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
         <v>97</v>
@@ -1753,7 +1768,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
         <v>99</v>
@@ -1775,29 +1790,29 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
         <v>104</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" t="s">
         <v>107</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B45" t="s">
         <v>110</v>
@@ -1808,29 +1823,29 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
         <v>117</v>
@@ -1841,7 +1856,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
         <v>119</v>
@@ -1863,7 +1878,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
         <v>124</v>
@@ -1874,51 +1889,51 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
         <v>135</v>
@@ -1929,7 +1944,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
         <v>137</v>
@@ -1940,43 +1955,43 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
         <v>144</v>
-      </c>
-      <c r="B61" t="s">
-        <v>145</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>146</v>
@@ -1984,18 +1999,18 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
         <v>147</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="B63" t="s">
         <v>150</v>
@@ -2017,7 +2032,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
         <v>155</v>
@@ -2039,7 +2054,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
         <v>160</v>
@@ -2061,7 +2076,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
         <v>165</v>
@@ -2072,29 +2087,29 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="B70" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="B72" t="s">
         <v>172</v>
@@ -2105,18 +2120,18 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
         <v>174</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="B74" t="s">
         <v>177</v>
@@ -2127,18 +2142,18 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="B75" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>181</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s">
         <v>182</v>
@@ -2149,29 +2164,29 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77" t="s">
         <v>184</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>186</v>
+      </c>
+      <c r="B78" t="s">
         <v>187</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>3</v>
+        <v>189</v>
       </c>
       <c r="B79" t="s">
         <v>190</v>
@@ -2182,73 +2197,73 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>3</v>
+        <v>192</v>
       </c>
       <c r="B80" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B83" t="s">
         <v>197</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B84" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="B86" t="s">
         <v>204</v>
@@ -2259,7 +2274,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
         <v>206</v>
@@ -2281,13 +2296,35 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
         <v>211</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C89" s="1" t="s">
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
         <v>213</v>
+      </c>
+      <c r="B90" t="s">
+        <v>214</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>216</v>
+      </c>
+      <c r="B91" t="s">
+        <v>217</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2380,6 +2417,8 @@
     <hyperlink ref="C87" r:id="rId86"/>
     <hyperlink ref="C88" r:id="rId87"/>
     <hyperlink ref="C89" r:id="rId88"/>
+    <hyperlink ref="C90" r:id="rId89"/>
+    <hyperlink ref="C91" r:id="rId90"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2411,453 +2450,453 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B16" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B19" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B24" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B25" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B27" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B29" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B30" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B33" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B36" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B39" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B42" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -2934,57 +2973,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B6" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -3025,35 +3064,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="322">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,24 @@
     <t>链接</t>
   </si>
   <si>
+    <t>2.11号线，江苏路超棒主卧！朝南带阳台空间大，合租/🉑住2人/主卧独卫，精装修押一付一，随时看房 17614625290</t>
+  </si>
+  <si>
+    <t>06-23 17:16</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307760094/</t>
+  </si>
+  <si>
+    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-23 16:46</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307758898/</t>
+  </si>
+  <si>
     <t>❤️ ❤️12号线七莘路 地铁站500米 独厨独卫一室户 精装修全新家电家具 电梯房高层 房租3500 性价比超高</t>
   </si>
   <si>
@@ -37,9 +55,6 @@
     <t>https://www.douban.com/group/topic/307752554/</t>
   </si>
   <si>
-    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
-  </si>
-  <si>
     <t>06-23 12:15</t>
   </si>
   <si>
@@ -116,9 +131,6 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307694161/</t>
-  </si>
-  <si>
-    <t>2.11号线，江苏路超棒主卧！朝南带阳台空间大，合租/🉑住2人/主卧独卫，精装修押一付一，随时看房 17614625290</t>
   </si>
   <si>
     <t>06-21 23:10</t>
@@ -1315,7 +1327,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1361,18 +1373,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1394,18 +1406,18 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -1449,18 +1461,18 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -1471,46 +1483,46 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1518,21 +1530,21 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
         <v>46</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1540,15 +1552,15 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
         <v>51</v>
@@ -1559,95 +1571,95 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
         <v>53</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
         <v>61</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
         <v>69</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
         <v>74</v>
@@ -1658,29 +1670,29 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
         <v>76</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
         <v>81</v>
@@ -1691,7 +1703,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
         <v>83</v>
@@ -1702,40 +1714,40 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
         <v>85</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
         <v>93</v>
@@ -1757,7 +1769,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
         <v>97</v>
@@ -1779,13 +1791,13 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" t="s">
         <v>101</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1793,59 +1805,59 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" t="s">
         <v>106</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B45" t="s">
-        <v>110</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B46" t="s">
-        <v>113</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="B47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="B48" t="s">
         <v>117</v>
@@ -1856,7 +1868,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
         <v>119</v>
@@ -1867,51 +1879,51 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
         <v>121</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" t="s">
         <v>126</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="B54" t="s">
         <v>131</v>
@@ -1922,7 +1934,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
         <v>133</v>
@@ -1955,29 +1967,29 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
         <v>139</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="B60" t="s">
         <v>144</v>
@@ -1988,68 +2000,68 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="B64" t="s">
-        <v>153</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="B65" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66" t="s">
         <v>157</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2057,21 +2069,21 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68" t="s">
         <v>162</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2079,21 +2091,21 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B70" t="s">
         <v>167</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2101,15 +2113,15 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="B72" t="s">
         <v>172</v>
@@ -2131,40 +2143,40 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" t="s">
         <v>176</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>178</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B75" t="s">
-        <v>180</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="B76" t="s">
+        <v>181</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="B77" t="s">
         <v>184</v>
@@ -2175,51 +2187,51 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
         <v>186</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" t="s">
+        <v>188</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B79" t="s">
-        <v>190</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
+        <v>190</v>
+      </c>
+      <c r="B80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B80" t="s">
-        <v>193</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>193</v>
       </c>
       <c r="B81" t="s">
+        <v>194</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>196</v>
       </c>
       <c r="B82" t="s">
         <v>197</v>
@@ -2230,32 +2242,32 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B85" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>203</v>
@@ -2263,7 +2275,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B86" t="s">
         <v>204</v>
@@ -2285,13 +2297,13 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" t="s">
         <v>208</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2299,32 +2311,54 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
+        <v>210</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
+        <v>212</v>
+      </c>
+      <c r="B90" t="s">
         <v>213</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>215</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B91" t="s">
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
         <v>217</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="B92" t="s">
         <v>218</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>220</v>
+      </c>
+      <c r="B93" t="s">
+        <v>221</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2419,6 +2453,8 @@
     <hyperlink ref="C89" r:id="rId88"/>
     <hyperlink ref="C90" r:id="rId89"/>
     <hyperlink ref="C91" r:id="rId90"/>
+    <hyperlink ref="C92" r:id="rId91"/>
+    <hyperlink ref="C93" r:id="rId92"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2450,79 +2486,79 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2530,98 +2566,98 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B16" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2629,54 +2665,54 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B19" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2684,98 +2720,98 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B24" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B27" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B29" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B30" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2783,65 +2819,65 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B33" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B34" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B35" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B36" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2849,54 +2885,54 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B39" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B42" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -2973,57 +3009,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B6" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -3064,35 +3100,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="330">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,33 @@
     <t>链接</t>
   </si>
   <si>
+    <t>6号线上南站 11号线三林站 双线地铁口小整租独立一室户独厨独卫 3300月</t>
+  </si>
+  <si>
+    <t>06-23 19:33</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307765542/</t>
+  </si>
+  <si>
+    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-23 19:21</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307765130/</t>
+  </si>
+  <si>
+    <t>浦东2/6/7/11/13/18号地铁沿线，房东直租单间独卫、主卧独卫、独立厨卫一室户、整租两房、三房，可押一付一，可办理居住证</t>
+  </si>
+  <si>
+    <t>06-23 19:00</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307764253/</t>
+  </si>
+  <si>
     <t>2.11号线，江苏路超棒主卧！朝南带阳台空间大，合租/🉑住2人/主卧独卫，精装修押一付一，随时看房 17614625290</t>
   </si>
   <si>
@@ -37,9 +64,6 @@
     <t>https://www.douban.com/group/topic/307760094/</t>
   </si>
   <si>
-    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
-  </si>
-  <si>
     <t>06-23 16:46</t>
   </si>
   <si>
@@ -103,9 +127,6 @@
     <t>https://www.douban.com/group/topic/307713964/</t>
   </si>
   <si>
-    <t>浦东2/6/7/11/13/18号地铁沿线，房东直租单间独卫、主卧独卫、独立厨卫一室户、整租两房、三房，可押一付一，可办理居住证</t>
-  </si>
-  <si>
     <t>06-22 17:41</t>
   </si>
   <si>
@@ -409,9 +430,6 @@
     <t>https://www.douban.com/group/topic/307532663/</t>
   </si>
   <si>
-    <t>6号线上南站 11号线三林站 双线地铁口小整租独立一室户独厨独卫 3300月</t>
-  </si>
-  <si>
     <t>06-18 19:08</t>
   </si>
   <si>
@@ -688,6 +706,9 @@
     <t>https://www.douban.com/group/topic/307239290/</t>
   </si>
   <si>
+    <t>https://www.douban.com/group/topic/307765566/</t>
+  </si>
+  <si>
     <t>06-23 10:25</t>
   </si>
   <si>
@@ -938,6 +959,9 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/306102923/</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307765552/</t>
   </si>
   <si>
     <t>房东直租，8号线杨思地铁站，【小整租】独立一室户，燃气厨房独卫，水电民用，近地铁口，空间大适合两个人住.月付3000</t>
@@ -1327,7 +1351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1384,13 +1408,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1398,21 +1422,21 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1420,10 +1444,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1431,21 +1455,21 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1453,15 +1477,15 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -1472,13 +1496,13 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1486,15 +1510,15 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
@@ -1505,7 +1529,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
@@ -1516,18 +1540,18 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
@@ -1538,18 +1562,18 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
@@ -1560,18 +1584,18 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
         <v>53</v>
@@ -1582,7 +1606,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
         <v>55</v>
@@ -1604,73 +1628,73 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
         <v>60</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
         <v>65</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
         <v>68</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
         <v>73</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
         <v>76</v>
@@ -1681,7 +1705,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
         <v>78</v>
@@ -1703,7 +1727,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
         <v>83</v>
@@ -1725,18 +1749,18 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
         <v>90</v>
@@ -1747,13 +1771,13 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
         <v>92</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1761,15 +1785,15 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="B40" t="s">
         <v>97</v>
@@ -1780,24 +1804,24 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1805,15 +1829,15 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
         <v>106</v>
@@ -1824,7 +1848,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
         <v>108</v>
@@ -1835,51 +1859,51 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
         <v>110</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" t="s">
         <v>113</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B48" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="B49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s">
         <v>121</v>
@@ -1890,18 +1914,18 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
         <v>126</v>
@@ -1912,7 +1936,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
         <v>128</v>
@@ -1923,18 +1947,18 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
         <v>130</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="B55" t="s">
         <v>133</v>
@@ -1945,7 +1969,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B56" t="s">
         <v>135</v>
@@ -1956,7 +1980,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B57" t="s">
         <v>137</v>
@@ -1967,7 +1991,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
         <v>139</v>
@@ -1989,62 +2013,62 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
         <v>143</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B64" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
         <v>154</v>
@@ -2055,13 +2079,13 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B66" t="s">
-        <v>157</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2069,92 +2093,92 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B68" t="s">
-        <v>162</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="B69" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>165</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="B70" t="s">
-        <v>167</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
       <c r="B71" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B72" t="s">
-        <v>172</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="B73" t="s">
+        <v>173</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>177</v>
       </c>
       <c r="B75" t="s">
         <v>178</v>
@@ -2165,24 +2189,24 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
         <v>180</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" t="s">
+        <v>182</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B77" t="s">
-        <v>184</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2190,98 +2214,98 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="B79" t="s">
+        <v>187</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
+        <v>189</v>
+      </c>
+      <c r="B80" t="s">
         <v>190</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="B81" t="s">
-        <v>194</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>196</v>
+        <v>96</v>
       </c>
       <c r="B82" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>196</v>
       </c>
       <c r="B83" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>199</v>
       </c>
       <c r="B84" t="s">
+        <v>200</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="B85" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2289,18 +2313,18 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>209</v>
@@ -2308,7 +2332,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B89" t="s">
         <v>210</v>
@@ -2319,46 +2343,79 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" t="s">
         <v>212</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B91" t="s">
+        <v>214</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>216</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="B92" t="s">
-        <v>218</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
+        <v>218</v>
+      </c>
+      <c r="B93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B93" t="s">
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
         <v>221</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>222</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>223</v>
+      </c>
+      <c r="B95" t="s">
+        <v>224</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>226</v>
+      </c>
+      <c r="B96" t="s">
+        <v>227</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2455,6 +2512,9 @@
     <hyperlink ref="C91" r:id="rId90"/>
     <hyperlink ref="C92" r:id="rId91"/>
     <hyperlink ref="C93" r:id="rId92"/>
+    <hyperlink ref="C94" r:id="rId93"/>
+    <hyperlink ref="C95" r:id="rId94"/>
+    <hyperlink ref="C96" r:id="rId95"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2462,7 +2522,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2486,57 +2546,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>230</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2544,54 +2604,54 @@
         <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2599,340 +2659,351 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>223</v>
       </c>
       <c r="B17" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>257</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>264</v>
       </c>
       <c r="B20" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B21" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>268</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="B23" t="s">
-        <v>264</v>
+        <v>150</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>266</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>161</v>
+        <v>273</v>
       </c>
       <c r="B25" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s">
-        <v>167</v>
+        <v>276</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s">
-        <v>272</v>
+        <v>173</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="B28" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="B30" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="B31" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>212</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>286</v>
+        <v>218</v>
       </c>
       <c r="B34" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>291</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>298</v>
       </c>
       <c r="B37" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="B40" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>304</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>311</v>
+      </c>
+      <c r="B43" t="s">
+        <v>312</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2978,6 +3049,7 @@
     <hyperlink ref="C40" r:id="rId39"/>
     <hyperlink ref="C41" r:id="rId40"/>
     <hyperlink ref="C42" r:id="rId41"/>
+    <hyperlink ref="C43" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2985,7 +3057,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3009,57 +3081,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>307</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>308</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>315</v>
       </c>
       <c r="B3" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>318</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>315</v>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -3069,6 +3152,7 @@
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4"/>
     <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3100,35 +3184,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="332">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,15 @@
     <t>链接</t>
   </si>
   <si>
+    <t>8号线杨思【小整租】独卫独厨 民用水电 地铁五分钟 3000 押一付一 精装拎包入住 房东直签 随时看房</t>
+  </si>
+  <si>
+    <t>06-23 21:26</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307770497/</t>
+  </si>
+  <si>
     <t>6号线上南站 11号线三林站 双线地铁口小整租独立一室户独厨独卫 3300月</t>
   </si>
   <si>
@@ -623,9 +632,6 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307404885/</t>
-  </si>
-  <si>
-    <t>8号线杨思【小整租】独卫独厨 民用水电 地铁五分钟 3000 押一付一 精装拎包入住 房东直签 随时看房</t>
   </si>
   <si>
     <t>06-15 21:10</t>
@@ -1351,7 +1357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1419,18 +1425,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -1441,29 +1447,29 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1474,29 +1480,29 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -1507,13 +1513,13 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1521,37 +1527,37 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
@@ -1562,18 +1568,18 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
@@ -1584,18 +1590,18 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
         <v>53</v>
@@ -1606,18 +1612,18 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
@@ -1628,13 +1634,13 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1642,15 +1648,15 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
         <v>65</v>
@@ -1672,18 +1678,18 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
         <v>73</v>
@@ -1705,18 +1711,18 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
         <v>81</v>
@@ -1727,29 +1733,29 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
         <v>88</v>
@@ -1760,40 +1766,40 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
         <v>97</v>
@@ -1815,35 +1821,35 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1851,26 +1857,26 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
         <v>113</v>
@@ -1881,18 +1887,18 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
         <v>118</v>
@@ -1925,40 +1931,40 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
         <v>133</v>
@@ -1969,84 +1975,84 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="B56" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
         <v>150</v>
@@ -2057,51 +2063,51 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="B64" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B65" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
         <v>157</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
         <v>160</v>
@@ -2123,18 +2129,18 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="B70" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
         <v>168</v>
@@ -2145,18 +2151,18 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="B72" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>172</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
         <v>173</v>
@@ -2167,18 +2173,18 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>175</v>
       </c>
       <c r="B74" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>177</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
         <v>178</v>
@@ -2189,13 +2195,13 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="B76" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2203,26 +2209,26 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>186</v>
+        <v>9</v>
       </c>
       <c r="B79" t="s">
         <v>187</v>
@@ -2244,29 +2250,29 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>192</v>
       </c>
       <c r="B81" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="B83" t="s">
         <v>197</v>
@@ -2299,7 +2305,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B86" t="s">
         <v>205</v>
@@ -2310,7 +2316,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B87" t="s">
         <v>207</v>
@@ -2324,18 +2330,18 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>211</v>
@@ -2343,7 +2349,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B90" t="s">
         <v>212</v>
@@ -2354,7 +2360,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B91" t="s">
         <v>214</v>
@@ -2365,7 +2371,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B92" t="s">
         <v>216</v>
@@ -2376,18 +2382,18 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" t="s">
         <v>218</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="B94" t="s">
         <v>221</v>
@@ -2398,24 +2404,35 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
         <v>223</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
+        <v>225</v>
+      </c>
+      <c r="B96" t="s">
         <v>226</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C96" s="1" t="s">
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
         <v>228</v>
+      </c>
+      <c r="B97" t="s">
+        <v>229</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2515,6 +2532,7 @@
     <hyperlink ref="C94" r:id="rId93"/>
     <hyperlink ref="C95" r:id="rId94"/>
     <hyperlink ref="C96" r:id="rId95"/>
+    <hyperlink ref="C97" r:id="rId96"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2546,464 +2564,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B17" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>266</v>
+      </c>
+      <c r="B20" t="s">
         <v>264</v>
       </c>
-      <c r="B20" t="s">
-        <v>262</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B23" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B25" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B27" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B28" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B30" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>202</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B34" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B35" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B37" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B40" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B43" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -3081,68 +3099,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -3184,35 +3202,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="336">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,24 @@
     <t>链接</t>
   </si>
   <si>
+    <t>整租8号线杨思【小整租】独卫独厨 押一付一 3200 包网费水费 地铁五分钟 房东直签</t>
+  </si>
+  <si>
+    <t>06-24 08:57</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307783210/</t>
+  </si>
+  <si>
+    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-24 08:42</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307782934/</t>
+  </si>
+  <si>
     <t>8号线杨思【小整租】独卫独厨 民用水电 地铁五分钟 3000 押一付一 精装拎包入住 房东直签 随时看房</t>
   </si>
   <si>
@@ -46,9 +64,6 @@
     <t>https://www.douban.com/group/topic/307765542/</t>
   </si>
   <si>
-    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
-  </si>
-  <si>
     <t>06-23 19:21</t>
   </si>
   <si>
@@ -152,9 +167,6 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307695118/</t>
-  </si>
-  <si>
-    <t>整租8号线杨思【小整租】独卫独厨 押一付一 3200 包网费水费 地铁五分钟 房东直签</t>
   </si>
   <si>
     <t>06-22 09:23</t>
@@ -1357,7 +1369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1425,18 +1437,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -1458,7 +1470,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -1469,18 +1481,18 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
@@ -1491,7 +1503,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -1502,18 +1514,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -1524,7 +1536,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -1535,40 +1547,40 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -1579,7 +1591,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
@@ -1590,73 +1602,73 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
         <v>55</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
         <v>60</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
         <v>65</v>
@@ -1667,95 +1679,95 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
         <v>67</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
         <v>75</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
         <v>83</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
         <v>88</v>
@@ -1766,29 +1778,29 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
         <v>90</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s">
         <v>95</v>
@@ -1799,7 +1811,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
         <v>97</v>
@@ -1810,40 +1822,40 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
         <v>99</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B42" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="B43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="B44" t="s">
         <v>107</v>
@@ -1854,7 +1866,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
         <v>109</v>
@@ -1865,7 +1877,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
         <v>111</v>
@@ -1876,7 +1888,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
         <v>113</v>
@@ -1887,73 +1899,73 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" t="s">
         <v>115</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" t="s">
         <v>120</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B51" t="s">
-        <v>124</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B52" t="s">
-        <v>127</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="B53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="B54" t="s">
         <v>131</v>
@@ -1964,7 +1976,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
         <v>133</v>
@@ -1975,29 +1987,29 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
         <v>135</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="B58" t="s">
         <v>140</v>
@@ -2008,7 +2020,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B59" t="s">
         <v>142</v>
@@ -2019,7 +2031,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
         <v>144</v>
@@ -2030,7 +2042,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B61" t="s">
         <v>146</v>
@@ -2041,7 +2053,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
         <v>148</v>
@@ -2052,7 +2064,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
         <v>150</v>
@@ -2063,29 +2075,29 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
         <v>152</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="B66" t="s">
         <v>157</v>
@@ -2096,128 +2108,128 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>162</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>164</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B70" t="s">
-        <v>166</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>166</v>
       </c>
       <c r="B71" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
+        <v>169</v>
+      </c>
+      <c r="B72" t="s">
         <v>170</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" t="s">
         <v>175</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
+        <v>177</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>179</v>
+      </c>
+      <c r="B76" t="s">
         <v>180</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
+        <v>182</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="B78" t="s">
         <v>185</v>
@@ -2228,7 +2240,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
         <v>187</v>
@@ -2239,40 +2251,40 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" t="s">
         <v>189</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>191</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B81" t="s">
-        <v>193</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>193</v>
       </c>
       <c r="B82" t="s">
+        <v>194</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="B83" t="s">
         <v>197</v>
@@ -2283,40 +2295,40 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
         <v>199</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85" t="s">
+        <v>201</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="B85" t="s">
-        <v>203</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>3</v>
+        <v>203</v>
       </c>
       <c r="B86" t="s">
+        <v>204</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>206</v>
       </c>
       <c r="B87" t="s">
         <v>207</v>
@@ -2338,32 +2350,32 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>215</v>
@@ -2371,7 +2383,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B92" t="s">
         <v>216</v>
@@ -2382,7 +2394,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B93" t="s">
         <v>218</v>
@@ -2393,46 +2405,68 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
+        <v>39</v>
+      </c>
+      <c r="B94" t="s">
         <v>220</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
+        <v>222</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
+        <v>224</v>
+      </c>
+      <c r="B96" t="s">
         <v>225</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
+        <v>227</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B97" t="s">
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
         <v>229</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="B98" t="s">
         <v>230</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>232</v>
+      </c>
+      <c r="B99" t="s">
+        <v>233</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2533,6 +2567,8 @@
     <hyperlink ref="C95" r:id="rId94"/>
     <hyperlink ref="C96" r:id="rId95"/>
     <hyperlink ref="C97" r:id="rId96"/>
+    <hyperlink ref="C98" r:id="rId97"/>
+    <hyperlink ref="C99" r:id="rId98"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2564,464 +2600,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B17" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B21" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B25" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B26" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B27" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B28" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B30" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B34" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B36" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B40" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B43" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -3099,68 +3135,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B3" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -3202,35 +3238,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="339">
   <si>
     <t>标题</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>链接</t>
+  </si>
+  <si>
+    <t>长寿路地铁站一居室整租，独卫独厨</t>
+  </si>
+  <si>
+    <t>06-24 11:41</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307789718/</t>
   </si>
   <si>
     <t>整租8号线杨思【小整租】独卫独厨 押一付一 3200 包网费水费 地铁五分钟 房东直签</t>
@@ -1369,7 +1378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1437,18 +1446,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -1470,18 +1479,18 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1492,29 +1501,29 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -1525,29 +1534,29 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
@@ -1558,73 +1567,73 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>55</v>
@@ -1635,18 +1644,18 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>60</v>
@@ -1657,18 +1666,18 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
         <v>65</v>
@@ -1679,29 +1688,29 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
         <v>72</v>
@@ -1723,18 +1732,18 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
         <v>80</v>
@@ -1756,18 +1765,18 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s">
         <v>88</v>
@@ -1778,29 +1787,29 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
         <v>95</v>
@@ -1811,40 +1820,40 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
         <v>104</v>
@@ -1866,62 +1875,62 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
         <v>120</v>
@@ -1932,18 +1941,18 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
         <v>125</v>
@@ -1976,40 +1985,40 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
         <v>140</v>
@@ -2020,84 +2029,84 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>156</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
         <v>157</v>
@@ -2108,51 +2117,51 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>159</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
         <v>164</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>166</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
         <v>167</v>
@@ -2174,18 +2183,18 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="B73" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>174</v>
+        <v>9</v>
       </c>
       <c r="B74" t="s">
         <v>175</v>
@@ -2196,18 +2205,18 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>177</v>
       </c>
       <c r="B75" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>179</v>
+        <v>9</v>
       </c>
       <c r="B76" t="s">
         <v>180</v>
@@ -2218,18 +2227,18 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>182</v>
       </c>
       <c r="B77" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="B78" t="s">
         <v>185</v>
@@ -2240,40 +2249,40 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>187</v>
       </c>
       <c r="B79" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
         <v>194</v>
@@ -2295,29 +2304,29 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>199</v>
       </c>
       <c r="B84" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>203</v>
+        <v>106</v>
       </c>
       <c r="B86" t="s">
         <v>204</v>
@@ -2339,95 +2348,95 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="B88" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B92" t="s">
         <v>216</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B95" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>224</v>
+        <v>9</v>
       </c>
       <c r="B96" t="s">
         <v>225</v>
@@ -2438,18 +2447,18 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>227</v>
       </c>
       <c r="B97" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>229</v>
+        <v>9</v>
       </c>
       <c r="B98" t="s">
         <v>230</v>
@@ -2467,6 +2476,17 @@
       </c>
       <c r="C99" s="1" t="s">
         <v>234</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>235</v>
+      </c>
+      <c r="B100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2569,6 +2589,7 @@
     <hyperlink ref="C97" r:id="rId96"/>
     <hyperlink ref="C98" r:id="rId97"/>
     <hyperlink ref="C99" r:id="rId98"/>
+    <hyperlink ref="C100" r:id="rId99"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2600,464 +2621,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B17" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B20" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B21" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B25" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B26" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B28" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B30" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B34" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B35" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B37" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B40" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B43" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -3135,68 +3156,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -3238,35 +3259,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="344">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,15 @@
     <t>链接</t>
   </si>
   <si>
+    <t>8号线杨思 【小整租】独卫独厨 带阳台 天然气 3000 押一付一 可办居住证 好房直租</t>
+  </si>
+  <si>
+    <t>06-24 12:28</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307791640/</t>
+  </si>
+  <si>
     <t>长寿路地铁站一居室整租，独卫独厨</t>
   </si>
   <si>
@@ -731,6 +740,12 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307239290/</t>
+  </si>
+  <si>
+    <t>06-24 12:30</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307791698/</t>
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307765566/</t>
@@ -1378,7 +1393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1457,18 +1472,18 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1490,18 +1505,18 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -1512,29 +1527,29 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
@@ -1545,29 +1560,29 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -1578,73 +1593,73 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
@@ -1655,18 +1670,18 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
         <v>63</v>
@@ -1677,18 +1692,18 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
         <v>68</v>
@@ -1699,29 +1714,29 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
         <v>75</v>
@@ -1743,18 +1758,18 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
         <v>83</v>
@@ -1776,18 +1791,18 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
         <v>91</v>
@@ -1798,29 +1813,29 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
         <v>98</v>
@@ -1831,40 +1846,40 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
         <v>107</v>
@@ -1886,62 +1901,62 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
         <v>123</v>
@@ -1952,18 +1967,18 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
         <v>128</v>
@@ -1996,40 +2011,40 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="B56" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="B59" t="s">
         <v>143</v>
@@ -2040,84 +2055,84 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B63" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
         <v>160</v>
@@ -2128,51 +2143,51 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="B68" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
         <v>167</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
         <v>170</v>
@@ -2194,18 +2209,18 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="B74" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
         <v>178</v>
@@ -2216,18 +2231,18 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="B76" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
         <v>183</v>
@@ -2238,18 +2253,18 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="B78" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
         <v>188</v>
@@ -2260,40 +2275,40 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>190</v>
       </c>
       <c r="B80" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B82" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
         <v>197</v>
@@ -2315,29 +2330,29 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>202</v>
       </c>
       <c r="B85" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c r="B87" t="s">
         <v>207</v>
@@ -2359,95 +2374,95 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="B89" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B93" t="s">
         <v>219</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B94" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B96" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="B97" t="s">
         <v>228</v>
@@ -2458,18 +2473,18 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>230</v>
       </c>
       <c r="B98" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="B99" t="s">
         <v>233</v>
@@ -2487,6 +2502,17 @@
       </c>
       <c r="C100" s="1" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>238</v>
+      </c>
+      <c r="B101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2590,6 +2616,7 @@
     <hyperlink ref="C98" r:id="rId97"/>
     <hyperlink ref="C99" r:id="rId98"/>
     <hyperlink ref="C100" r:id="rId99"/>
+    <hyperlink ref="C101" r:id="rId100"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2597,7 +2624,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2621,90 +2648,90 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>244</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>243</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>247</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2712,65 +2739,65 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2778,307 +2805,318 @@
         <v>133</v>
       </c>
       <c r="B16" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>235</v>
       </c>
       <c r="B18" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>273</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>278</v>
       </c>
       <c r="B21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="B22" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>282</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>162</v>
       </c>
       <c r="B24" t="s">
-        <v>280</v>
+        <v>163</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>282</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>177</v>
+        <v>287</v>
       </c>
       <c r="B26" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B28" t="s">
-        <v>288</v>
+        <v>186</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>232</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="B31" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="B35" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>307</v>
       </c>
       <c r="B36" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>307</v>
+        <v>133</v>
       </c>
       <c r="B37" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>312</v>
       </c>
       <c r="B38" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="B41" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>320</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>325</v>
+      </c>
+      <c r="B44" t="s">
+        <v>326</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -3125,6 +3163,7 @@
     <hyperlink ref="C41" r:id="rId40"/>
     <hyperlink ref="C42" r:id="rId41"/>
     <hyperlink ref="C43" r:id="rId42"/>
+    <hyperlink ref="C44" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3156,68 +3195,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -3259,35 +3298,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="346">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,15 @@
     <t>链接</t>
   </si>
   <si>
+    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-24 14:38</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307797870/</t>
+  </si>
+  <si>
     <t>8号线杨思 【小整租】独卫独厨 带阳台 天然气 3000 押一付一 可办居住证 好房直租</t>
   </si>
   <si>
@@ -53,9 +62,6 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307783210/</t>
-  </si>
-  <si>
-    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
   </si>
   <si>
     <t>06-24 08:42</t>
@@ -1393,7 +1399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1461,29 +1467,29 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1494,29 +1500,29 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -1527,18 +1533,18 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -1549,7 +1555,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
@@ -1560,18 +1566,18 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
@@ -1582,7 +1588,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -1593,18 +1599,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
         <v>45</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
         <v>48</v>
@@ -1615,7 +1621,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
@@ -1626,7 +1632,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -1637,7 +1643,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
@@ -1648,7 +1654,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
@@ -1659,7 +1665,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
@@ -1670,18 +1676,18 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
         <v>60</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
         <v>63</v>
@@ -1692,18 +1698,18 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
         <v>65</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
         <v>68</v>
@@ -1714,18 +1720,18 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
         <v>70</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
         <v>73</v>
@@ -1736,7 +1742,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
         <v>75</v>
@@ -1747,29 +1753,29 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
         <v>77</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" t="s">
         <v>80</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
         <v>83</v>
@@ -1780,29 +1786,29 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
         <v>85</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s">
         <v>88</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
         <v>91</v>
@@ -1813,18 +1819,18 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
         <v>93</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="B39" t="s">
         <v>96</v>
@@ -1835,7 +1841,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
         <v>98</v>
@@ -1846,18 +1852,18 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
         <v>100</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="B42" t="s">
         <v>103</v>
@@ -1868,7 +1874,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
         <v>105</v>
@@ -1879,7 +1885,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
         <v>107</v>
@@ -1890,29 +1896,29 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
         <v>109</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" t="s">
         <v>112</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="B47" t="s">
         <v>115</v>
@@ -1923,7 +1929,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
         <v>117</v>
@@ -1934,7 +1940,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B49" t="s">
         <v>119</v>
@@ -1945,7 +1951,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B50" t="s">
         <v>121</v>
@@ -1956,7 +1962,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B51" t="s">
         <v>123</v>
@@ -1967,18 +1973,18 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
         <v>125</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="B53" t="s">
         <v>128</v>
@@ -1989,40 +1995,40 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
         <v>130</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" t="s">
         <v>133</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" t="s">
         <v>136</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="B57" t="s">
         <v>139</v>
@@ -2033,7 +2039,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B58" t="s">
         <v>141</v>
@@ -2044,7 +2050,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="B59" t="s">
         <v>143</v>
@@ -2055,18 +2061,18 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" t="s">
         <v>145</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="B61" t="s">
         <v>148</v>
@@ -2077,7 +2083,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
         <v>150</v>
@@ -2088,7 +2094,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B63" t="s">
         <v>152</v>
@@ -2099,7 +2105,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
         <v>154</v>
@@ -2110,7 +2116,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B65" t="s">
         <v>156</v>
@@ -2121,7 +2127,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B66" t="s">
         <v>158</v>
@@ -2132,7 +2138,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B67" t="s">
         <v>160</v>
@@ -2143,18 +2149,18 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
         <v>162</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="B69" t="s">
         <v>165</v>
@@ -2165,7 +2171,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
         <v>167</v>
@@ -2176,21 +2182,21 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>171</v>
@@ -2198,29 +2204,29 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
         <v>172</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" t="s">
         <v>175</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="B75" t="s">
         <v>178</v>
@@ -2231,18 +2237,18 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
         <v>180</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="B77" t="s">
         <v>183</v>
@@ -2253,18 +2259,18 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
         <v>185</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="B79" t="s">
         <v>188</v>
@@ -2275,18 +2281,18 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
         <v>190</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="B81" t="s">
         <v>193</v>
@@ -2297,7 +2303,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B82" t="s">
         <v>195</v>
@@ -2308,7 +2314,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B83" t="s">
         <v>197</v>
@@ -2319,29 +2325,29 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
         <v>199</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
+        <v>201</v>
+      </c>
+      <c r="B85" t="s">
         <v>202</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="B86" t="s">
         <v>205</v>
@@ -2352,7 +2358,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>109</v>
+        <v>3</v>
       </c>
       <c r="B87" t="s">
         <v>207</v>
@@ -2363,29 +2369,29 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
+        <v>111</v>
+      </c>
+      <c r="B88" t="s">
         <v>209</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
+        <v>211</v>
+      </c>
+      <c r="B89" t="s">
         <v>212</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>15</v>
+        <v>214</v>
       </c>
       <c r="B90" t="s">
         <v>215</v>
@@ -2396,7 +2402,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B91" t="s">
         <v>217</v>
@@ -2407,7 +2413,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B92" t="s">
         <v>219</v>
@@ -2418,21 +2424,21 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B94" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>223</v>
@@ -2440,7 +2446,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B95" t="s">
         <v>224</v>
@@ -2451,7 +2457,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B96" t="s">
         <v>226</v>
@@ -2462,7 +2468,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B97" t="s">
         <v>228</v>
@@ -2473,18 +2479,18 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" t="s">
         <v>230</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="B99" t="s">
         <v>233</v>
@@ -2495,24 +2501,35 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" t="s">
         <v>235</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
+        <v>237</v>
+      </c>
+      <c r="B101" t="s">
         <v>238</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C101" s="1" t="s">
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
         <v>240</v>
+      </c>
+      <c r="B102" t="s">
+        <v>241</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2617,6 +2634,7 @@
     <hyperlink ref="C99" r:id="rId98"/>
     <hyperlink ref="C100" r:id="rId99"/>
     <hyperlink ref="C101" r:id="rId100"/>
+    <hyperlink ref="C102" r:id="rId101"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2648,475 +2666,475 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B18" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>280</v>
+      </c>
+      <c r="B21" t="s">
         <v>278</v>
       </c>
-      <c r="B21" t="s">
-        <v>276</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B22" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B26" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B28" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B29" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B31" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B36" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B37" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B41" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B44" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -3195,68 +3213,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3298,35 +3316,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="353">
   <si>
     <t>标题</t>
   </si>
@@ -28,9 +28,24 @@
     <t>链接</t>
   </si>
   <si>
+    <t>浦东2/6/7/11/13/18号地铁沿线，房东直租单间独卫、主卧独卫、独立厨卫一室户、整租两房、三房，可押一付一，可办理居住证</t>
+  </si>
+  <si>
+    <t>06-24 18:47</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307810531/</t>
+  </si>
+  <si>
     <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
   </si>
   <si>
+    <t>06-24 18:44</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307810390/</t>
+  </si>
+  <si>
     <t>06-24 14:38</t>
   </si>
   <si>
@@ -94,9 +109,6 @@
     <t>https://www.douban.com/group/topic/307765130/</t>
   </si>
   <si>
-    <t>浦东2/6/7/11/13/18号地铁沿线，房东直租单间独卫、主卧独卫、独立厨卫一室户、整租两房、三房，可押一付一，可办理居住证</t>
-  </si>
-  <si>
     <t>06-23 19:00</t>
   </si>
   <si>
@@ -746,6 +758,15 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307239290/</t>
+  </si>
+  <si>
+    <t>一号线宝山区整租一房 整租二房 整租三房 合租一室户 合租独厨独卫 合租独卫 合租小单间都有房源有需要的可联系</t>
+  </si>
+  <si>
+    <t>06-24 20:03</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307813222/</t>
   </si>
   <si>
     <t>06-24 12:30</t>
@@ -1399,7 +1420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1445,29 +1466,29 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1489,18 +1510,18 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -1522,13 +1543,13 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1536,37 +1557,37 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
@@ -1577,29 +1598,29 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
@@ -1610,29 +1631,29 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -1643,7 +1664,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
@@ -1665,7 +1686,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
@@ -1676,7 +1697,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
         <v>60</v>
@@ -1687,73 +1708,73 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
         <v>62</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
         <v>67</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
         <v>72</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
         <v>77</v>
@@ -1764,95 +1785,95 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
         <v>79</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
         <v>87</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" t="s">
         <v>95</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
         <v>100</v>
@@ -1863,29 +1884,29 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
         <v>102</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="B44" t="s">
         <v>107</v>
@@ -1907,40 +1928,40 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
         <v>111</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B47" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="B48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="B49" t="s">
         <v>119</v>
@@ -1951,7 +1972,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
         <v>121</v>
@@ -1962,7 +1983,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
         <v>123</v>
@@ -1973,7 +1994,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
         <v>125</v>
@@ -1984,73 +2005,73 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
         <v>127</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" t="s">
         <v>132</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B56" t="s">
-        <v>136</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B57" t="s">
-        <v>139</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>139</v>
       </c>
       <c r="B58" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="B59" t="s">
         <v>143</v>
@@ -2061,7 +2082,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
         <v>145</v>
@@ -2072,29 +2093,29 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
         <v>147</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="B63" t="s">
         <v>152</v>
@@ -2105,7 +2126,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B64" t="s">
         <v>154</v>
@@ -2116,7 +2137,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B65" t="s">
         <v>156</v>
@@ -2138,7 +2159,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
         <v>160</v>
@@ -2149,7 +2170,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
         <v>162</v>
@@ -2160,29 +2181,29 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
         <v>164</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="B71" t="s">
         <v>169</v>
@@ -2193,13 +2214,13 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B72" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2207,114 +2228,114 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>174</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B75" t="s">
-        <v>178</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B76" t="s">
+        <v>179</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>181</v>
+      </c>
+      <c r="B77" t="s">
         <v>182</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
+        <v>184</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>186</v>
+      </c>
+      <c r="B79" t="s">
         <v>187</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
+        <v>189</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
+        <v>191</v>
+      </c>
+      <c r="B81" t="s">
         <v>192</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B82" t="s">
+        <v>194</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="B83" t="s">
         <v>197</v>
@@ -2325,7 +2346,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B84" t="s">
         <v>199</v>
@@ -2336,40 +2357,40 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
         <v>201</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>203</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="B86" t="s">
-        <v>205</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>3</v>
+        <v>205</v>
       </c>
       <c r="B87" t="s">
+        <v>206</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="B88" t="s">
         <v>209</v>
@@ -2380,40 +2401,40 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
         <v>211</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
+        <v>115</v>
+      </c>
+      <c r="B90" t="s">
+        <v>213</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="B90" t="s">
-        <v>215</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>17</v>
+        <v>215</v>
       </c>
       <c r="B91" t="s">
+        <v>216</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>3</v>
+        <v>218</v>
       </c>
       <c r="B92" t="s">
         <v>219</v>
@@ -2424,7 +2445,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B93" t="s">
         <v>221</v>
@@ -2435,24 +2456,24 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2460,7 +2481,7 @@
         <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>227</v>
@@ -2468,7 +2489,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B97" t="s">
         <v>228</v>
@@ -2479,7 +2500,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B98" t="s">
         <v>230</v>
@@ -2490,46 +2511,68 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
+        <v>51</v>
+      </c>
+      <c r="B99" t="s">
         <v>232</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s">
+        <v>234</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
+        <v>236</v>
+      </c>
+      <c r="B101" t="s">
         <v>237</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>239</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B102" t="s">
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
         <v>241</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="B103" t="s">
         <v>242</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>244</v>
+      </c>
+      <c r="B104" t="s">
+        <v>245</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2635,6 +2678,8 @@
     <hyperlink ref="C100" r:id="rId99"/>
     <hyperlink ref="C101" r:id="rId100"/>
     <hyperlink ref="C102" r:id="rId101"/>
+    <hyperlink ref="C103" r:id="rId102"/>
+    <hyperlink ref="C104" r:id="rId103"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2642,7 +2687,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2666,475 +2711,486 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>256</v>
       </c>
       <c r="B7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B17" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>237</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>241</v>
       </c>
       <c r="B19" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>280</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>147</v>
+        <v>287</v>
       </c>
       <c r="B22" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>165</v>
+        <v>291</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s">
-        <v>287</v>
+        <v>169</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>289</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>296</v>
       </c>
       <c r="B27" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B28" t="s">
-        <v>188</v>
+        <v>299</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B29" t="s">
-        <v>295</v>
+        <v>192</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="B30" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>241</v>
       </c>
       <c r="B32" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>232</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>309</v>
+        <v>236</v>
       </c>
       <c r="B36" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>135</v>
+        <v>316</v>
       </c>
       <c r="B37" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>314</v>
+        <v>139</v>
       </c>
       <c r="B38" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>177</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>181</v>
       </c>
       <c r="B42" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>327</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>334</v>
+      </c>
+      <c r="B45" t="s">
+        <v>335</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -3182,6 +3238,7 @@
     <hyperlink ref="C42" r:id="rId41"/>
     <hyperlink ref="C43" r:id="rId42"/>
     <hyperlink ref="C44" r:id="rId43"/>
+    <hyperlink ref="C45" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3213,68 +3270,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B3" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -3316,35 +3373,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="359">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,15 @@
     <t>链接</t>
   </si>
   <si>
+    <t>11号线三林【小整租】独卫独厨 民用水电 3000 地铁五分钟 直达徐家汇 房东直租 可办居住证</t>
+  </si>
+  <si>
+    <t>06-24 20:54</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307815587/</t>
+  </si>
+  <si>
     <t>浦东2/6/7/11/13/18号地铁沿线，房东直租单间独卫、主卧独卫、独立厨卫一室户、整租两房、三房，可押一付一，可办理居住证</t>
   </si>
   <si>
@@ -277,9 +286,6 @@
     <t>https://www.douban.com/group/topic/307643685/</t>
   </si>
   <si>
-    <t>11号线三林【小整租】独卫独厨 民用水电 3000 地铁五分钟 直达徐家汇 房东直租 可办居住证</t>
-  </si>
-  <si>
     <t>06-21 08:47</t>
   </si>
   <si>
@@ -758,6 +764,18 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307239290/</t>
+  </si>
+  <si>
+    <t>06-24 20:55</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307815639/</t>
+  </si>
+  <si>
+    <t>06-24 20:52</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307815464/</t>
   </si>
   <si>
     <t>一号线宝山区整租一房 整租二房 整租三房 合租一室户 合租独厨独卫 合租独卫 合租小单间都有房源有需要的可联系</t>
@@ -1420,7 +1438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1466,18 +1484,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1510,18 +1528,18 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -1543,29 +1561,29 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -1576,18 +1594,18 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
@@ -1598,29 +1616,29 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
@@ -1631,29 +1649,29 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -1664,24 +1682,24 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1689,48 +1707,48 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
         <v>67</v>
@@ -1741,18 +1759,18 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
         <v>72</v>
@@ -1763,18 +1781,18 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
         <v>77</v>
@@ -1785,29 +1803,29 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
         <v>84</v>
@@ -1829,7 +1847,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
         <v>89</v>
@@ -1840,29 +1858,29 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
         <v>91</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" t="s">
         <v>94</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="B40" t="s">
         <v>97</v>
@@ -1873,18 +1891,18 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
         <v>99</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="B42" t="s">
         <v>102</v>
@@ -1895,7 +1913,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
         <v>104</v>
@@ -1906,18 +1924,18 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
         <v>106</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="B45" t="s">
         <v>109</v>
@@ -1939,7 +1957,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
         <v>113</v>
@@ -1950,29 +1968,29 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
         <v>115</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" t="s">
         <v>118</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s">
         <v>121</v>
@@ -1983,7 +2001,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
         <v>123</v>
@@ -1994,7 +2012,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
         <v>125</v>
@@ -2005,7 +2023,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
         <v>127</v>
@@ -2027,18 +2045,18 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
         <v>131</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="B56" t="s">
         <v>134</v>
@@ -2049,40 +2067,40 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
         <v>136</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" t="s">
         <v>139</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" t="s">
         <v>142</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="B60" t="s">
         <v>145</v>
@@ -2093,7 +2111,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
         <v>147</v>
@@ -2104,7 +2122,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="B62" t="s">
         <v>149</v>
@@ -2115,18 +2133,18 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" t="s">
         <v>151</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="B64" t="s">
         <v>154</v>
@@ -2137,7 +2155,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B65" t="s">
         <v>156</v>
@@ -2148,7 +2166,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s">
         <v>158</v>
@@ -2170,7 +2188,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
         <v>162</v>
@@ -2181,7 +2199,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
         <v>164</v>
@@ -2192,7 +2210,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
         <v>166</v>
@@ -2203,18 +2221,18 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
         <v>168</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="B72" t="s">
         <v>171</v>
@@ -2225,7 +2243,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B73" t="s">
         <v>173</v>
@@ -2239,18 +2257,18 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>177</v>
@@ -2258,29 +2276,29 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" t="s">
         <v>178</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>180</v>
+      </c>
+      <c r="B77" t="s">
         <v>181</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>183</v>
       </c>
       <c r="B78" t="s">
         <v>184</v>
@@ -2291,18 +2309,18 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
         <v>186</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>188</v>
       </c>
       <c r="B80" t="s">
         <v>189</v>
@@ -2313,18 +2331,18 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
         <v>191</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>193</v>
       </c>
       <c r="B82" t="s">
         <v>194</v>
@@ -2335,18 +2353,18 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
         <v>196</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>198</v>
       </c>
       <c r="B84" t="s">
         <v>199</v>
@@ -2357,7 +2375,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B85" t="s">
         <v>201</v>
@@ -2379,29 +2397,29 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
         <v>205</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
+        <v>207</v>
+      </c>
+      <c r="B88" t="s">
         <v>208</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>210</v>
       </c>
       <c r="B89" t="s">
         <v>211</v>
@@ -2412,7 +2430,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="B90" t="s">
         <v>213</v>
@@ -2423,29 +2441,29 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
+        <v>117</v>
+      </c>
+      <c r="B91" t="s">
         <v>215</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
+        <v>217</v>
+      </c>
+      <c r="B92" t="s">
         <v>218</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="B93" t="s">
         <v>221</v>
@@ -2456,7 +2474,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B94" t="s">
         <v>223</v>
@@ -2467,7 +2485,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B95" t="s">
         <v>225</v>
@@ -2478,21 +2496,21 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>229</v>
@@ -2511,7 +2529,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B99" t="s">
         <v>232</v>
@@ -2522,7 +2540,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B100" t="s">
         <v>234</v>
@@ -2533,18 +2551,18 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
         <v>236</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
       <c r="B102" t="s">
         <v>239</v>
@@ -2555,24 +2573,35 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
         <v>241</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
+        <v>243</v>
+      </c>
+      <c r="B104" t="s">
         <v>244</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C104" s="1" t="s">
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
         <v>246</v>
+      </c>
+      <c r="B105" t="s">
+        <v>247</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2680,6 +2709,7 @@
     <hyperlink ref="C102" r:id="rId101"/>
     <hyperlink ref="C103" r:id="rId102"/>
     <hyperlink ref="C104" r:id="rId103"/>
+    <hyperlink ref="C105" r:id="rId104"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2687,7 +2717,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2711,486 +2741,508 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>253</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>254</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="B9" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>241</v>
+        <v>141</v>
       </c>
       <c r="B19" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>243</v>
       </c>
       <c r="B21" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>293</v>
       </c>
       <c r="B24" t="s">
         <v>291</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s">
-        <v>169</v>
+        <v>295</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>296</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s">
-        <v>297</v>
+        <v>171</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>191</v>
+        <v>302</v>
       </c>
       <c r="B29" t="s">
-        <v>192</v>
+        <v>303</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B30" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="B31" t="s">
-        <v>304</v>
+        <v>194</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="B32" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>243</v>
       </c>
       <c r="B34" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>236</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>316</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>238</v>
       </c>
       <c r="B38" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B39" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>327</v>
       </c>
       <c r="B41" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="B44" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>334</v>
+        <v>69</v>
       </c>
       <c r="B45" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>338</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>340</v>
+      </c>
+      <c r="B47" t="s">
+        <v>341</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -3239,6 +3291,8 @@
     <hyperlink ref="C43" r:id="rId42"/>
     <hyperlink ref="C44" r:id="rId43"/>
     <hyperlink ref="C45" r:id="rId44"/>
+    <hyperlink ref="C46" r:id="rId45"/>
+    <hyperlink ref="C47" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3270,68 +3324,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B3" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3373,35 +3427,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="365">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,24 @@
     <t>链接</t>
   </si>
   <si>
+    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-25 09:57</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307832958/</t>
+  </si>
+  <si>
+    <t>11号线三林站 直达徐家汇 小整租 独卫独厨 3000 民用水电 押一付一 可办居住证 可以短租</t>
+  </si>
+  <si>
+    <t>06-25 08:25</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307830817/</t>
+  </si>
+  <si>
     <t>11号线三林【小整租】独卫独厨 民用水电 3000 地铁五分钟 直达徐家汇 房东直租 可办居住证</t>
   </si>
   <si>
@@ -46,9 +64,6 @@
     <t>https://www.douban.com/group/topic/307810531/</t>
   </si>
   <si>
-    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
-  </si>
-  <si>
     <t>06-24 18:44</t>
   </si>
   <si>
@@ -277,9 +292,6 @@
     <t>https://www.douban.com/group/topic/307649098/</t>
   </si>
   <si>
-    <t>11号线三林站 直达徐家汇 小整租 独卫独厨 3000 民用水电 押一付一 可办居住证 可以短租</t>
-  </si>
-  <si>
     <t>06-21 11:20</t>
   </si>
   <si>
@@ -764,6 +776,12 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307239290/</t>
+  </si>
+  <si>
+    <t>06-25 08:26</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307830834/</t>
   </si>
   <si>
     <t>06-24 20:55</t>
@@ -1438,7 +1456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1495,18 +1513,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1517,29 +1535,29 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -1561,18 +1579,18 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -1583,18 +1601,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
@@ -1605,7 +1623,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
@@ -1627,7 +1645,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -1638,18 +1656,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
         <v>48</v>
@@ -1660,7 +1678,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
@@ -1671,18 +1689,18 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
@@ -1693,7 +1711,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
@@ -1704,62 +1722,62 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>70</v>
@@ -1770,7 +1788,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
         <v>72</v>
@@ -1792,7 +1810,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
         <v>77</v>
@@ -1814,7 +1832,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s">
         <v>82</v>
@@ -1825,18 +1843,18 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
         <v>87</v>
@@ -1847,7 +1865,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
         <v>89</v>
@@ -1858,7 +1876,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
         <v>91</v>
@@ -1869,62 +1887,62 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
         <v>93</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B40" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="B41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" t="s">
         <v>101</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="B44" t="s">
         <v>106</v>
@@ -1935,29 +1953,29 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
         <v>108</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="B47" t="s">
         <v>113</v>
@@ -1968,7 +1986,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
         <v>115</v>
@@ -1979,40 +1997,40 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
         <v>117</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B50" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="B51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="B52" t="s">
         <v>125</v>
@@ -2023,7 +2041,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B53" t="s">
         <v>127</v>
@@ -2034,7 +2052,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B54" t="s">
         <v>129</v>
@@ -2045,7 +2063,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B55" t="s">
         <v>131</v>
@@ -2056,73 +2074,73 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
         <v>133</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B57" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" t="s">
         <v>138</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B59" t="s">
-        <v>142</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B60" t="s">
-        <v>145</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="B61" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="B62" t="s">
         <v>149</v>
@@ -2133,7 +2151,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B63" t="s">
         <v>151</v>
@@ -2144,29 +2162,29 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
         <v>153</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="B65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="B66" t="s">
         <v>158</v>
@@ -2177,7 +2195,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B67" t="s">
         <v>160</v>
@@ -2188,7 +2206,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B68" t="s">
         <v>162</v>
@@ -2199,7 +2217,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
         <v>164</v>
@@ -2210,7 +2228,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B70" t="s">
         <v>166</v>
@@ -2221,7 +2239,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B71" t="s">
         <v>168</v>
@@ -2232,29 +2250,29 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
         <v>170</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B73" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>174</v>
       </c>
       <c r="B74" t="s">
         <v>175</v>
@@ -2265,128 +2283,128 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B75" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="B77" t="s">
+        <v>179</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B78" t="s">
-        <v>184</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="B79" t="s">
+        <v>185</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
+        <v>187</v>
+      </c>
+      <c r="B80" t="s">
         <v>188</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B81" t="s">
+        <v>190</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
+        <v>192</v>
+      </c>
+      <c r="B82" t="s">
         <v>193</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B83" t="s">
+        <v>195</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
+        <v>197</v>
+      </c>
+      <c r="B84" t="s">
         <v>198</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B85" t="s">
+        <v>200</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>202</v>
       </c>
       <c r="B86" t="s">
         <v>203</v>
@@ -2397,7 +2415,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B87" t="s">
         <v>205</v>
@@ -2408,40 +2426,40 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" t="s">
         <v>207</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
+        <v>209</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="B89" t="s">
-        <v>211</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>211</v>
       </c>
       <c r="B90" t="s">
+        <v>212</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>117</v>
+        <v>214</v>
       </c>
       <c r="B91" t="s">
         <v>215</v>
@@ -2452,40 +2470,40 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
         <v>217</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="B93" t="s">
-        <v>221</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="B94" t="s">
+        <v>222</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="B95" t="s">
         <v>225</v>
@@ -2496,7 +2514,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B96" t="s">
         <v>227</v>
@@ -2507,32 +2525,32 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>233</v>
@@ -2540,7 +2558,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="B100" t="s">
         <v>234</v>
@@ -2551,7 +2569,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B101" t="s">
         <v>236</v>
@@ -2562,46 +2580,68 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
+        <v>59</v>
+      </c>
+      <c r="B102" t="s">
         <v>238</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B103" t="s">
+        <v>240</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
+        <v>242</v>
+      </c>
+      <c r="B104" t="s">
         <v>243</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" t="s">
+        <v>245</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B105" t="s">
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
         <v>247</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="B106" t="s">
         <v>248</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>250</v>
+      </c>
+      <c r="B107" t="s">
+        <v>251</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2710,6 +2750,8 @@
     <hyperlink ref="C103" r:id="rId102"/>
     <hyperlink ref="C104" r:id="rId103"/>
     <hyperlink ref="C105" r:id="rId104"/>
+    <hyperlink ref="C106" r:id="rId105"/>
+    <hyperlink ref="C107" r:id="rId106"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2717,7 +2759,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2741,13 +2783,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2755,131 +2797,131 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>259</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>262</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>259</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>265</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>262</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>268</v>
       </c>
       <c r="B10" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2887,362 +2929,373 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B20" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>243</v>
+        <v>148</v>
       </c>
       <c r="B21" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="B22" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>293</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>299</v>
       </c>
       <c r="B25" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="B26" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>171</v>
+        <v>303</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>302</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>308</v>
       </c>
       <c r="B30" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B31" t="s">
-        <v>194</v>
+        <v>311</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B32" t="s">
-        <v>308</v>
+        <v>198</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>211</v>
       </c>
       <c r="B33" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>243</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="B35" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>238</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>322</v>
+        <v>242</v>
       </c>
       <c r="B39" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>141</v>
+        <v>328</v>
       </c>
       <c r="B40" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>327</v>
+        <v>145</v>
       </c>
       <c r="B41" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>333</v>
       </c>
       <c r="B42" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>183</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>187</v>
       </c>
       <c r="B45" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>340</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>346</v>
+      </c>
+      <c r="B48" t="s">
+        <v>347</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -3293,6 +3346,7 @@
     <hyperlink ref="C45" r:id="rId44"/>
     <hyperlink ref="C46" r:id="rId45"/>
     <hyperlink ref="C47" r:id="rId46"/>
+    <hyperlink ref="C48" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3324,68 +3378,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B3" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -3427,35 +3481,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="369">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,15 @@
     <t>链接</t>
   </si>
   <si>
+    <t>8号线杨思【小整租】独卫独厨 民用水电 地铁五分钟 3000 押一付一 精装拎包入住 房东直签 随时看房</t>
+  </si>
+  <si>
+    <t>06-25 11:04</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307835531/</t>
+  </si>
+  <si>
     <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
   </si>
   <si>
@@ -109,9 +118,6 @@
     <t>https://www.douban.com/group/topic/307782934/</t>
   </si>
   <si>
-    <t>8号线杨思【小整租】独卫独厨 民用水电 地铁五分钟 3000 押一付一 精装拎包入住 房东直签 随时看房</t>
-  </si>
-  <si>
     <t>06-23 21:26</t>
   </si>
   <si>
@@ -776,6 +782,12 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307239290/</t>
+  </si>
+  <si>
+    <t>06-25 11:06</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307835607/</t>
   </si>
   <si>
     <t>06-25 08:26</t>
@@ -1456,7 +1468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1524,29 +1536,29 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -1579,18 +1591,18 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -1601,18 +1613,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
@@ -1623,7 +1635,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
@@ -1634,18 +1646,18 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -1656,18 +1668,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
         <v>45</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
         <v>48</v>
@@ -1678,7 +1690,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
@@ -1689,18 +1701,18 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
         <v>52</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
@@ -1711,7 +1723,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
@@ -1722,18 +1734,18 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
         <v>59</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
@@ -1744,7 +1756,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
         <v>64</v>
@@ -1755,7 +1767,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
         <v>66</v>
@@ -1766,7 +1778,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
         <v>68</v>
@@ -1777,7 +1789,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
         <v>70</v>
@@ -1788,7 +1800,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>72</v>
@@ -1799,18 +1811,18 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
         <v>74</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
         <v>77</v>
@@ -1821,18 +1833,18 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
         <v>79</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
         <v>82</v>
@@ -1843,18 +1855,18 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
         <v>84</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
         <v>87</v>
@@ -1865,7 +1877,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
         <v>89</v>
@@ -1876,7 +1888,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
         <v>91</v>
@@ -1898,7 +1910,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
         <v>95</v>
@@ -1909,29 +1921,29 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
         <v>97</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" t="s">
         <v>100</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="B43" t="s">
         <v>103</v>
@@ -1942,18 +1954,18 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
         <v>105</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="B45" t="s">
         <v>108</v>
@@ -1964,7 +1976,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
         <v>110</v>
@@ -1975,18 +1987,18 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
         <v>112</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="B48" t="s">
         <v>115</v>
@@ -1997,7 +2009,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
         <v>117</v>
@@ -2008,7 +2020,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
         <v>119</v>
@@ -2019,29 +2031,29 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
         <v>121</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" t="s">
         <v>124</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B53" t="s">
         <v>127</v>
@@ -2052,7 +2064,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
         <v>129</v>
@@ -2063,7 +2075,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
         <v>131</v>
@@ -2074,7 +2086,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
         <v>133</v>
@@ -2085,7 +2097,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
         <v>135</v>
@@ -2096,18 +2108,18 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
         <v>137</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>139</v>
       </c>
       <c r="B59" t="s">
         <v>140</v>
@@ -2118,40 +2130,40 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
         <v>142</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" t="s">
         <v>145</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" t="s">
         <v>148</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="B63" t="s">
         <v>151</v>
@@ -2162,7 +2174,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
         <v>153</v>
@@ -2173,7 +2185,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
         <v>155</v>
@@ -2184,18 +2196,18 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66" t="s">
         <v>157</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="B67" t="s">
         <v>160</v>
@@ -2206,7 +2218,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
         <v>162</v>
@@ -2217,7 +2229,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B69" t="s">
         <v>164</v>
@@ -2228,7 +2240,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B70" t="s">
         <v>166</v>
@@ -2239,7 +2251,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B71" t="s">
         <v>168</v>
@@ -2250,7 +2262,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
         <v>170</v>
@@ -2261,7 +2273,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s">
         <v>172</v>
@@ -2272,18 +2284,18 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
         <v>174</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="B75" t="s">
         <v>177</v>
@@ -2294,7 +2306,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B76" t="s">
         <v>179</v>
@@ -2305,21 +2317,21 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>183</v>
@@ -2327,29 +2339,29 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
         <v>184</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
+        <v>186</v>
+      </c>
+      <c r="B80" t="s">
         <v>187</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>3</v>
+        <v>189</v>
       </c>
       <c r="B81" t="s">
         <v>190</v>
@@ -2360,18 +2372,18 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
         <v>192</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>3</v>
+        <v>194</v>
       </c>
       <c r="B83" t="s">
         <v>195</v>
@@ -2382,18 +2394,18 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
         <v>197</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="B85" t="s">
         <v>200</v>
@@ -2404,18 +2416,18 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
         <v>202</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>3</v>
+        <v>204</v>
       </c>
       <c r="B87" t="s">
         <v>205</v>
@@ -2426,7 +2438,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s">
         <v>207</v>
@@ -2437,7 +2449,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B89" t="s">
         <v>209</v>
@@ -2448,29 +2460,29 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" t="s">
         <v>211</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
+        <v>213</v>
+      </c>
+      <c r="B91" t="s">
         <v>214</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="B92" t="s">
         <v>217</v>
@@ -2481,7 +2493,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="B93" t="s">
         <v>219</v>
@@ -2492,29 +2504,29 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
+        <v>123</v>
+      </c>
+      <c r="B94" t="s">
         <v>221</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
+        <v>223</v>
+      </c>
+      <c r="B95" t="s">
         <v>224</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>30</v>
+        <v>226</v>
       </c>
       <c r="B96" t="s">
         <v>227</v>
@@ -2536,7 +2548,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B98" t="s">
         <v>231</v>
@@ -2547,21 +2559,21 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B100" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>235</v>
@@ -2569,7 +2581,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B101" t="s">
         <v>236</v>
@@ -2580,7 +2592,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B102" t="s">
         <v>238</v>
@@ -2591,7 +2603,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B103" t="s">
         <v>240</v>
@@ -2602,18 +2614,18 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
         <v>242</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>3</v>
+        <v>244</v>
       </c>
       <c r="B105" t="s">
         <v>245</v>
@@ -2624,24 +2636,35 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" t="s">
         <v>247</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
+        <v>249</v>
+      </c>
+      <c r="B107" t="s">
         <v>250</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C107" s="1" t="s">
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
         <v>252</v>
+      </c>
+      <c r="B108" t="s">
+        <v>253</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2752,6 +2775,7 @@
     <hyperlink ref="C105" r:id="rId104"/>
     <hyperlink ref="C106" r:id="rId105"/>
     <hyperlink ref="C107" r:id="rId106"/>
+    <hyperlink ref="C108" r:id="rId107"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2759,7 +2783,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2783,13 +2807,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2797,505 +2821,516 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>266</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>265</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>269</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>269</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="B11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>247</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>303</v>
       </c>
       <c r="B26" t="s">
         <v>301</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="B27" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>175</v>
+        <v>307</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="B29" t="s">
-        <v>306</v>
+        <v>177</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>308</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>312</v>
       </c>
       <c r="B31" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s">
-        <v>198</v>
+        <v>315</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B33" t="s">
-        <v>314</v>
+        <v>200</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="B34" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>247</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>249</v>
       </c>
       <c r="B36" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>242</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>328</v>
+        <v>244</v>
       </c>
       <c r="B40" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>145</v>
+        <v>332</v>
       </c>
       <c r="B41" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>333</v>
+        <v>147</v>
       </c>
       <c r="B42" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>337</v>
       </c>
       <c r="B43" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="B46" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="B47" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>346</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>350</v>
+      </c>
+      <c r="B49" t="s">
+        <v>351</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3347,6 +3382,7 @@
     <hyperlink ref="C46" r:id="rId45"/>
     <hyperlink ref="C47" r:id="rId46"/>
     <hyperlink ref="C48" r:id="rId47"/>
+    <hyperlink ref="C49" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3378,68 +3414,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B3" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3481,35 +3517,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="373">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,24 @@
     <t>链接</t>
   </si>
   <si>
+    <t>浦东2/6/7/11/13/18号地铁沿线，房东直租单间独卫、主卧独卫、独立厨卫一室户、整租两房、三房，可押一付一，可办理居住证</t>
+  </si>
+  <si>
+    <t>06-25 14:41</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307843955/</t>
+  </si>
+  <si>
+    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-25 14:11</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307842807/</t>
+  </si>
+  <si>
     <t>8号线杨思【小整租】独卫独厨 民用水电 地铁五分钟 3000 押一付一 精装拎包入住 房东直签 随时看房</t>
   </si>
   <si>
@@ -37,9 +55,6 @@
     <t>https://www.douban.com/group/topic/307835531/</t>
   </si>
   <si>
-    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
-  </si>
-  <si>
     <t>06-25 09:57</t>
   </si>
   <si>
@@ -62,9 +77,6 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307815587/</t>
-  </si>
-  <si>
-    <t>浦东2/6/7/11/13/18号地铁沿线，房东直租单间独卫、主卧独卫、独立厨卫一室户、整租两房、三房，可押一付一，可办理居住证</t>
   </si>
   <si>
     <t>06-24 18:47</t>
@@ -1468,7 +1480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1525,29 +1537,29 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -1558,7 +1570,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -1569,51 +1581,51 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -1624,29 +1636,29 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
@@ -1657,35 +1669,35 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
         <v>42</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1693,15 +1705,15 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -1712,13 +1724,13 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1726,15 +1738,15 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
         <v>59</v>
@@ -1745,13 +1757,13 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
         <v>61</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1759,15 +1771,15 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
         <v>66</v>
@@ -1789,7 +1801,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
         <v>70</v>
@@ -1800,7 +1812,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
         <v>72</v>
@@ -1811,7 +1823,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
         <v>74</v>
@@ -1822,35 +1834,35 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
         <v>76</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s">
         <v>81</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1858,21 +1870,21 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
         <v>86</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1880,15 +1892,15 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
         <v>91</v>
@@ -1899,7 +1911,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
         <v>93</v>
@@ -1910,7 +1922,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
         <v>95</v>
@@ -1921,7 +1933,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
         <v>97</v>
@@ -1932,62 +1944,62 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
         <v>99</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="B44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" t="s">
         <v>107</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="B47" t="s">
         <v>112</v>
@@ -1998,29 +2010,29 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
         <v>114</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="B50" t="s">
         <v>119</v>
@@ -2031,7 +2043,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B51" t="s">
         <v>121</v>
@@ -2042,40 +2054,40 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
         <v>123</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B53" t="s">
-        <v>127</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="B54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="B55" t="s">
         <v>131</v>
@@ -2097,7 +2109,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
         <v>135</v>
@@ -2119,13 +2131,13 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
         <v>139</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2133,59 +2145,59 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" t="s">
         <v>144</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B62" t="s">
-        <v>148</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B63" t="s">
-        <v>151</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>151</v>
       </c>
       <c r="B64" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="B65" t="s">
         <v>155</v>
@@ -2196,7 +2208,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
         <v>157</v>
@@ -2207,29 +2219,29 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
         <v>159</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="B69" t="s">
         <v>164</v>
@@ -2240,7 +2252,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B70" t="s">
         <v>166</v>
@@ -2251,7 +2263,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B71" t="s">
         <v>168</v>
@@ -2262,7 +2274,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B72" t="s">
         <v>170</v>
@@ -2295,29 +2307,29 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
         <v>176</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s">
+        <v>178</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="B77" t="s">
         <v>181</v>
@@ -2328,68 +2340,68 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B78" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>186</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
+        <v>185</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>188</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B81" t="s">
-        <v>190</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="B82" t="s">
+        <v>191</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
+        <v>193</v>
+      </c>
+      <c r="B83" t="s">
         <v>194</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2397,21 +2409,21 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
+        <v>196</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
+        <v>198</v>
+      </c>
+      <c r="B85" t="s">
         <v>199</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2419,21 +2431,21 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
+        <v>201</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
+        <v>203</v>
+      </c>
+      <c r="B87" t="s">
         <v>204</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2441,15 +2453,15 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
+        <v>206</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c r="B89" t="s">
         <v>209</v>
@@ -2471,40 +2483,40 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
         <v>213</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>215</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="B92" t="s">
-        <v>217</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>217</v>
       </c>
       <c r="B93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="B94" t="s">
         <v>221</v>
@@ -2515,40 +2527,40 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
         <v>223</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
+        <v>127</v>
+      </c>
+      <c r="B96" t="s">
+        <v>225</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="B96" t="s">
-        <v>227</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="B97" t="s">
+        <v>228</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>6</v>
+        <v>230</v>
       </c>
       <c r="B98" t="s">
         <v>231</v>
@@ -2559,7 +2571,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B99" t="s">
         <v>233</v>
@@ -2570,32 +2582,32 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>239</v>
@@ -2603,7 +2615,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B103" t="s">
         <v>240</v>
@@ -2625,13 +2637,13 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
+        <v>65</v>
+      </c>
+      <c r="B105" t="s">
         <v>244</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2639,32 +2651,54 @@
         <v>6</v>
       </c>
       <c r="B106" t="s">
+        <v>246</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
+        <v>248</v>
+      </c>
+      <c r="B107" t="s">
         <v>249</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" t="s">
+        <v>251</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B108" t="s">
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
         <v>253</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="B109" t="s">
         <v>254</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>256</v>
+      </c>
+      <c r="B110" t="s">
+        <v>257</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2776,6 +2810,8 @@
     <hyperlink ref="C106" r:id="rId105"/>
     <hyperlink ref="C107" r:id="rId106"/>
     <hyperlink ref="C108" r:id="rId107"/>
+    <hyperlink ref="C109" r:id="rId108"/>
+    <hyperlink ref="C110" r:id="rId109"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2807,35 +2843,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2843,120 +2879,120 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B6" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B11" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2964,98 +3000,98 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3063,54 +3099,54 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B26" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B29" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3118,98 +3154,98 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B31" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B32" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B33" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B34" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B35" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B36" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3217,65 +3253,65 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B40" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B42" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B43" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3283,54 +3319,54 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B46" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B49" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3414,68 +3450,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B3" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3517,35 +3553,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="378">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,24 @@
     <t>链接</t>
   </si>
   <si>
+    <t>坐标：11号线三林地铁站，电梯房，整租独立一室户，独厨独卫，晾晒方便，适合两个人住，压一付一3100+房东直租</t>
+  </si>
+  <si>
+    <t>06-25 17:29</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307850262/</t>
+  </si>
+  <si>
+    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-25 17:06</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307849377/</t>
+  </si>
+  <si>
     <t>浦东2/6/7/11/13/18号地铁沿线，房东直租单间独卫、主卧独卫、独立厨卫一室户、整租两房、三房，可押一付一，可办理居住证</t>
   </si>
   <si>
@@ -35,9 +53,6 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307843955/</t>
-  </si>
-  <si>
-    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
   </si>
   <si>
     <t>06-25 14:11</t>
@@ -1480,7 +1495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1559,18 +1574,18 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -1581,29 +1596,29 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -1614,29 +1629,29 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -1647,18 +1662,18 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
@@ -1669,7 +1684,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
@@ -1680,18 +1695,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
         <v>47</v>
@@ -1702,7 +1717,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
@@ -1735,18 +1750,18 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
         <v>59</v>
@@ -1768,18 +1783,18 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
         <v>66</v>
@@ -1801,13 +1816,13 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1815,48 +1830,48 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
         <v>81</v>
@@ -1867,7 +1882,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
         <v>83</v>
@@ -1922,51 +1937,51 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
         <v>104</v>
@@ -1977,18 +1992,18 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
         <v>106</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="B46" t="s">
         <v>109</v>
@@ -2010,7 +2025,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
         <v>114</v>
@@ -2021,18 +2036,18 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
         <v>119</v>
@@ -2043,7 +2058,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
         <v>121</v>
@@ -2054,29 +2069,29 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
         <v>128</v>
@@ -2087,18 +2102,18 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
         <v>130</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="B56" t="s">
         <v>133</v>
@@ -2109,13 +2124,13 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2123,21 +2138,21 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2145,15 +2160,15 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
         <v>144</v>
@@ -2186,29 +2201,29 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
         <v>151</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>153</v>
+      </c>
+      <c r="B65" t="s">
         <v>154</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="B66" t="s">
         <v>157</v>
@@ -2219,29 +2234,29 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
         <v>164</v>
@@ -2252,7 +2267,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="B70" t="s">
         <v>166</v>
@@ -2263,46 +2278,46 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="B71" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B72" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B73" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2310,10 +2325,10 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2321,15 +2336,15 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>180</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
         <v>181</v>
@@ -2340,7 +2355,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
         <v>183</v>
@@ -2351,43 +2366,43 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="B79" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B80" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
         <v>190</v>
-      </c>
-      <c r="B82" t="s">
-        <v>191</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>192</v>
@@ -2395,18 +2410,18 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" t="s">
         <v>193</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="B84" t="s">
         <v>196</v>
@@ -2483,13 +2498,13 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="B91" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2497,15 +2512,15 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>217</v>
+        <v>9</v>
       </c>
       <c r="B93" t="s">
         <v>218</v>
@@ -2516,18 +2531,18 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
         <v>220</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>222</v>
       </c>
       <c r="B95" t="s">
         <v>223</v>
@@ -2538,18 +2553,18 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c r="B96" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>227</v>
+        <v>6</v>
       </c>
       <c r="B97" t="s">
         <v>228</v>
@@ -2560,18 +2575,18 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
+        <v>132</v>
+      </c>
+      <c r="B98" t="s">
         <v>230</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="B99" t="s">
         <v>233</v>
@@ -2582,68 +2597,68 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="B100" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B104" t="s">
         <v>242</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2651,15 +2666,15 @@
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>248</v>
+        <v>70</v>
       </c>
       <c r="B107" t="s">
         <v>249</v>
@@ -2692,13 +2707,35 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" t="s">
         <v>256</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C110" s="1" t="s">
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
         <v>258</v>
+      </c>
+      <c r="B111" t="s">
+        <v>259</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>261</v>
+      </c>
+      <c r="B112" t="s">
+        <v>262</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2812,6 +2849,8 @@
     <hyperlink ref="C108" r:id="rId107"/>
     <hyperlink ref="C109" r:id="rId108"/>
     <hyperlink ref="C110" r:id="rId109"/>
+    <hyperlink ref="C111" r:id="rId110"/>
+    <hyperlink ref="C112" r:id="rId111"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2843,35 +2882,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2879,120 +2918,120 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B11" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3000,98 +3039,98 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3099,54 +3138,54 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B26" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B29" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3154,98 +3193,98 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B31" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B32" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B33" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B35" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B36" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3253,65 +3292,65 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B40" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B41" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B42" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B43" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3319,54 +3358,54 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B46" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B48" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B49" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -3450,68 +3489,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -3553,35 +3592,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="380">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,15 @@
     <t>链接</t>
   </si>
   <si>
+    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
+  </si>
+  <si>
+    <t>06-25 19:27</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307854944/</t>
+  </si>
+  <si>
     <t>坐标：11号线三林地铁站，电梯房，整租独立一室户，独厨独卫，晾晒方便，适合两个人住，压一付一3100+房东直租</t>
   </si>
   <si>
@@ -35,9 +44,6 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307850262/</t>
-  </si>
-  <si>
-    <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
   </si>
   <si>
     <t>06-25 17:06</t>
@@ -1495,7 +1501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1541,18 +1547,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1563,18 +1569,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -1585,29 +1591,29 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1618,7 +1624,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -1629,7 +1635,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -1640,40 +1646,40 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
@@ -1684,7 +1690,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
@@ -1695,18 +1701,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
         <v>47</v>
@@ -1717,7 +1723,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
@@ -1728,18 +1734,18 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
@@ -1750,18 +1756,18 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
         <v>56</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
         <v>59</v>
@@ -1772,7 +1778,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
         <v>61</v>
@@ -1783,18 +1789,18 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
         <v>63</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
         <v>66</v>
@@ -1805,7 +1811,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
         <v>68</v>
@@ -1816,18 +1822,18 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
         <v>70</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
         <v>73</v>
@@ -1838,7 +1844,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
         <v>75</v>
@@ -1849,7 +1855,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
         <v>77</v>
@@ -1860,7 +1866,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
         <v>79</v>
@@ -1871,7 +1877,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s">
         <v>81</v>
@@ -1882,7 +1888,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
         <v>83</v>
@@ -1893,18 +1899,18 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
         <v>85</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
         <v>88</v>
@@ -1915,18 +1921,18 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
         <v>90</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
         <v>93</v>
@@ -1937,18 +1943,18 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
         <v>95</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="B41" t="s">
         <v>98</v>
@@ -1959,7 +1965,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
         <v>100</v>
@@ -1970,7 +1976,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
         <v>102</v>
@@ -1981,7 +1987,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B44" t="s">
         <v>104</v>
@@ -1992,7 +1998,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
         <v>106</v>
@@ -2003,29 +2009,29 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
         <v>108</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" t="s">
         <v>111</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="B48" t="s">
         <v>114</v>
@@ -2036,18 +2042,18 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
         <v>116</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="B50" t="s">
         <v>119</v>
@@ -2058,7 +2064,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B51" t="s">
         <v>121</v>
@@ -2069,18 +2075,18 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
         <v>123</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="B53" t="s">
         <v>126</v>
@@ -2091,7 +2097,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
         <v>128</v>
@@ -2102,7 +2108,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B55" t="s">
         <v>130</v>
@@ -2113,29 +2119,29 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
         <v>132</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" t="s">
         <v>135</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="B58" t="s">
         <v>138</v>
@@ -2146,7 +2152,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B59" t="s">
         <v>140</v>
@@ -2157,7 +2163,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B60" t="s">
         <v>142</v>
@@ -2168,7 +2174,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B61" t="s">
         <v>144</v>
@@ -2179,7 +2185,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B62" t="s">
         <v>146</v>
@@ -2190,18 +2196,18 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
         <v>148</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="B64" t="s">
         <v>151</v>
@@ -2212,40 +2218,40 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
         <v>153</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" t="s">
         <v>156</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" t="s">
         <v>159</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="B68" t="s">
         <v>162</v>
@@ -2256,7 +2262,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B69" t="s">
         <v>164</v>
@@ -2267,7 +2273,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="B70" t="s">
         <v>166</v>
@@ -2278,18 +2284,18 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" t="s">
         <v>168</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="B72" t="s">
         <v>171</v>
@@ -2300,7 +2306,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B73" t="s">
         <v>173</v>
@@ -2311,7 +2317,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B74" t="s">
         <v>175</v>
@@ -2322,7 +2328,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B75" t="s">
         <v>177</v>
@@ -2333,7 +2339,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B76" t="s">
         <v>179</v>
@@ -2344,7 +2350,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B77" t="s">
         <v>181</v>
@@ -2355,7 +2361,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B78" t="s">
         <v>183</v>
@@ -2366,18 +2372,18 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
         <v>185</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="B80" t="s">
         <v>188</v>
@@ -2388,7 +2394,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B81" t="s">
         <v>190</v>
@@ -2399,21 +2405,21 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>194</v>
@@ -2421,29 +2427,29 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
         <v>195</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
+        <v>197</v>
+      </c>
+      <c r="B85" t="s">
         <v>198</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="B86" t="s">
         <v>201</v>
@@ -2454,18 +2460,18 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
         <v>203</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>205</v>
       </c>
       <c r="B88" t="s">
         <v>206</v>
@@ -2476,18 +2482,18 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
         <v>208</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>210</v>
       </c>
       <c r="B90" t="s">
         <v>211</v>
@@ -2498,18 +2504,18 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
         <v>213</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>215</v>
       </c>
       <c r="B92" t="s">
         <v>216</v>
@@ -2520,7 +2526,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B93" t="s">
         <v>218</v>
@@ -2531,7 +2537,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B94" t="s">
         <v>220</v>
@@ -2542,29 +2548,29 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" t="s">
         <v>222</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
+        <v>224</v>
+      </c>
+      <c r="B96" t="s">
         <v>225</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>227</v>
       </c>
       <c r="B97" t="s">
         <v>228</v>
@@ -2575,7 +2581,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
       <c r="B98" t="s">
         <v>230</v>
@@ -2586,29 +2592,29 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
+        <v>134</v>
+      </c>
+      <c r="B99" t="s">
         <v>232</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
+        <v>234</v>
+      </c>
+      <c r="B100" t="s">
         <v>235</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="B101" t="s">
         <v>238</v>
@@ -2619,7 +2625,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B102" t="s">
         <v>240</v>
@@ -2630,7 +2636,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B103" t="s">
         <v>242</v>
@@ -2641,21 +2647,21 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>246</v>
@@ -2663,7 +2669,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B106" t="s">
         <v>247</v>
@@ -2674,7 +2680,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="B107" t="s">
         <v>249</v>
@@ -2685,7 +2691,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B108" t="s">
         <v>251</v>
@@ -2696,18 +2702,18 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" t="s">
         <v>253</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>6</v>
+        <v>255</v>
       </c>
       <c r="B110" t="s">
         <v>256</v>
@@ -2718,24 +2724,35 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" t="s">
         <v>258</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
+        <v>260</v>
+      </c>
+      <c r="B112" t="s">
         <v>261</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C112" s="1" t="s">
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
         <v>263</v>
+      </c>
+      <c r="B113" t="s">
+        <v>264</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2851,6 +2868,7 @@
     <hyperlink ref="C110" r:id="rId109"/>
     <hyperlink ref="C111" r:id="rId110"/>
     <hyperlink ref="C112" r:id="rId111"/>
+    <hyperlink ref="C113" r:id="rId112"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2882,530 +2900,530 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B11" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B22" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B23" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>314</v>
+      </c>
+      <c r="B26" t="s">
         <v>312</v>
       </c>
-      <c r="B26" t="s">
-        <v>310</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B29" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B31" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B32" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B34" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B35" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B36" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B40" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B41" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B42" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B43" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B46" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -3489,68 +3507,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -3592,35 +3610,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="386">
   <si>
     <t>标题</t>
   </si>
@@ -28,9 +28,24 @@
     <t>链接</t>
   </si>
   <si>
+    <t>6/8/11号线东方体育中心【小整租】独卫独厨一室户 押一付一 3200 可办居住证 民用水电 房东直签 随时看房</t>
+  </si>
+  <si>
+    <t>06-25 21:19</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307859522/</t>
+  </si>
+  <si>
     <t>浦东6/9/12号线地铁沿线 近金桥高行外高桥世纪大道朝南一室户独厨独卫/整租一房一厅，押一付一，随时可以看房入住</t>
   </si>
   <si>
+    <t>06-25 20:50</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307858242/</t>
+  </si>
+  <si>
     <t>06-25 19:27</t>
   </si>
   <si>
@@ -817,6 +832,12 @@
     <t>https://www.douban.com/group/topic/307239290/</t>
   </si>
   <si>
+    <t>06-25 21:20</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307859598/</t>
+  </si>
+  <si>
     <t>06-25 11:06</t>
   </si>
   <si>
@@ -1061,9 +1082,6 @@
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307268461/</t>
-  </si>
-  <si>
-    <t>6/8/11号线东方体育中心【小整租】独卫独厨一室户 押一付一 3200 可办居住证 民用水电 房东直签 随时看房</t>
   </si>
   <si>
     <t>06-13 08:12</t>
@@ -1501,7 +1519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1547,7 +1565,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1569,7 +1587,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -1591,7 +1609,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -1613,18 +1631,18 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -1635,29 +1653,29 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -1668,29 +1686,29 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
@@ -1701,18 +1719,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
         <v>47</v>
@@ -1723,7 +1741,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
@@ -1734,18 +1752,18 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
@@ -1756,7 +1774,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
@@ -1778,7 +1796,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
         <v>61</v>
@@ -1789,18 +1807,18 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
         <v>66</v>
@@ -1811,7 +1829,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
         <v>68</v>
@@ -1822,18 +1840,18 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
         <v>73</v>
@@ -1844,7 +1862,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
         <v>75</v>
@@ -1855,62 +1873,62 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
         <v>88</v>
@@ -1921,7 +1939,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
         <v>90</v>
@@ -1943,7 +1961,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
         <v>95</v>
@@ -1965,7 +1983,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
         <v>100</v>
@@ -1976,51 +1994,51 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
         <v>111</v>
@@ -2031,18 +2049,18 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
         <v>113</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="B49" t="s">
         <v>116</v>
@@ -2064,7 +2082,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
         <v>121</v>
@@ -2075,18 +2093,18 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
         <v>126</v>
@@ -2097,7 +2115,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
         <v>128</v>
@@ -2108,29 +2126,29 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
         <v>135</v>
@@ -2141,18 +2159,18 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
         <v>137</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>139</v>
       </c>
       <c r="B59" t="s">
         <v>140</v>
@@ -2163,51 +2181,51 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="B64" t="s">
         <v>151</v>
@@ -2218,7 +2236,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
         <v>153</v>
@@ -2240,29 +2258,29 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
         <v>158</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
+        <v>160</v>
+      </c>
+      <c r="B68" t="s">
         <v>161</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="B69" t="s">
         <v>164</v>
@@ -2273,29 +2291,29 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>3</v>
+        <v>166</v>
       </c>
       <c r="B70" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>170</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
         <v>171</v>
@@ -2306,7 +2324,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
         <v>173</v>
@@ -2317,73 +2335,73 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="B74" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B75" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B76" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
         <v>188</v>
@@ -2394,7 +2412,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B81" t="s">
         <v>190</v>
@@ -2405,43 +2423,43 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="B82" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B83" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
         <v>197</v>
-      </c>
-      <c r="B85" t="s">
-        <v>198</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>199</v>
@@ -2449,18 +2467,18 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
         <v>200</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>3</v>
+        <v>202</v>
       </c>
       <c r="B87" t="s">
         <v>203</v>
@@ -2482,7 +2500,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
         <v>208</v>
@@ -2504,7 +2522,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B91" t="s">
         <v>213</v>
@@ -2526,7 +2544,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B93" t="s">
         <v>218</v>
@@ -2537,29 +2555,29 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>220</v>
       </c>
       <c r="B94" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="B96" t="s">
         <v>225</v>
@@ -2570,18 +2588,18 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
         <v>227</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>3</v>
+        <v>229</v>
       </c>
       <c r="B98" t="s">
         <v>230</v>
@@ -2592,18 +2610,18 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="B99" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>234</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s">
         <v>235</v>
@@ -2614,18 +2632,18 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
+        <v>139</v>
+      </c>
+      <c r="B101" t="s">
         <v>237</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="B102" t="s">
         <v>240</v>
@@ -2636,84 +2654,84 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>3</v>
+        <v>242</v>
       </c>
       <c r="B103" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B104" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B107" t="s">
         <v>249</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="B108" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="B110" t="s">
         <v>256</v>
@@ -2724,7 +2742,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B111" t="s">
         <v>258</v>
@@ -2746,13 +2764,35 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" t="s">
         <v>263</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C113" s="1" t="s">
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
         <v>265</v>
+      </c>
+      <c r="B114" t="s">
+        <v>266</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>268</v>
+      </c>
+      <c r="B115" t="s">
+        <v>269</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -2869,6 +2909,8 @@
     <hyperlink ref="C111" r:id="rId110"/>
     <hyperlink ref="C112" r:id="rId111"/>
     <hyperlink ref="C113" r:id="rId112"/>
+    <hyperlink ref="C114" r:id="rId113"/>
+    <hyperlink ref="C115" r:id="rId114"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2876,7 +2918,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2900,13 +2942,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2914,329 +2956,329 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>274</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>281</v>
       </c>
       <c r="B7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>284</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>280</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>287</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>284</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>290</v>
       </c>
       <c r="B12" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B21" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>260</v>
+        <v>166</v>
       </c>
       <c r="B23" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>265</v>
       </c>
       <c r="B24" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>314</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>321</v>
       </c>
       <c r="B27" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="B28" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>187</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>188</v>
+        <v>325</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>192</v>
       </c>
       <c r="B30" t="s">
-        <v>321</v>
+        <v>193</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>323</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>205</v>
+        <v>330</v>
       </c>
       <c r="B32" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3244,186 +3286,197 @@
         <v>210</v>
       </c>
       <c r="B33" t="s">
-        <v>211</v>
+        <v>333</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B34" t="s">
-        <v>329</v>
+        <v>216</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c r="B35" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>260</v>
+        <v>139</v>
       </c>
       <c r="B36" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>265</v>
       </c>
       <c r="B37" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>255</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>343</v>
+        <v>260</v>
       </c>
       <c r="B41" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>158</v>
+        <v>350</v>
       </c>
       <c r="B42" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>348</v>
+        <v>163</v>
       </c>
       <c r="B43" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>205</v>
       </c>
       <c r="B47" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>361</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>367</v>
+      </c>
+      <c r="B50" t="s">
+        <v>368</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -3476,6 +3529,7 @@
     <hyperlink ref="C47" r:id="rId46"/>
     <hyperlink ref="C48" r:id="rId47"/>
     <hyperlink ref="C49" r:id="rId48"/>
+    <hyperlink ref="C50" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3507,68 +3561,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B3" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -3610,35 +3664,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_rent_info.xlsx
+++ b/filtered_rent_info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="390">
   <si>
     <t>标题</t>
   </si>
@@ -28,6 +28,24 @@
     <t>链接</t>
   </si>
   <si>
+    <t>整租8号线杨思【小整租】独卫独厨 押一付一 3200 包网费水费 地铁五分钟 房东直签</t>
+  </si>
+  <si>
+    <t>06-25 23:49</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307866204/</t>
+  </si>
+  <si>
+    <t>长寿路地铁站一居室整租，独卫独厨</t>
+  </si>
+  <si>
+    <t>06-25 22:10</t>
+  </si>
+  <si>
+    <t>https://www.douban.com/group/topic/307861662/</t>
+  </si>
+  <si>
     <t>6/8/11号线东方体育中心【小整租】独卫独厨一室户 押一付一 3200 可办居住证 民用水电 房东直签 随时看房</t>
   </si>
   <si>
@@ -142,16 +160,10 @@
     <t>https://www.douban.com/group/topic/307791640/</t>
   </si>
   <si>
-    <t>长寿路地铁站一居室整租，独卫独厨</t>
-  </si>
-  <si>
     <t>06-24 11:41</t>
   </si>
   <si>
     <t>https://www.douban.com/group/topic/307789718/</t>
-  </si>
-  <si>
-    <t>整租8号线杨思【小整租】独卫独厨 押一付一 3200 包网费水费 地铁五分钟 房东直签</t>
   </si>
   <si>
     <t>06-24 08:57</t>
@@ -1519,7 +1531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1565,95 +1577,95 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -1664,51 +1676,51 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
@@ -1741,7 +1753,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
@@ -1752,29 +1764,29 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
@@ -1785,51 +1797,51 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
         <v>58</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
         <v>63</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
         <v>68</v>
@@ -1840,29 +1852,29 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
         <v>70</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
         <v>75</v>
@@ -1873,29 +1885,29 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
         <v>77</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
         <v>82</v>
@@ -1906,7 +1918,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
         <v>84</v>
@@ -1917,7 +1929,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
         <v>86</v>
@@ -1928,7 +1940,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
         <v>88</v>
@@ -1939,7 +1951,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
         <v>90</v>
@@ -1950,73 +1962,73 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
         <v>92</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" t="s">
         <v>97</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" t="s">
         <v>102</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="B45" t="s">
         <v>107</v>
@@ -2027,7 +2039,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
         <v>109</v>
@@ -2038,7 +2050,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
         <v>111</v>
@@ -2049,7 +2061,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B48" t="s">
         <v>113</v>
@@ -2060,62 +2072,62 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" t="s">
         <v>115</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="B51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" t="s">
         <v>123</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="B54" t="s">
         <v>128</v>
@@ -2126,29 +2138,29 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
         <v>130</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="B57" t="s">
         <v>135</v>
@@ -2159,7 +2171,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B58" t="s">
         <v>137</v>
@@ -2170,40 +2182,40 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
         <v>139</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B60" t="s">
-        <v>143</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="B61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="B62" t="s">
         <v>147</v>
@@ -2214,7 +2226,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B63" t="s">
         <v>149</v>
@@ -2225,7 +2237,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B64" t="s">
         <v>151</v>
@@ -2236,7 +2248,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B65" t="s">
         <v>153</v>
@@ -2247,73 +2259,73 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" t="s">
         <v>155</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" t="s">
         <v>160</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B69" t="s">
-        <v>164</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>164</v>
+      </c>
+      <c r="B70" t="s">
+        <v>165</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="B70" t="s">
-        <v>167</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
       <c r="B71" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="B72" t="s">
         <v>171</v>
@@ -2324,7 +2336,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
         <v>173</v>
@@ -2335,29 +2347,29 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
         <v>175</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="B75" t="s">
+        <v>177</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="B76" t="s">
         <v>180</v>
@@ -2368,7 +2380,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B77" t="s">
         <v>182</v>
@@ -2379,7 +2391,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B78" t="s">
         <v>184</v>
@@ -2390,7 +2402,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B79" t="s">
         <v>186</v>
@@ -2401,7 +2413,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B80" t="s">
         <v>188</v>
@@ -2412,7 +2424,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
         <v>190</v>
@@ -2423,29 +2435,29 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" t="s">
         <v>192</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
+        <v>194</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="B84" t="s">
         <v>197</v>
@@ -2456,128 +2468,128 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="B87" t="s">
+        <v>201</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B88" t="s">
-        <v>206</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="B89" t="s">
+        <v>207</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
+        <v>209</v>
+      </c>
+      <c r="B90" t="s">
         <v>210</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B91" t="s">
+        <v>212</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
+        <v>214</v>
+      </c>
+      <c r="B92" t="s">
         <v>215</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B93" t="s">
+        <v>217</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
+        <v>219</v>
+      </c>
+      <c r="B94" t="s">
         <v>220</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B95" t="s">
+        <v>222</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="B96" t="s">
         <v>225</v>
@@ -2588,7 +2600,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B97" t="s">
         <v>227</v>
@@ -2599,40 +2611,40 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
+        <v>22</v>
+      </c>
+      <c r="B98" t="s">
         <v>229</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" t="s">
+        <v>231</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="B99" t="s">
-        <v>233</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>6</v>
+        <v>233</v>
       </c>
       <c r="B100" t="s">
+        <v>234</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>139</v>
+        <v>236</v>
       </c>
       <c r="B101" t="s">
         <v>237</v>
@@ -2643,40 +2655,40 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" t="s">
         <v>239</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
+        <v>143</v>
+      </c>
+      <c r="B103" t="s">
+        <v>241</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="B103" t="s">
-        <v>243</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>21</v>
+        <v>243</v>
       </c>
       <c r="B104" t="s">
+        <v>244</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>6</v>
+        <v>246</v>
       </c>
       <c r="B105" t="s">
         <v>247</v>
@@ -2687,7 +2699,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B106" t="s">
         <v>249</v>
@@ -2698,32 +2710,32 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B107" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B109" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>255</v>
@@ -2731,7 +2743,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="B110" t="s">
         <v>256</v>
@@ -2742,7 +2754,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B111" t="s">
         <v>258</v>
@@ -2753,46 +2765,68 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
+        <v>81</v>
+      </c>
+      <c r="B112" t="s">
         <v>260</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B113" t="s">
+        <v>262</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
+        <v>264</v>
+      </c>
+      <c r="B114" t="s">
         <v>265</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115" t="s">
+        <v>267</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B115" t="s">
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
         <v>269</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="B116" t="s">
         <v>270</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>272</v>
+      </c>
+      <c r="B117" t="s">
+        <v>273</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2911,6 +2945,8 @@
     <hyperlink ref="C113" r:id="rId112"/>
     <hyperlink ref="C114" r:id="rId113"/>
     <hyperlink ref="C115" r:id="rId114"/>
+    <hyperlink ref="C116" r:id="rId115"/>
+    <hyperlink ref="C117" r:id="rId116"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2942,541 +2978,541 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       